--- a/example/Scenarii_monoculms/inputs/Generate_inputs.xlsx
+++ b/example/Scenarii_monoculms/inputs/Generate_inputs.xlsx
@@ -9,11 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7320"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7320" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="INPUTS" sheetId="15" r:id="rId1"/>
     <sheet name="Fit leaf_L" sheetId="21" r:id="rId2"/>
+    <sheet name="SL_ratio" sheetId="22" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -83,7 +84,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="355" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="366" uniqueCount="162">
   <si>
     <t>plant</t>
   </si>
@@ -651,6 +652,318 @@
   <si>
     <t>internode_Lmax_lig</t>
   </si>
+  <si>
+    <r>
+      <t>parameters</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">SL_ratio_a </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">* </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color rgb="FF000066"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">leaf_rank </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">** </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF2D4293"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">3 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">+ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>parameters</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">SL_ratio_b </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">* </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color rgb="FF000066"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">leaf_rank </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">** </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF2D4293"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">2 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">+ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>parameters</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">SL_ratio_c </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">* </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color rgb="FF000066"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">leaf_rank </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">+ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>parameters</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>SL_ratio_d</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">def </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>calculate_SL_ratio</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000066"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color rgb="FF000066"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>leaf_rank</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000066"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>:</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0EB242"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>""" Sheath:Lamina final length ratio according to the rank. Parameters from Dornbush (2011).</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">SL_ratio_a </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SL_ratio_b </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SL_ratio_c </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SL_ratio_d </t>
+  </si>
+  <si>
+    <t>SLratio_Vmodel</t>
+  </si>
+  <si>
+    <t>SLratio_Vnew</t>
+  </si>
+  <si>
+    <t>SLratio_Vnew2</t>
+  </si>
 </sst>
 </file>
 
@@ -662,7 +975,7 @@
     <numFmt numFmtId="166" formatCode="0.0"/>
     <numFmt numFmtId="167" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="21" x14ac:knownFonts="1">
+  <fonts count="28" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -811,6 +1124,51 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Courier New"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF333333"/>
+      <name val="Courier New"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="10"/>
+      <color rgb="FF000066"/>
+      <name val="Courier New"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF2D4293"/>
+      <name val="Courier New"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FFFA0000"/>
+      <name val="Courier New"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000066"/>
+      <name val="Courier New"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF0EB242"/>
+      <name val="Courier New"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="4">
@@ -1077,7 +1435,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="95">
+  <cellXfs count="99">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1211,6 +1569,19 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
@@ -1220,7 +1591,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1254,7 +1624,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1595,7 +1964,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1941,6 +2309,648 @@
     </a:ln>
     <a:effectLst/>
   </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="fr-FR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="fr-FR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="fr-FR"/>
+              <a:t>SL ratio</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>SL_ratio!$B$12</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>SLratio_Vmodel</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>SL_ratio!$A$13:$A$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>SL_ratio!$B$13:$B$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>0.37839999999999996</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.32199999999999995</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.31439999999999996</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.34299999999999997</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.39519999999999977</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.45839999999999981</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.52</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.5673999999999999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.58799999999999986</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.56919999999999948</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.49839999999999973</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.36299999999999977</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.15040000000000031</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-0.15199999999999969</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-EE06-481C-BAC0-5898482901C7}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>SL_ratio!$C$12</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>SLratio_Vnew</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>SL_ratio!$A$13:$A$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>SL_ratio!$C$13:$C$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>0.26762999999999998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.28526000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.30288999999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.32052000000000003</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.33815000000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.35577999999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.37341000000000002</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.39104</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.40866999999999998</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.42630000000000001</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.44392999999999999</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.46155999999999997</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.47919</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.49681999999999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-EE06-481C-BAC0-5898482901C7}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>SL_ratio!$D$12</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>SLratio_Vnew2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>SL_ratio!$A$13:$A$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>SL_ratio!$D$13:$D$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>0.312</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.32400000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.33599999999999997</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.34799999999999998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.36</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.372</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.38400000000000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.39600000000000002</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.40799999999999997</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.42</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.432</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.44400000000000001</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.45599999999999996</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.46799999999999997</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-EE06-481C-BAC0-5898482901C7}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1219627551"/>
+        <c:axId val="1219613823"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1219627551"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:strRef>
+              <c:f>SL_ratio!$A$12</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>metamer</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1219613823"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1219613823"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="fr-FR"/>
+                  <a:t>SL ratio</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1219627551"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
   <c:txPr>
     <a:bodyPr/>
     <a:lstStyle/>
@@ -3138,6 +4148,41 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>380999</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>180974</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Graphique 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
   <a:themeElements>
@@ -3406,7 +4451,7 @@
   </sheetPr>
   <dimension ref="A1:BH44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B4" workbookViewId="0">
+    <sheetView topLeftCell="B4" workbookViewId="0">
       <selection activeCell="M14" sqref="M14"/>
     </sheetView>
   </sheetViews>
@@ -3463,7 +4508,7 @@
       </c>
     </row>
     <row r="4" spans="1:60" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="91" t="s">
+      <c r="A4" s="96" t="s">
         <v>70</v>
       </c>
       <c r="B4" s="5" t="s">
@@ -3643,7 +4688,7 @@
       </c>
     </row>
     <row r="5" spans="1:60" x14ac:dyDescent="0.25">
-      <c r="A5" s="91"/>
+      <c r="A5" s="96"/>
       <c r="B5">
         <v>1</v>
       </c>
@@ -3737,19 +4782,19 @@
         <v>33</v>
       </c>
       <c r="AE5" s="1">
-        <f>AK5*$AV$15</f>
+        <f t="shared" ref="AE5:AE12" si="0">AK5*$AV$15</f>
         <v>8.9088436646547198</v>
       </c>
       <c r="AF5" s="1">
-        <f>AK5*$AX5</f>
+        <f t="shared" ref="AF5:AF12" si="1">AK5*$AX5</f>
         <v>0.99652622317307915</v>
       </c>
       <c r="AG5" s="24">
-        <f>AK5*$BA5</f>
+        <f t="shared" ref="AG5:AG12" si="2">AK5*$BA5</f>
         <v>8.9088436646547198</v>
       </c>
       <c r="AH5" s="26">
-        <f>AK5*$AY5</f>
+        <f t="shared" ref="AH5:AH12" si="3">AK5*$AY5</f>
         <v>9.9652622317307902</v>
       </c>
       <c r="AI5" s="1">
@@ -3796,29 +4841,29 @@
         <v>32</v>
       </c>
       <c r="AU5" s="55">
-        <f>AK5+AE5*$E$31+AF5*$F$31+AH5*$J$31</f>
+        <f t="shared" ref="AU5:AU12" si="4">AK5+AE5*$E$31+AF5*$F$31+AH5*$J$31</f>
         <v>3.3011513455652687E-3</v>
       </c>
       <c r="AV5" s="56">
-        <f>(1-AK5/AU5)*100</f>
+        <f t="shared" ref="AV5:AV12" si="5">(1-AK5/AU5)*100</f>
         <v>38.829284515098252</v>
       </c>
       <c r="AW5" s="13">
         <v>4.5999999999999996</v>
       </c>
       <c r="AX5" s="13">
-        <f>(($AW5/100)*(1+($AV$15+$BA5)*$E$31)-$Y$16)/(((1+1/$X$23)*(14*10^(-6)))-(($J$31/$X$23+$F$31)*$AW5/100))</f>
+        <f t="shared" ref="AX5:AX12" si="6">(($AW5/100)*(1+($AV$15+$BA5)*$E$31)-$Y$16)/(((1+1/$X$23)*(14*10^(-6)))-(($J$31/$X$23+$F$31)*$AW5/100))</f>
         <v>493.49156696102204</v>
       </c>
       <c r="AY5" s="13">
-        <f>$AX5/$X$23</f>
+        <f t="shared" ref="AY5:AY12" si="7">$AX5/$X$23</f>
         <v>4934.91566961022</v>
       </c>
       <c r="AZ5" s="13">
         <v>10</v>
       </c>
       <c r="BA5" s="68">
-        <f>$AZ5/100/(1-$X$33)*$X$32*10^6/$X$30</f>
+        <f t="shared" ref="BA5:BA12" si="8">$AZ5/100/(1-$X$33)*$X$32*10^6/$X$30</f>
         <v>4411.7647058823532</v>
       </c>
       <c r="BB5" s="7">
@@ -3829,7 +4874,7 @@
         <v>9.1058115591388438E-4</v>
       </c>
       <c r="BD5" s="7">
-        <f>J5*Z5</f>
+        <f t="shared" ref="BD5:BD12" si="9">J5*Z5</f>
         <v>2.6054999999999997E-3</v>
       </c>
       <c r="BE5" s="8">
@@ -3837,17 +4882,17 @@
         <v>2.0180134110471437E-3</v>
       </c>
       <c r="BF5" s="8">
-        <f>$T$27+$T$28*$T$30*(L5)^$T$29</f>
+        <f t="shared" ref="BF5:BF12" si="10">$T$27+$T$28*$T$30*(L5)^$T$29</f>
         <v>4.0277279389003447E-3</v>
       </c>
       <c r="BG5" s="7"/>
       <c r="BH5" s="7">
-        <f>$BC$20*$BB$22*$BB$24*(M5)^$BB$21</f>
+        <f t="shared" ref="BH5:BH12" si="11">$BC$20*$BB$22*$BB$24*(M5)^$BB$21</f>
         <v>1.3244862745926676E-6</v>
       </c>
     </row>
     <row r="6" spans="1:60" x14ac:dyDescent="0.25">
-      <c r="A6" s="91"/>
+      <c r="A6" s="96"/>
       <c r="B6">
         <v>1</v>
       </c>
@@ -3858,7 +4903,7 @@
         <v>4</v>
       </c>
       <c r="E6">
-        <f t="shared" ref="E6:E11" si="0">(10-D6)*$E$2</f>
+        <f t="shared" ref="E6:E11" si="12">(10-D6)*$E$2</f>
         <v>3287520</v>
       </c>
       <c r="F6">
@@ -3878,7 +4923,7 @@
         <v>2.894E-2</v>
       </c>
       <c r="K6" s="36">
-        <f t="shared" ref="K6:K12" si="1">J6-M6</f>
+        <f t="shared" ref="K6:K12" si="13">J6-M6</f>
         <v>2.8930000000000001E-2</v>
       </c>
       <c r="L6" s="36">
@@ -3915,7 +4960,7 @@
         <v>3.3993521965748258E-2</v>
       </c>
       <c r="W6" s="1">
-        <f t="shared" ref="W6:W12" si="2">$W$2*EXP($X$2*E6)</f>
+        <f t="shared" ref="W6:W12" si="14">$W$2*EXP($X$2*E6)</f>
         <v>2.6776375833009532E-5</v>
       </c>
       <c r="X6" t="s">
@@ -3940,19 +4985,19 @@
         <v>33</v>
       </c>
       <c r="AE6" s="1">
-        <f>AK6*$AV$15</f>
+        <f t="shared" si="0"/>
         <v>3.5881220853167113</v>
       </c>
       <c r="AF6" s="1">
-        <f>AK6*$AX6</f>
+        <f t="shared" si="1"/>
         <v>0.67583627559825854</v>
       </c>
       <c r="AG6" s="24">
-        <f>AK6*$BA6</f>
+        <f t="shared" si="2"/>
         <v>1.7940610426583556</v>
       </c>
       <c r="AH6" s="26">
-        <f>AK6*$AY6</f>
+        <f t="shared" si="3"/>
         <v>6.7583627559825858</v>
       </c>
       <c r="AI6" s="1">
@@ -3964,19 +5009,19 @@
         <v>1.6879744031468265E-7</v>
       </c>
       <c r="AK6">
-        <f t="shared" ref="AK6:AK12" si="3">AI6+AJ6</f>
+        <f t="shared" ref="AK6:AK12" si="15">AI6+AJ6</f>
         <v>8.1330767267178783E-4</v>
       </c>
       <c r="AL6">
-        <f t="shared" ref="AL6:AM12" si="4">AI6*0.005</f>
+        <f t="shared" ref="AL6:AM12" si="16">AI6*0.005</f>
         <v>4.0656943761573658E-6</v>
       </c>
       <c r="AM6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="16"/>
         <v>8.4398720157341326E-10</v>
       </c>
       <c r="AN6">
-        <f t="shared" ref="AN6:AN12" si="5">AL6+AM6</f>
+        <f t="shared" ref="AN6:AN12" si="17">AL6+AM6</f>
         <v>4.066538363358939E-6</v>
       </c>
       <c r="AO6" s="1">
@@ -3992,36 +5037,36 @@
         <v>33</v>
       </c>
       <c r="AS6" s="1">
-        <f t="shared" ref="AS6:AS12" si="6">T6</f>
+        <f t="shared" ref="AS6:AS12" si="18">T6</f>
         <v>0.1331</v>
       </c>
       <c r="AT6" t="s">
         <v>32</v>
       </c>
       <c r="AU6" s="55">
-        <f>AK6+AE6*$E$31+AF6*$F$31+AH6*$J$31</f>
+        <f t="shared" si="4"/>
         <v>1.612515340843685E-3</v>
       </c>
       <c r="AV6" s="56">
-        <f>(1-AK6/AU6)*100</f>
+        <f t="shared" si="5"/>
         <v>49.562794717583479</v>
       </c>
       <c r="AW6" s="13">
         <v>6.5</v>
       </c>
       <c r="AX6" s="13">
-        <f>(($AW6/100)*(1+($AV$15+$BA6)*$E$31)-$Y$16)/(((1+1/$X$23)*(14*10^(-6)))-(($J$31/$X$23+$F$31)*$AW6/100))</f>
+        <f t="shared" si="6"/>
         <v>830.97245766546928</v>
       </c>
       <c r="AY6" s="13">
-        <f>$AX6/$X$23</f>
+        <f t="shared" si="7"/>
         <v>8309.724576654693</v>
       </c>
       <c r="AZ6" s="13">
         <v>5</v>
       </c>
       <c r="BA6" s="68">
-        <f>$AZ6/100/(1-$X$33)*$X$32*10^6/$X$30</f>
+        <f t="shared" si="8"/>
         <v>2205.8823529411766</v>
       </c>
       <c r="BB6" s="7">
@@ -4032,7 +5077,7 @@
         <v>9.1017858127080242E-4</v>
       </c>
       <c r="BD6" s="7" t="e">
-        <f>J6*Z6</f>
+        <f t="shared" si="9"/>
         <v>#VALUE!</v>
       </c>
       <c r="BE6" s="8" t="e">
@@ -4040,17 +5085,17 @@
         <v>#VALUE!</v>
       </c>
       <c r="BF6" s="8">
-        <f>$T$27+$T$28*$T$30*(L6)^$T$29</f>
+        <f t="shared" si="10"/>
         <v>8.1313887523147316E-4</v>
       </c>
       <c r="BG6" s="7"/>
       <c r="BH6" s="7">
-        <f>$BC$20*$BB$22*$BB$24*(M6)^$BB$21</f>
+        <f t="shared" si="11"/>
         <v>1.6879744031468265E-7</v>
       </c>
     </row>
     <row r="7" spans="1:60" x14ac:dyDescent="0.25">
-      <c r="A7" s="91"/>
+      <c r="A7" s="96"/>
       <c r="B7">
         <v>1</v>
       </c>
@@ -4061,7 +5106,7 @@
         <v>5</v>
       </c>
       <c r="E7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="12"/>
         <v>2739600</v>
       </c>
       <c r="F7">
@@ -4081,10 +5126,10 @@
         <v>2.894E-2</v>
       </c>
       <c r="K7" s="36">
-        <f t="shared" si="1"/>
+        <f t="shared" si="13"/>
         <v>2.894E-2</v>
       </c>
-      <c r="L7" s="94">
+      <c r="L7" s="91">
         <v>1.9677388526365687E-3</v>
       </c>
       <c r="M7" s="36">
@@ -4118,7 +5163,7 @@
         <v>32</v>
       </c>
       <c r="W7" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="14"/>
         <v>1.5480791541095022E-5</v>
       </c>
       <c r="X7" t="s">
@@ -4143,19 +5188,19 @@
         <v>33</v>
       </c>
       <c r="AE7" s="1">
-        <f>AK7*$AV$15</f>
+        <f t="shared" si="0"/>
         <v>0.12873040793583418</v>
       </c>
       <c r="AF7" s="1">
-        <f>AK7*$AX7</f>
+        <f t="shared" si="1"/>
         <v>5.3069049208309536E-2</v>
       </c>
       <c r="AG7" s="24">
-        <f>AK7*$BA7</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AH7" s="26">
-        <f>AK7*$AY7</f>
+        <f t="shared" si="3"/>
         <v>0.53069049208309527</v>
       </c>
       <c r="AI7" s="1">
@@ -4166,19 +5211,19 @@
         <v>0</v>
       </c>
       <c r="AK7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="15"/>
         <v>2.9178892465455746E-5</v>
       </c>
       <c r="AL7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="16"/>
         <v>1.4589446232727874E-7</v>
       </c>
       <c r="AM7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="AN7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="17"/>
         <v>1.4589446232727874E-7</v>
       </c>
       <c r="AO7" s="1">
@@ -4194,63 +5239,63 @@
         <v>33</v>
       </c>
       <c r="AS7" s="1" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="18"/>
         <v>NA</v>
       </c>
       <c r="AT7" t="s">
         <v>32</v>
       </c>
       <c r="AU7" s="55">
-        <f>AK7+AE7*$E$31+AF7*$F$31+AH7*$J$31</f>
+        <f t="shared" si="4"/>
         <v>8.7563453056915228E-5</v>
       </c>
       <c r="AV7" s="56">
-        <f>(1-AK7/AU7)*100</f>
+        <f t="shared" si="5"/>
         <v>66.676859526668281</v>
       </c>
       <c r="AW7" s="13">
         <v>9.5</v>
       </c>
       <c r="AX7" s="13">
-        <f>(($AW7/100)*(1+($AV$15+$BA7)*$E$31)-$Y$16)/(((1+1/$X$23)*(14*10^(-6)))-(($J$31/$X$23+$F$31)*$AW7/100))</f>
+        <f t="shared" si="6"/>
         <v>1818.7478935719314</v>
       </c>
       <c r="AY7" s="13">
-        <f>$AX7/$X$23</f>
+        <f t="shared" si="7"/>
         <v>18187.478935719311</v>
       </c>
       <c r="AZ7" s="13">
         <v>0</v>
       </c>
       <c r="BA7" s="68">
-        <f>$AZ7/100/(1-$X$33)*$X$32*10^6/$X$30</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="BB7" s="7"/>
       <c r="BC7" s="8" t="e">
-        <f>$T$27+$T$28*$T$30*(T7*$T$32)^$T$29</f>
+        <f t="shared" ref="BC7:BC12" si="19">$T$27+$T$28*$T$30*(T7*$T$32)^$T$29</f>
         <v>#VALUE!</v>
       </c>
       <c r="BD7" s="7" t="e">
-        <f>J7*Z7</f>
+        <f t="shared" si="9"/>
         <v>#VALUE!</v>
       </c>
       <c r="BE7" s="8" t="e">
-        <f>BC7+((BD7-BC7)/$T$31)*F7</f>
+        <f t="shared" ref="BE7:BE12" si="20">BC7+((BD7-BC7)/$T$31)*F7</f>
         <v>#VALUE!</v>
       </c>
       <c r="BF7" s="8">
-        <f>$T$27+$T$28*$T$30*(L7)^$T$29</f>
+        <f t="shared" si="10"/>
         <v>2.9178892465455746E-5</v>
       </c>
       <c r="BG7" s="7"/>
       <c r="BH7" s="7">
-        <f>$BC$20*$BB$22*$BB$24*(M7)^$BB$21</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:60" x14ac:dyDescent="0.25">
-      <c r="A8" s="91"/>
+      <c r="A8" s="96"/>
       <c r="B8">
         <v>1</v>
       </c>
@@ -4261,7 +5306,7 @@
         <v>6</v>
       </c>
       <c r="E8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="12"/>
         <v>2191680</v>
       </c>
       <c r="F8">
@@ -4277,14 +5322,14 @@
         <v>33</v>
       </c>
       <c r="J8">
-        <f t="shared" ref="J8:J12" si="7">J7-M8</f>
+        <f t="shared" ref="J8:J12" si="21">J7-M8</f>
         <v>2.894E-2</v>
       </c>
       <c r="K8" s="36">
-        <f t="shared" si="1"/>
+        <f t="shared" si="13"/>
         <v>2.894E-2</v>
       </c>
-      <c r="L8" s="94">
+      <c r="L8" s="91">
         <v>7.5411160325070082E-4</v>
       </c>
       <c r="M8" s="36">
@@ -4318,7 +5363,7 @@
         <v>32</v>
       </c>
       <c r="W8" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="14"/>
         <v>8.9502368891684043E-6</v>
       </c>
       <c r="X8" t="s">
@@ -4343,42 +5388,42 @@
         <v>33</v>
       </c>
       <c r="AE8" s="1">
-        <f>AK8*$AV$15</f>
+        <f t="shared" si="0"/>
         <v>3.7798204342272199E-2</v>
       </c>
       <c r="AF8" s="1">
-        <f>AK8*$AX8</f>
+        <f t="shared" si="1"/>
         <v>1.5582291693083372E-2</v>
       </c>
       <c r="AG8" s="24">
-        <f>AK8*$BA8</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AH8" s="26">
-        <f>AK8*$AY8</f>
+        <f t="shared" si="3"/>
         <v>0.15582291693083369</v>
       </c>
       <c r="AI8" s="1">
-        <f t="shared" ref="AI8:AI12" si="8">BF8</f>
+        <f t="shared" ref="AI8:AI12" si="22">BF8</f>
         <v>8.5675929842483652E-6</v>
       </c>
       <c r="AJ8" s="1">
         <v>0</v>
       </c>
       <c r="AK8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="15"/>
         <v>8.5675929842483652E-6</v>
       </c>
       <c r="AL8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="16"/>
         <v>4.2837964921241826E-8</v>
       </c>
       <c r="AM8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="AN8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="17"/>
         <v>4.2837964921241826E-8</v>
       </c>
       <c r="AO8" t="s">
@@ -4394,63 +5439,63 @@
         <v>33</v>
       </c>
       <c r="AS8" s="1" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="18"/>
         <v>NA</v>
       </c>
       <c r="AT8" t="s">
         <v>32</v>
       </c>
       <c r="AU8" s="55">
-        <f>AK8+AE8*$E$31+AF8*$F$31+AH8*$J$31</f>
+        <f t="shared" si="4"/>
         <v>2.5710640901642957E-5</v>
       </c>
       <c r="AV8" s="56">
-        <f>(1-AK8/AU8)*100</f>
+        <f t="shared" si="5"/>
         <v>66.676859526668281</v>
       </c>
       <c r="AW8" s="13">
         <v>9.5</v>
       </c>
       <c r="AX8" s="13">
-        <f>(($AW8/100)*(1+($AV$15+$BA8)*$E$31)-$Y$16)/(((1+1/$X$23)*(14*10^(-6)))-(($J$31/$X$23+$F$31)*$AW8/100))</f>
+        <f t="shared" si="6"/>
         <v>1818.7478935719314</v>
       </c>
       <c r="AY8" s="13">
-        <f>$AX8/$X$23</f>
+        <f t="shared" si="7"/>
         <v>18187.478935719311</v>
       </c>
       <c r="AZ8" s="13">
         <v>0</v>
       </c>
       <c r="BA8" s="68">
-        <f>$AZ8/100/(1-$X$33)*$X$32*10^6/$X$30</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="BB8" s="7"/>
       <c r="BC8" s="8" t="e">
-        <f>$T$27+$T$28*$T$30*(T8*$T$32)^$T$29</f>
+        <f t="shared" si="19"/>
         <v>#VALUE!</v>
       </c>
       <c r="BD8" s="7" t="e">
-        <f>J8*Z8</f>
+        <f t="shared" si="9"/>
         <v>#VALUE!</v>
       </c>
       <c r="BE8" s="8" t="e">
-        <f>BC8+((BD8-BC8)/$T$31)*F8</f>
+        <f t="shared" si="20"/>
         <v>#VALUE!</v>
       </c>
       <c r="BF8" s="8">
-        <f>$T$27+$T$28*$T$30*(L8)^$T$29</f>
+        <f t="shared" si="10"/>
         <v>8.5675929842483652E-6</v>
       </c>
       <c r="BG8" s="7"/>
       <c r="BH8" s="7">
-        <f>$BC$20*$BB$22*$BB$24*(M8)^$BB$21</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:60" x14ac:dyDescent="0.25">
-      <c r="A9" s="91"/>
+      <c r="A9" s="96"/>
       <c r="B9">
         <v>1</v>
       </c>
@@ -4461,7 +5506,7 @@
         <v>7</v>
       </c>
       <c r="E9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="12"/>
         <v>1643760</v>
       </c>
       <c r="F9">
@@ -4477,14 +5522,14 @@
         <v>33</v>
       </c>
       <c r="J9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="21"/>
         <v>2.894E-2</v>
       </c>
       <c r="K9" s="36">
-        <f t="shared" si="1"/>
+        <f t="shared" si="13"/>
         <v>2.894E-2</v>
       </c>
-      <c r="L9" s="94">
+      <c r="L9" s="91">
         <v>3.1376376813217782E-4</v>
       </c>
       <c r="M9" s="36">
@@ -4518,7 +5563,7 @@
         <v>32</v>
       </c>
       <c r="W9" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="14"/>
         <v>5.1745894361784425E-6</v>
       </c>
       <c r="X9" t="s">
@@ -4543,42 +5588,42 @@
         <v>33</v>
       </c>
       <c r="AE9" s="1">
-        <f>AK9*$AV$15</f>
+        <f t="shared" si="0"/>
         <v>1.2381691922498196E-2</v>
       </c>
       <c r="AF9" s="1">
-        <f>AK9*$AX9</f>
+        <f t="shared" si="1"/>
         <v>5.1043465833240436E-3</v>
       </c>
       <c r="AG9" s="24">
-        <f>AK9*$BA9</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AH9" s="26">
-        <f>AK9*$AY9</f>
+        <f t="shared" si="3"/>
         <v>5.1043465833240424E-2</v>
       </c>
       <c r="AI9" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="22"/>
         <v>2.8065168357662577E-6</v>
       </c>
       <c r="AJ9" s="1">
         <v>0</v>
       </c>
       <c r="AK9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="15"/>
         <v>2.8065168357662577E-6</v>
       </c>
       <c r="AL9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="16"/>
         <v>1.4032584178831289E-8</v>
       </c>
       <c r="AM9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="AN9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="17"/>
         <v>1.4032584178831289E-8</v>
       </c>
       <c r="AO9" t="s">
@@ -4594,63 +5639,63 @@
         <v>33</v>
       </c>
       <c r="AS9" s="1" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="18"/>
         <v>NA</v>
       </c>
       <c r="AT9" t="s">
         <v>32</v>
       </c>
       <c r="AU9" s="55">
-        <f>AK9+AE9*$E$31+AF9*$F$31+AH9*$J$31</f>
+        <f t="shared" si="4"/>
         <v>8.4221258737971998E-6</v>
       </c>
       <c r="AV9" s="56">
-        <f>(1-AK9/AU9)*100</f>
+        <f t="shared" si="5"/>
         <v>66.676859526668281</v>
       </c>
       <c r="AW9" s="13">
         <v>9.5</v>
       </c>
       <c r="AX9" s="13">
-        <f>(($AW9/100)*(1+($AV$15+$BA9)*$E$31)-$Y$16)/(((1+1/$X$23)*(14*10^(-6)))-(($J$31/$X$23+$F$31)*$AW9/100))</f>
+        <f t="shared" si="6"/>
         <v>1818.7478935719314</v>
       </c>
       <c r="AY9" s="13">
-        <f>$AX9/$X$23</f>
+        <f t="shared" si="7"/>
         <v>18187.478935719311</v>
       </c>
       <c r="AZ9" s="13">
         <v>0</v>
       </c>
       <c r="BA9" s="68">
-        <f>$AZ9/100/(1-$X$33)*$X$32*10^6/$X$30</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="BB9" s="7"/>
       <c r="BC9" s="8" t="e">
-        <f>$T$27+$T$28*$T$30*(T9*$T$32)^$T$29</f>
+        <f t="shared" si="19"/>
         <v>#VALUE!</v>
       </c>
       <c r="BD9" s="7" t="e">
-        <f>J9*Z9</f>
+        <f t="shared" si="9"/>
         <v>#VALUE!</v>
       </c>
       <c r="BE9" s="8" t="e">
-        <f>BC9+((BD9-BC9)/$T$31)*F9</f>
+        <f t="shared" si="20"/>
         <v>#VALUE!</v>
       </c>
       <c r="BF9" s="8">
-        <f>$T$27+$T$28*$T$30*(L9)^$T$29</f>
+        <f t="shared" si="10"/>
         <v>2.8065168357662577E-6</v>
       </c>
       <c r="BG9" s="7"/>
       <c r="BH9" s="7">
-        <f>$BC$20*$BB$22*$BB$24*(M9)^$BB$21</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:60" x14ac:dyDescent="0.25">
-      <c r="A10" s="91"/>
+      <c r="A10" s="96"/>
       <c r="B10">
         <v>1</v>
       </c>
@@ -4661,7 +5706,7 @@
         <v>8</v>
       </c>
       <c r="E10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="12"/>
         <v>1095840</v>
       </c>
       <c r="F10">
@@ -4677,14 +5722,14 @@
         <v>33</v>
       </c>
       <c r="J10">
-        <f t="shared" si="7"/>
+        <f t="shared" si="21"/>
         <v>2.894E-2</v>
       </c>
       <c r="K10" s="36">
-        <f t="shared" si="1"/>
+        <f t="shared" si="13"/>
         <v>2.894E-2</v>
       </c>
-      <c r="L10" s="94">
+      <c r="L10" s="91">
         <v>1.4587358230165945E-4</v>
       </c>
       <c r="M10" s="36">
@@ -4718,7 +5763,7 @@
         <v>32</v>
       </c>
       <c r="W10" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="14"/>
         <v>2.9916946517264094E-6</v>
       </c>
       <c r="X10" t="s">
@@ -4743,42 +5788,42 @@
         <v>33</v>
       </c>
       <c r="AE10" s="1">
-        <f>AK10*$AV$15</f>
+        <f t="shared" si="0"/>
         <v>4.7183998739784598E-3</v>
       </c>
       <c r="AF10" s="1">
-        <f>AK10*$AX10</f>
+        <f t="shared" si="1"/>
         <v>1.9451580952144349E-3</v>
       </c>
       <c r="AG10" s="24">
-        <f>AK10*$BA10</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AH10" s="26">
-        <f>AK10*$AY10</f>
+        <f t="shared" si="3"/>
         <v>1.9451580952144346E-2</v>
       </c>
       <c r="AI10" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="22"/>
         <v>1.0695039714351174E-6</v>
       </c>
       <c r="AJ10" s="1">
         <v>0</v>
       </c>
       <c r="AK10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="15"/>
         <v>1.0695039714351174E-6</v>
       </c>
       <c r="AL10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="16"/>
         <v>5.3475198571755876E-9</v>
       </c>
       <c r="AM10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="AN10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="17"/>
         <v>5.3475198571755876E-9</v>
       </c>
       <c r="AO10" t="s">
@@ -4794,63 +5839,63 @@
         <v>33</v>
       </c>
       <c r="AS10" s="1" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="18"/>
         <v>NA</v>
       </c>
       <c r="AT10" t="s">
         <v>32</v>
       </c>
       <c r="AU10" s="55">
-        <f>AK10+AE10*$E$31+AF10*$F$31+AH10*$J$31</f>
+        <f t="shared" si="4"/>
         <v>3.2094933317915637E-6</v>
       </c>
       <c r="AV10" s="56">
-        <f>(1-AK10/AU10)*100</f>
+        <f t="shared" si="5"/>
         <v>66.676859526668281</v>
       </c>
       <c r="AW10" s="13">
         <v>9.5</v>
       </c>
       <c r="AX10" s="13">
-        <f>(($AW10/100)*(1+($AV$15+$BA10)*$E$31)-$Y$16)/(((1+1/$X$23)*(14*10^(-6)))-(($J$31/$X$23+$F$31)*$AW10/100))</f>
+        <f t="shared" si="6"/>
         <v>1818.7478935719314</v>
       </c>
       <c r="AY10" s="13">
-        <f>$AX10/$X$23</f>
+        <f t="shared" si="7"/>
         <v>18187.478935719311</v>
       </c>
       <c r="AZ10" s="13">
         <v>0</v>
       </c>
       <c r="BA10" s="68">
-        <f>$AZ10/100/(1-$X$33)*$X$32*10^6/$X$30</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="BB10" s="7"/>
       <c r="BC10" s="8" t="e">
-        <f>$T$27+$T$28*$T$30*(T10*$T$32)^$T$29</f>
+        <f t="shared" si="19"/>
         <v>#VALUE!</v>
       </c>
       <c r="BD10" s="7" t="e">
-        <f>J10*Z10</f>
+        <f t="shared" si="9"/>
         <v>#VALUE!</v>
       </c>
       <c r="BE10" s="8" t="e">
-        <f>BC10+((BD10-BC10)/$T$31)*F10</f>
+        <f t="shared" si="20"/>
         <v>#VALUE!</v>
       </c>
       <c r="BF10" s="8">
-        <f>$T$27+$T$28*$T$30*(L10)^$T$29</f>
+        <f t="shared" si="10"/>
         <v>1.0695039714351174E-6</v>
       </c>
       <c r="BG10" s="7"/>
       <c r="BH10" s="7">
-        <f>$BC$20*$BB$22*$BB$24*(M10)^$BB$21</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:60" x14ac:dyDescent="0.25">
-      <c r="A11" s="91"/>
+      <c r="A11" s="96"/>
       <c r="B11">
         <v>1</v>
       </c>
@@ -4861,7 +5906,7 @@
         <v>9</v>
       </c>
       <c r="E11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="12"/>
         <v>547920</v>
       </c>
       <c r="F11">
@@ -4877,14 +5922,14 @@
         <v>33</v>
       </c>
       <c r="J11">
-        <f t="shared" si="7"/>
+        <f t="shared" si="21"/>
         <v>2.894E-2</v>
       </c>
       <c r="K11" s="36">
-        <f t="shared" si="1"/>
+        <f t="shared" si="13"/>
         <v>2.894E-2</v>
       </c>
-      <c r="L11" s="94">
+      <c r="L11" s="91">
         <v>7.7994660715105795E-5</v>
       </c>
       <c r="M11" s="36">
@@ -4918,7 +5963,7 @@
         <v>32</v>
       </c>
       <c r="W11" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="14"/>
         <v>1.7296515983649451E-6</v>
       </c>
       <c r="X11" t="s">
@@ -4943,42 +5988,42 @@
         <v>33</v>
       </c>
       <c r="AE11" s="1">
-        <f>AK11*$AV$15</f>
+        <f t="shared" si="0"/>
         <v>2.1815845434399943E-3</v>
       </c>
       <c r="AF11" s="1">
-        <f>AK11*$AX11</f>
+        <f t="shared" si="1"/>
         <v>8.9935718642026317E-4</v>
       </c>
       <c r="AG11" s="24">
-        <f>AK11*$BA11</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AH11" s="26">
-        <f>AK11*$AY11</f>
+        <f t="shared" si="3"/>
         <v>8.9935718642026301E-3</v>
       </c>
       <c r="AI11" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="22"/>
         <v>4.944924965130653E-7</v>
       </c>
       <c r="AJ11" s="1">
         <v>0</v>
       </c>
       <c r="AK11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="15"/>
         <v>4.944924965130653E-7</v>
       </c>
       <c r="AL11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="16"/>
         <v>2.4724624825653264E-9</v>
       </c>
       <c r="AM11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="AN11">
-        <f t="shared" si="5"/>
+        <f t="shared" si="17"/>
         <v>2.4724624825653264E-9</v>
       </c>
       <c r="AO11" t="s">
@@ -4994,63 +6039,63 @@
         <v>33</v>
       </c>
       <c r="AS11" s="1" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="18"/>
         <v>NA</v>
       </c>
       <c r="AT11" t="s">
         <v>32</v>
       </c>
       <c r="AU11" s="55">
-        <f>AK11+AE11*$E$31+AF11*$F$31+AH11*$J$31</f>
+        <f t="shared" si="4"/>
         <v>1.4839312546451142E-6</v>
       </c>
       <c r="AV11" s="56">
-        <f>(1-AK11/AU11)*100</f>
+        <f t="shared" si="5"/>
         <v>66.676859526668281</v>
       </c>
       <c r="AW11" s="13">
         <v>9.5</v>
       </c>
       <c r="AX11" s="13">
-        <f>(($AW11/100)*(1+($AV$15+$BA11)*$E$31)-$Y$16)/(((1+1/$X$23)*(14*10^(-6)))-(($J$31/$X$23+$F$31)*$AW11/100))</f>
+        <f t="shared" si="6"/>
         <v>1818.7478935719314</v>
       </c>
       <c r="AY11" s="13">
-        <f>$AX11/$X$23</f>
+        <f t="shared" si="7"/>
         <v>18187.478935719311</v>
       </c>
       <c r="AZ11" s="13">
         <v>0</v>
       </c>
       <c r="BA11" s="68">
-        <f>$AZ11/100/(1-$X$33)*$X$32*10^6/$X$30</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="BB11" s="7"/>
       <c r="BC11" s="8" t="e">
-        <f>$T$27+$T$28*$T$30*(T11*$T$32)^$T$29</f>
+        <f t="shared" si="19"/>
         <v>#VALUE!</v>
       </c>
       <c r="BD11" s="7" t="e">
-        <f>J11*Z11</f>
+        <f t="shared" si="9"/>
         <v>#VALUE!</v>
       </c>
       <c r="BE11" s="8" t="e">
-        <f>BC11+((BD11-BC11)/$T$31)*F11</f>
+        <f t="shared" si="20"/>
         <v>#VALUE!</v>
       </c>
       <c r="BF11" s="8">
-        <f>$T$27+$T$28*$T$30*(L11)^$T$29</f>
+        <f t="shared" si="10"/>
         <v>4.944924965130653E-7</v>
       </c>
       <c r="BG11" s="7"/>
       <c r="BH11" s="7">
-        <f>$BC$20*$BB$22*$BB$24*(M11)^$BB$21</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:60" x14ac:dyDescent="0.25">
-      <c r="A12" s="91"/>
+      <c r="A12" s="96"/>
       <c r="B12">
         <v>1</v>
       </c>
@@ -5077,14 +6122,14 @@
         <v>33</v>
       </c>
       <c r="J12">
-        <f t="shared" si="7"/>
+        <f t="shared" si="21"/>
         <v>2.894E-2</v>
       </c>
       <c r="K12" s="36">
-        <f t="shared" si="1"/>
+        <f t="shared" si="13"/>
         <v>2.894E-2</v>
       </c>
-      <c r="L12" s="94">
+      <c r="L12" s="91">
         <v>4.9359999623829953E-5</v>
       </c>
       <c r="M12" s="36">
@@ -5118,7 +6163,7 @@
         <v>32</v>
       </c>
       <c r="W12" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="14"/>
         <v>9.9999999999999995E-7</v>
       </c>
       <c r="X12" t="s">
@@ -5143,42 +6188,42 @@
         <v>33</v>
       </c>
       <c r="AE12" s="1">
-        <f>AK12*$AV$15</f>
+        <f t="shared" si="0"/>
         <v>1.2664631346800649E-3</v>
       </c>
       <c r="AF12" s="1">
-        <f>AK12*$AX12</f>
+        <f t="shared" si="1"/>
         <v>5.2209882259013124E-4</v>
       </c>
       <c r="AG12" s="24">
-        <f>AK12*$BA12</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AH12" s="26">
-        <f>AK12*$AY12</f>
+        <f t="shared" si="3"/>
         <v>5.2209882259013117E-3</v>
       </c>
       <c r="AI12" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="22"/>
         <v>2.8706497719414803E-7</v>
       </c>
       <c r="AJ12" s="1">
         <v>0</v>
       </c>
       <c r="AK12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="15"/>
         <v>2.8706497719414803E-7</v>
       </c>
       <c r="AL12">
-        <f t="shared" si="4"/>
+        <f t="shared" si="16"/>
         <v>1.4353248859707402E-9</v>
       </c>
       <c r="AM12">
-        <f t="shared" si="4"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="AN12">
-        <f t="shared" si="5"/>
+        <f t="shared" si="17"/>
         <v>1.4353248859707402E-9</v>
       </c>
       <c r="AO12" t="s">
@@ -5194,58 +6239,58 @@
         <v>33</v>
       </c>
       <c r="AS12" s="1" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="18"/>
         <v>NA</v>
       </c>
       <c r="AT12" t="s">
         <v>32</v>
       </c>
       <c r="AU12" s="58">
-        <f>AK12+AE12*$E$31+AF12*$F$31+AH12*$J$31</f>
+        <f t="shared" si="4"/>
         <v>8.6145835331422058E-7</v>
       </c>
       <c r="AV12" s="57">
-        <f>(1-AK12/AU12)*100</f>
+        <f t="shared" si="5"/>
         <v>66.676859526668281</v>
       </c>
       <c r="AW12" s="14">
         <v>9.5</v>
       </c>
       <c r="AX12" s="13">
-        <f>(($AW12/100)*(1+($AV$15+$BA12)*$E$31)-$Y$16)/(((1+1/$X$23)*(14*10^(-6)))-(($J$31/$X$23+$F$31)*$AW12/100))</f>
+        <f t="shared" si="6"/>
         <v>1818.7478935719314</v>
       </c>
       <c r="AY12" s="14">
-        <f>$AX12/$X$23</f>
+        <f t="shared" si="7"/>
         <v>18187.478935719311</v>
       </c>
       <c r="AZ12" s="14">
         <v>0</v>
       </c>
       <c r="BA12" s="68">
-        <f>$AZ12/100/(1-$X$33)*$X$32*10^6/$X$30</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="BB12" s="7"/>
       <c r="BC12" s="8" t="e">
-        <f>$T$27+$T$28*$T$30*(T12*$T$32)^$T$29</f>
+        <f t="shared" si="19"/>
         <v>#VALUE!</v>
       </c>
       <c r="BD12" s="7" t="e">
-        <f>J12*Z12</f>
+        <f t="shared" si="9"/>
         <v>#VALUE!</v>
       </c>
       <c r="BE12" s="8" t="e">
-        <f>BC12+((BD12-BC12)/$T$31)*F12</f>
+        <f t="shared" si="20"/>
         <v>#VALUE!</v>
       </c>
       <c r="BF12" s="8">
-        <f>$T$27+$T$28*$T$30*(L12)^$T$29</f>
+        <f t="shared" si="10"/>
         <v>2.8706497719414803E-7</v>
       </c>
       <c r="BG12" s="7"/>
       <c r="BH12" s="7">
-        <f>$BC$20*$BB$22*$BB$24*(M12)^$BB$21</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -5262,7 +6307,7 @@
       <c r="AF13" s="1"/>
     </row>
     <row r="14" spans="1:60" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="91" t="s">
+      <c r="A14" s="96" t="s">
         <v>71</v>
       </c>
       <c r="B14" s="5" t="s">
@@ -5363,7 +6408,7 @@
       <c r="AZ14" s="37"/>
     </row>
     <row r="15" spans="1:60" x14ac:dyDescent="0.25">
-      <c r="A15" s="91"/>
+      <c r="A15" s="96"/>
       <c r="B15">
         <v>1</v>
       </c>
@@ -5402,15 +6447,15 @@
         <v>1.6239747221660625</v>
       </c>
       <c r="M15">
-        <f t="shared" ref="M15:M20" si="9">J15*$X15</f>
+        <f t="shared" ref="M15:M20" si="23">J15*$X15</f>
         <v>16.239747221660625</v>
       </c>
       <c r="N15">
-        <f t="shared" ref="N15:N20" si="10">AA15*$J15</f>
+        <f t="shared" ref="N15:N20" si="24">AA15*$J15</f>
         <v>0</v>
       </c>
       <c r="O15" s="1">
-        <f t="shared" ref="O15:O20" si="11">J15*$AB$16</f>
+        <f t="shared" ref="O15:O20" si="25">J15*$AB$16</f>
         <v>18.09675</v>
       </c>
       <c r="P15">
@@ -5436,7 +6481,7 @@
         <v>4.3</v>
       </c>
       <c r="W15" s="13">
-        <f t="shared" ref="W15:W20" si="12">(($V15/100)*(1+$AB$16*$E$31)-$Y$16)/(((1+1/$X$23)*(14*10^(-6)))-(($J$31/$X$23+$F$31)*$V15/100))</f>
+        <f t="shared" ref="W15:W20" si="26">(($V15/100)*(1+$AB$16*$E$31)-$Y$16)/(((1+1/$X$23)*(14*10^(-6)))-(($J$31/$X$23+$F$31)*$V15/100))</f>
         <v>395.90503059926971</v>
       </c>
       <c r="X15" s="13">
@@ -5450,7 +6495,7 @@
         <v>27</v>
       </c>
       <c r="AA15" s="73">
-        <f t="shared" ref="AA15:AA20" si="13">IF(F15="HiddenElement",$AA$22/100/(1-$X$33)*$X$32*10^6/$X$30,0)</f>
+        <f t="shared" ref="AA15:AA20" si="27">IF(F15="HiddenElement",$AA$22/100/(1-$X$33)*$X$32*10^6/$X$30,0)</f>
         <v>0</v>
       </c>
       <c r="AB15" s="72" t="s">
@@ -5486,7 +6531,7 @@
       <c r="AZ15" s="78"/>
     </row>
     <row r="16" spans="1:60" x14ac:dyDescent="0.25">
-      <c r="A16" s="91"/>
+      <c r="A16" s="96"/>
       <c r="B16">
         <v>1</v>
       </c>
@@ -5517,7 +6562,7 @@
         <v>1.7099999999999999E-3</v>
       </c>
       <c r="K16">
-        <f t="shared" ref="K16:K20" si="14">J16*0.005</f>
+        <f t="shared" ref="K16:K20" si="28">J16*0.005</f>
         <v>8.5499999999999995E-6</v>
       </c>
       <c r="L16">
@@ -5525,22 +6570,22 @@
         <v>0.19277131424832977</v>
       </c>
       <c r="M16">
-        <f t="shared" si="9"/>
+        <f t="shared" si="23"/>
         <v>1.9277131424832974</v>
       </c>
       <c r="N16">
-        <f t="shared" si="10"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="O16" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="25"/>
         <v>7.5441176470588234</v>
       </c>
       <c r="P16">
         <v>2.6861000000000002E-4</v>
       </c>
       <c r="Q16" s="1">
-        <f t="shared" ref="Q16:Q20" si="15">J16*$AC16</f>
+        <f t="shared" ref="Q16:Q20" si="29">J16*$AC16</f>
         <v>2.7359999999999999E-2</v>
       </c>
       <c r="R16">
@@ -5560,7 +6605,7 @@
         <v>1.8</v>
       </c>
       <c r="W16" s="13">
-        <f t="shared" si="12"/>
+        <f t="shared" si="26"/>
         <v>112.73176271832151</v>
       </c>
       <c r="X16" s="13">
@@ -5574,7 +6619,7 @@
         <v>1</v>
       </c>
       <c r="AA16" s="73">
-        <f t="shared" si="13"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="AB16" s="42">
@@ -5582,15 +6627,15 @@
         <v>4411.7647058823532</v>
       </c>
       <c r="AC16" s="13">
-        <f t="shared" ref="AC16:AC20" si="16">ROUND(X16/$AY$6*120,0)</f>
+        <f t="shared" ref="AC16:AC20" si="30">ROUND(X16/$AY$6*120,0)</f>
         <v>16</v>
       </c>
       <c r="AD16" s="13">
-        <f t="shared" ref="AD16:AD20" si="17">J16+L16*$F$31+M16*$J$31+O16*$E$31</f>
+        <f t="shared" ref="AD16:AD20" si="31">J16+L16*$F$31+M16*$J$31+O16*$E$31</f>
         <v>2.1242656885690431E-3</v>
       </c>
       <c r="AE16" s="56">
-        <f t="shared" ref="AE16:AE20" si="18">(1-J16/AD16)*100</f>
+        <f t="shared" ref="AE16:AE20" si="32">(1-J16/AD16)*100</f>
         <v>19.501594871030591</v>
       </c>
       <c r="AF16" s="1"/>
@@ -5611,7 +6656,7 @@
       <c r="AZ16" s="79"/>
     </row>
     <row r="17" spans="1:55" x14ac:dyDescent="0.25">
-      <c r="A17" s="91"/>
+      <c r="A17" s="96"/>
       <c r="B17">
         <v>1</v>
       </c>
@@ -5642,23 +6687,23 @@
         <v>5.0624699999999995E-3</v>
       </c>
       <c r="K17">
-        <f t="shared" si="14"/>
+        <f t="shared" si="28"/>
         <v>2.5312349999999998E-5</v>
       </c>
       <c r="L17">
-        <f t="shared" ref="L17:L20" si="19">J17*$W17</f>
+        <f t="shared" ref="L17:L20" si="33">J17*$W17</f>
         <v>2.3758024102824513</v>
       </c>
       <c r="M17">
-        <f t="shared" si="9"/>
+        <f t="shared" si="23"/>
         <v>23.758024102824514</v>
       </c>
       <c r="N17">
-        <f t="shared" si="10"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="O17" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="25"/>
         <v>22.334426470588234</v>
       </c>
       <c r="P17">
@@ -5684,38 +6729,38 @@
         <v>4.8</v>
       </c>
       <c r="W17" s="13">
-        <f t="shared" si="12"/>
+        <f t="shared" si="26"/>
         <v>469.29708428542818</v>
       </c>
       <c r="X17" s="13">
-        <f t="shared" ref="X17:X20" si="20">$W17/$X$23</f>
+        <f t="shared" ref="X17:X20" si="34">$W17/$X$23</f>
         <v>4692.9708428542817</v>
       </c>
       <c r="Z17" s="24"/>
       <c r="AA17" s="73">
-        <f t="shared" si="13"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="AB17" s="39">
         <v>10</v>
       </c>
       <c r="AC17" s="13">
-        <f t="shared" si="16"/>
+        <f t="shared" si="30"/>
         <v>68</v>
       </c>
       <c r="AD17" s="13">
-        <f t="shared" si="17"/>
+        <f t="shared" si="31"/>
         <v>8.1497066913228666E-3</v>
       </c>
       <c r="AE17" s="56">
-        <f t="shared" si="18"/>
+        <f t="shared" si="32"/>
         <v>37.88156811348685</v>
       </c>
       <c r="AF17" s="1"/>
       <c r="AG17" s="1"/>
     </row>
     <row r="18" spans="1:55" x14ac:dyDescent="0.25">
-      <c r="A18" s="91"/>
+      <c r="A18" s="96"/>
       <c r="B18">
         <v>1</v>
       </c>
@@ -5746,30 +6791,30 @@
         <v>2.2800000000000003E-3</v>
       </c>
       <c r="K18">
-        <f t="shared" si="14"/>
+        <f t="shared" si="28"/>
         <v>1.1400000000000003E-5</v>
       </c>
       <c r="L18">
-        <f t="shared" si="19"/>
+        <f t="shared" si="33"/>
         <v>0.36572238936056839</v>
       </c>
       <c r="M18">
-        <f t="shared" si="9"/>
+        <f t="shared" si="23"/>
         <v>3.6572238936056838</v>
       </c>
       <c r="N18">
-        <f t="shared" si="10"/>
+        <f t="shared" si="24"/>
         <v>3.0176470588235293</v>
       </c>
       <c r="O18" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="25"/>
         <v>10.058823529411766</v>
       </c>
       <c r="P18">
         <v>2.4800000000000001E-4</v>
       </c>
       <c r="Q18" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="29"/>
         <v>5.2440000000000007E-2</v>
       </c>
       <c r="R18">
@@ -5789,11 +6834,11 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="W18" s="13">
-        <f t="shared" si="12"/>
+        <f t="shared" si="26"/>
         <v>160.40455673709138</v>
       </c>
       <c r="X18" s="13">
-        <f t="shared" si="20"/>
+        <f t="shared" si="34"/>
         <v>1604.0455673709137</v>
       </c>
       <c r="AA18" s="73">
@@ -5804,22 +6849,22 @@
         <v>104</v>
       </c>
       <c r="AC18" s="13">
-        <f t="shared" si="16"/>
+        <f t="shared" si="30"/>
         <v>23</v>
       </c>
       <c r="AD18" s="13">
-        <f t="shared" si="17"/>
+        <f t="shared" si="31"/>
         <v>2.9444020852838065E-3</v>
       </c>
       <c r="AE18" s="56">
-        <f t="shared" si="18"/>
+        <f t="shared" si="32"/>
         <v>22.564923744773314</v>
       </c>
       <c r="AF18" s="1"/>
       <c r="AG18" s="1"/>
     </row>
     <row r="19" spans="1:55" x14ac:dyDescent="0.25">
-      <c r="A19" s="91"/>
+      <c r="A19" s="96"/>
       <c r="B19">
         <v>1</v>
       </c>
@@ -5850,30 +6895,30 @@
         <v>4.0000000000000003E-5</v>
       </c>
       <c r="K19">
-        <f t="shared" si="14"/>
+        <f t="shared" si="28"/>
         <v>2.0000000000000002E-7</v>
       </c>
       <c r="L19">
-        <f t="shared" si="19"/>
+        <f t="shared" si="33"/>
         <v>6.4161822694836562E-3</v>
       </c>
       <c r="M19">
-        <f t="shared" si="9"/>
+        <f t="shared" si="23"/>
         <v>6.4161822694836557E-2</v>
       </c>
       <c r="N19">
-        <f t="shared" si="10"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="O19" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="25"/>
         <v>0.17647058823529413</v>
       </c>
       <c r="P19">
         <v>4.7099999999999998E-6</v>
       </c>
       <c r="Q19" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="29"/>
         <v>9.2000000000000003E-4</v>
       </c>
       <c r="R19">
@@ -5893,28 +6938,28 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="W19" s="13">
-        <f t="shared" si="12"/>
+        <f t="shared" si="26"/>
         <v>160.40455673709138</v>
       </c>
       <c r="X19" s="13">
-        <f t="shared" si="20"/>
+        <f t="shared" si="34"/>
         <v>1604.0455673709137</v>
       </c>
       <c r="AA19" s="73">
-        <f t="shared" si="13"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="AB19" s="1"/>
       <c r="AC19" s="13">
-        <f t="shared" si="16"/>
+        <f t="shared" si="30"/>
         <v>23</v>
       </c>
       <c r="AD19" s="13">
-        <f t="shared" si="17"/>
+        <f t="shared" si="31"/>
         <v>5.1656176934803615E-5</v>
       </c>
       <c r="AE19" s="56">
-        <f t="shared" si="18"/>
+        <f t="shared" si="32"/>
         <v>22.564923744773303</v>
       </c>
       <c r="BA19" s="63" t="s">
@@ -5928,7 +6973,7 @@
       </c>
     </row>
     <row r="20" spans="1:55" x14ac:dyDescent="0.25">
-      <c r="A20" s="91"/>
+      <c r="A20" s="96"/>
       <c r="B20">
         <v>1</v>
       </c>
@@ -5958,30 +7003,30 @@
         <v>4.0322099999999996E-3</v>
       </c>
       <c r="K20">
-        <f t="shared" si="14"/>
+        <f t="shared" si="28"/>
         <v>2.0161049999999999E-5</v>
       </c>
       <c r="L20">
-        <f t="shared" si="19"/>
+        <f t="shared" si="33"/>
         <v>2.0843008232103681</v>
       </c>
       <c r="M20">
-        <f t="shared" si="9"/>
+        <f t="shared" si="23"/>
         <v>20.843008232103678</v>
       </c>
       <c r="N20">
-        <f t="shared" si="10"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="O20" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="25"/>
         <v>17.789161764705881</v>
       </c>
       <c r="P20">
         <v>1.9201E-4</v>
       </c>
       <c r="Q20" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="29"/>
         <v>0.30241574999999998</v>
       </c>
       <c r="R20">
@@ -6000,27 +7045,27 @@
         <v>5.0999999999999996</v>
       </c>
       <c r="W20" s="14">
-        <f t="shared" si="12"/>
+        <f t="shared" si="26"/>
         <v>516.91276575633913</v>
       </c>
       <c r="X20" s="14">
-        <f t="shared" si="20"/>
+        <f t="shared" si="34"/>
         <v>5169.127657563391</v>
       </c>
       <c r="AA20" s="74">
-        <f t="shared" si="13"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="AC20" s="14">
-        <f t="shared" si="16"/>
+        <f t="shared" si="30"/>
         <v>75</v>
       </c>
       <c r="AD20" s="14">
-        <f t="shared" si="17"/>
+        <f t="shared" si="31"/>
         <v>6.689085819105817E-3</v>
       </c>
       <c r="AE20" s="57">
-        <f t="shared" si="18"/>
+        <f t="shared" si="32"/>
         <v>39.719565437732463</v>
       </c>
       <c r="BA20" s="63"/>
@@ -6148,7 +7193,7 @@
       </c>
     </row>
     <row r="25" spans="1:55" x14ac:dyDescent="0.25">
-      <c r="A25" s="91" t="s">
+      <c r="A25" s="96" t="s">
         <v>72</v>
       </c>
       <c r="B25" s="5" t="s">
@@ -6209,7 +7254,7 @@
       </c>
     </row>
     <row r="26" spans="1:55" x14ac:dyDescent="0.25">
-      <c r="A26" s="91"/>
+      <c r="A26" s="96"/>
       <c r="B26">
         <v>1</v>
       </c>
@@ -6263,7 +7308,7 @@
       <c r="BA26" s="7"/>
     </row>
     <row r="27" spans="1:55" x14ac:dyDescent="0.25">
-      <c r="A27" s="91"/>
+      <c r="A27" s="96"/>
       <c r="B27">
         <v>1</v>
       </c>
@@ -6318,7 +7363,7 @@
       <c r="Q27" s="17" t="s">
         <v>82</v>
       </c>
-      <c r="R27" s="92" t="s">
+      <c r="R27" s="97" t="s">
         <v>46</v>
       </c>
       <c r="S27" s="7" t="s">
@@ -6377,7 +7422,7 @@
       <c r="Q28" s="14">
         <v>1.2</v>
       </c>
-      <c r="R28" s="92"/>
+      <c r="R28" s="97"/>
       <c r="S28" s="7" t="s">
         <v>48</v>
       </c>
@@ -6404,7 +7449,7 @@
     </row>
     <row r="29" spans="1:55" x14ac:dyDescent="0.25">
       <c r="F29" s="1"/>
-      <c r="R29" s="92"/>
+      <c r="R29" s="97"/>
       <c r="S29" s="7" t="s">
         <v>49</v>
       </c>
@@ -6447,7 +7492,7 @@
         <f>K27+SUM(J15:J20)+SUM(AK5:AK12)</f>
         <v>5.3967520737202901E-2</v>
       </c>
-      <c r="R30" s="92"/>
+      <c r="R30" s="97"/>
       <c r="S30" s="7" t="s">
         <v>50</v>
       </c>
@@ -6496,7 +7541,7 @@
         <f>( 0.000001*14) / 0.151</f>
         <v>9.2715231788079476E-5</v>
       </c>
-      <c r="R31" s="92"/>
+      <c r="R31" s="97"/>
       <c r="S31" s="7" t="s">
         <v>51</v>
       </c>
@@ -6548,7 +7593,7 @@
         <f>E26*E31+F26*F31</f>
         <v>0</v>
       </c>
-      <c r="R32" s="92"/>
+      <c r="R32" s="97"/>
       <c r="S32" s="9" t="s">
         <v>52</v>
       </c>
@@ -6587,7 +7632,7 @@
       </c>
     </row>
     <row r="35" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="93" t="s">
+      <c r="A35" s="98" t="s">
         <v>132</v>
       </c>
       <c r="B35" s="5" t="s">
@@ -6636,7 +7681,7 @@
       <c r="Q35" s="25"/>
     </row>
     <row r="36" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A36" s="93"/>
+      <c r="A36" s="98"/>
       <c r="B36">
         <v>1</v>
       </c>
@@ -6931,4 +7976,343 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="G27" sqref="G27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="93" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="94" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B4" s="92" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="92" t="s">
+        <v>155</v>
+      </c>
+      <c r="B6">
+        <v>-2.0999999999999999E-3</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="95" t="s">
+        <v>156</v>
+      </c>
+      <c r="B7">
+        <v>3.6999999999999998E-2</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="95" t="s">
+        <v>157</v>
+      </c>
+      <c r="B8">
+        <v>-0.1527</v>
+      </c>
+      <c r="C8">
+        <v>1.763E-2</v>
+      </c>
+      <c r="D8">
+        <v>1.2E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="95" t="s">
+        <v>158</v>
+      </c>
+      <c r="B9">
+        <v>0.49619999999999997</v>
+      </c>
+      <c r="C9">
+        <v>0.25</v>
+      </c>
+      <c r="D9">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>2</v>
+      </c>
+      <c r="B12" s="95" t="s">
+        <v>159</v>
+      </c>
+      <c r="C12" t="s">
+        <v>160</v>
+      </c>
+      <c r="D12" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>1</v>
+      </c>
+      <c r="B13">
+        <f>$B$6*$A13^3 + $B$7*$A13^2 + $B$8*$A13 + $B$9</f>
+        <v>0.37839999999999996</v>
+      </c>
+      <c r="C13">
+        <f>$C$6*$A13^3 + $C$7*$A13^2 + $C$8*$A13 + $C$9</f>
+        <v>0.26762999999999998</v>
+      </c>
+      <c r="D13">
+        <f>$D$6*$A13^3 + $D$7*$A13^2 + $D$8*$A13 + $D$9</f>
+        <v>0.312</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>2</v>
+      </c>
+      <c r="B14">
+        <f t="shared" ref="B14:B26" si="0">$B$6*$A14^3 + $B$7*$A14^2 + $B$8*$A14 + $B$9</f>
+        <v>0.32199999999999995</v>
+      </c>
+      <c r="C14">
+        <f t="shared" ref="C14:C26" si="1">$C$6*$A14^3 + $C$7*$A14^2 + $C$8*$A14 + $C$9</f>
+        <v>0.28526000000000001</v>
+      </c>
+      <c r="D14">
+        <f t="shared" ref="D14:D26" si="2">$D$6*$A14^3 + $D$7*$A14^2 + $D$8*$A14 + $D$9</f>
+        <v>0.32400000000000001</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>3</v>
+      </c>
+      <c r="B15">
+        <f t="shared" si="0"/>
+        <v>0.31439999999999996</v>
+      </c>
+      <c r="C15">
+        <f t="shared" si="1"/>
+        <v>0.30288999999999999</v>
+      </c>
+      <c r="D15">
+        <f t="shared" si="2"/>
+        <v>0.33599999999999997</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>4</v>
+      </c>
+      <c r="B16">
+        <f t="shared" si="0"/>
+        <v>0.34299999999999997</v>
+      </c>
+      <c r="C16">
+        <f t="shared" si="1"/>
+        <v>0.32052000000000003</v>
+      </c>
+      <c r="D16">
+        <f t="shared" si="2"/>
+        <v>0.34799999999999998</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>5</v>
+      </c>
+      <c r="B17">
+        <f t="shared" si="0"/>
+        <v>0.39519999999999977</v>
+      </c>
+      <c r="C17">
+        <f t="shared" si="1"/>
+        <v>0.33815000000000001</v>
+      </c>
+      <c r="D17">
+        <f t="shared" si="2"/>
+        <v>0.36</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>6</v>
+      </c>
+      <c r="B18">
+        <f t="shared" si="0"/>
+        <v>0.45839999999999981</v>
+      </c>
+      <c r="C18">
+        <f t="shared" si="1"/>
+        <v>0.35577999999999999</v>
+      </c>
+      <c r="D18">
+        <f t="shared" si="2"/>
+        <v>0.372</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>7</v>
+      </c>
+      <c r="B19">
+        <f t="shared" si="0"/>
+        <v>0.52</v>
+      </c>
+      <c r="C19">
+        <f t="shared" si="1"/>
+        <v>0.37341000000000002</v>
+      </c>
+      <c r="D19">
+        <f t="shared" si="2"/>
+        <v>0.38400000000000001</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>8</v>
+      </c>
+      <c r="B20">
+        <f t="shared" si="0"/>
+        <v>0.5673999999999999</v>
+      </c>
+      <c r="C20">
+        <f t="shared" si="1"/>
+        <v>0.39104</v>
+      </c>
+      <c r="D20">
+        <f t="shared" si="2"/>
+        <v>0.39600000000000002</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>9</v>
+      </c>
+      <c r="B21">
+        <f t="shared" si="0"/>
+        <v>0.58799999999999986</v>
+      </c>
+      <c r="C21">
+        <f t="shared" si="1"/>
+        <v>0.40866999999999998</v>
+      </c>
+      <c r="D21">
+        <f t="shared" si="2"/>
+        <v>0.40799999999999997</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>10</v>
+      </c>
+      <c r="B22">
+        <f t="shared" si="0"/>
+        <v>0.56919999999999948</v>
+      </c>
+      <c r="C22">
+        <f t="shared" si="1"/>
+        <v>0.42630000000000001</v>
+      </c>
+      <c r="D22">
+        <f t="shared" si="2"/>
+        <v>0.42</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>11</v>
+      </c>
+      <c r="B23">
+        <f t="shared" si="0"/>
+        <v>0.49839999999999973</v>
+      </c>
+      <c r="C23">
+        <f t="shared" si="1"/>
+        <v>0.44392999999999999</v>
+      </c>
+      <c r="D23">
+        <f t="shared" si="2"/>
+        <v>0.432</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>12</v>
+      </c>
+      <c r="B24">
+        <f t="shared" si="0"/>
+        <v>0.36299999999999977</v>
+      </c>
+      <c r="C24">
+        <f t="shared" si="1"/>
+        <v>0.46155999999999997</v>
+      </c>
+      <c r="D24">
+        <f t="shared" si="2"/>
+        <v>0.44400000000000001</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>13</v>
+      </c>
+      <c r="B25">
+        <f t="shared" si="0"/>
+        <v>0.15040000000000031</v>
+      </c>
+      <c r="C25">
+        <f t="shared" si="1"/>
+        <v>0.47919</v>
+      </c>
+      <c r="D25">
+        <f t="shared" si="2"/>
+        <v>0.45599999999999996</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>14</v>
+      </c>
+      <c r="B26">
+        <f t="shared" si="0"/>
+        <v>-0.15199999999999969</v>
+      </c>
+      <c r="C26">
+        <f t="shared" si="1"/>
+        <v>0.49681999999999998</v>
+      </c>
+      <c r="D26">
+        <f t="shared" si="2"/>
+        <v>0.46799999999999997</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/example/Scenarii_monoculms/inputs/Generate_inputs.xlsx
+++ b/example/Scenarii_monoculms/inputs/Generate_inputs.xlsx
@@ -5,16 +5,18 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mngauthier\Documents\Marion_These\Modeles\fspm-wheat\trunk\example\Scenarii_monoculms\inputs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mngauthier\Documents\Marion_These\WheatFspm\fspm-wheat\example\Scenarii_monoculms\inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7320" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7320" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="INPUTS" sheetId="15" r:id="rId1"/>
-    <sheet name="Fit leaf_L" sheetId="21" r:id="rId2"/>
-    <sheet name="SL_ratio" sheetId="22" r:id="rId3"/>
+    <sheet name="INPUTS (2)" sheetId="23" r:id="rId2"/>
+    <sheet name="INPUTS (3)" sheetId="24" r:id="rId3"/>
+    <sheet name="Fit leaf_L" sheetId="21" r:id="rId4"/>
+    <sheet name="SL_ratio" sheetId="22" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -83,8 +85,124 @@
 </comments>
 </file>
 
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>mngauthier</author>
+  </authors>
+  <commentList>
+    <comment ref="AW7" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>mngauthier:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+%N à la base de la feuille dans Gastal and Nelson 1994.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G14" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>mngauthier:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Only used by ADEL to define blade geometry.</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>mngauthier</author>
+  </authors>
+  <commentList>
+    <comment ref="AW7" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>mngauthier:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+%N à la base de la feuille dans Gastal and Nelson 1994.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G14" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>mngauthier:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Only used by ADEL to define blade geometry.</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="366" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1062" uniqueCount="168">
   <si>
     <t>plant</t>
   </si>
@@ -964,6 +1082,24 @@
   <si>
     <t>SLratio_Vnew2</t>
   </si>
+  <si>
+    <t>LEAF WIDTH INCREASE (%)</t>
+  </si>
+  <si>
+    <t>leaf 1</t>
+  </si>
+  <si>
+    <t>leaf 2</t>
+  </si>
+  <si>
+    <t>leaf 3</t>
+  </si>
+  <si>
+    <t>Wmax</t>
+  </si>
+  <si>
+    <t>(Zhang 2014)</t>
+  </si>
 </sst>
 </file>
 
@@ -1171,7 +1307,7 @@
       <family val="3"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1187,6 +1323,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1435,7 +1577,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="99">
+  <cellXfs count="110">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1582,6 +1724,9 @@
     <xf numFmtId="0" fontId="21" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
@@ -1591,6 +1736,24 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -4451,8 +4614,8 @@
   </sheetPr>
   <dimension ref="A1:BH44"/>
   <sheetViews>
-    <sheetView topLeftCell="B4" workbookViewId="0">
-      <selection activeCell="M14" sqref="M14"/>
+    <sheetView topLeftCell="H8" workbookViewId="0">
+      <selection activeCell="J34" sqref="J34:J35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4508,7 +4671,7 @@
       </c>
     </row>
     <row r="4" spans="1:60" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="96" t="s">
+      <c r="A4" s="97" t="s">
         <v>70</v>
       </c>
       <c r="B4" s="5" t="s">
@@ -4688,7 +4851,7 @@
       </c>
     </row>
     <row r="5" spans="1:60" x14ac:dyDescent="0.25">
-      <c r="A5" s="96"/>
+      <c r="A5" s="97"/>
       <c r="B5">
         <v>1</v>
       </c>
@@ -4892,7 +5055,7 @@
       </c>
     </row>
     <row r="6" spans="1:60" x14ac:dyDescent="0.25">
-      <c r="A6" s="96"/>
+      <c r="A6" s="97"/>
       <c r="B6">
         <v>1</v>
       </c>
@@ -5095,7 +5258,7 @@
       </c>
     </row>
     <row r="7" spans="1:60" x14ac:dyDescent="0.25">
-      <c r="A7" s="96"/>
+      <c r="A7" s="97"/>
       <c r="B7">
         <v>1</v>
       </c>
@@ -5295,7 +5458,7 @@
       </c>
     </row>
     <row r="8" spans="1:60" x14ac:dyDescent="0.25">
-      <c r="A8" s="96"/>
+      <c r="A8" s="97"/>
       <c r="B8">
         <v>1</v>
       </c>
@@ -5495,7 +5658,7 @@
       </c>
     </row>
     <row r="9" spans="1:60" x14ac:dyDescent="0.25">
-      <c r="A9" s="96"/>
+      <c r="A9" s="97"/>
       <c r="B9">
         <v>1</v>
       </c>
@@ -5695,7 +5858,7 @@
       </c>
     </row>
     <row r="10" spans="1:60" x14ac:dyDescent="0.25">
-      <c r="A10" s="96"/>
+      <c r="A10" s="97"/>
       <c r="B10">
         <v>1</v>
       </c>
@@ -5895,7 +6058,7 @@
       </c>
     </row>
     <row r="11" spans="1:60" x14ac:dyDescent="0.25">
-      <c r="A11" s="96"/>
+      <c r="A11" s="97"/>
       <c r="B11">
         <v>1</v>
       </c>
@@ -6095,7 +6258,7 @@
       </c>
     </row>
     <row r="12" spans="1:60" x14ac:dyDescent="0.25">
-      <c r="A12" s="96"/>
+      <c r="A12" s="97"/>
       <c r="B12">
         <v>1</v>
       </c>
@@ -6307,7 +6470,7 @@
       <c r="AF13" s="1"/>
     </row>
     <row r="14" spans="1:60" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="96" t="s">
+      <c r="A14" s="97" t="s">
         <v>71</v>
       </c>
       <c r="B14" s="5" t="s">
@@ -6331,38 +6494,38 @@
       <c r="H14" s="35" t="s">
         <v>36</v>
       </c>
-      <c r="I14" s="35" t="s">
+      <c r="I14" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="J14" s="35" t="s">
         <v>37</v>
       </c>
-      <c r="J14" s="5" t="s">
+      <c r="K14" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="K14" s="5" t="s">
+      <c r="L14" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="L14" s="5" t="s">
+      <c r="M14" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="M14" s="5" t="s">
+      <c r="N14" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="N14" s="5" t="s">
+      <c r="O14" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="O14" s="5" t="s">
+      <c r="P14" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="P14" s="5" t="s">
+      <c r="Q14" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="Q14" s="5" t="s">
+      <c r="R14" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="R14" s="5" t="s">
+      <c r="S14" s="5" t="s">
         <v>84</v>
-      </c>
-      <c r="S14" s="5" t="s">
-        <v>66</v>
       </c>
       <c r="T14" s="5" t="s">
         <v>64</v>
@@ -6408,7 +6571,7 @@
       <c r="AZ14" s="37"/>
     </row>
     <row r="15" spans="1:60" x14ac:dyDescent="0.25">
-      <c r="A15" s="96"/>
+      <c r="A15" s="97"/>
       <c r="B15">
         <v>1</v>
       </c>
@@ -6431,45 +6594,45 @@
       <c r="H15" s="36">
         <v>8.2000000000000003E-2</v>
       </c>
-      <c r="I15" s="36" t="s">
-        <v>33</v>
-      </c>
-      <c r="J15">
-        <f>P15*$U$15</f>
+      <c r="I15">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="J15" s="36" t="s">
+        <v>33</v>
+      </c>
+      <c r="K15">
+        <f>Q15*$U$15</f>
         <v>4.1019300000000002E-3</v>
       </c>
-      <c r="K15">
-        <f>J15*0.005</f>
+      <c r="L15">
+        <f>K15*0.005</f>
         <v>2.0509650000000001E-5</v>
       </c>
-      <c r="L15">
-        <f>J15*$W15</f>
+      <c r="M15">
+        <f>K15*$W15</f>
         <v>1.6239747221660625</v>
       </c>
-      <c r="M15">
-        <f t="shared" ref="M15:M20" si="23">J15*$X15</f>
+      <c r="N15">
+        <f>K15*$X15</f>
         <v>16.239747221660625</v>
       </c>
-      <c r="N15">
-        <f t="shared" ref="N15:N20" si="24">AA15*$J15</f>
-        <v>0</v>
-      </c>
-      <c r="O15" s="1">
-        <f t="shared" ref="O15:O20" si="25">J15*$AB$16</f>
+      <c r="O15">
+        <f>AA15*$K15</f>
+        <v>0</v>
+      </c>
+      <c r="P15" s="1">
+        <f t="shared" ref="P15:P20" si="23">K15*$AB$16</f>
         <v>18.09675</v>
       </c>
-      <c r="P15">
+      <c r="Q15">
         <v>1.9532999999999999E-4</v>
       </c>
-      <c r="Q15" s="1">
-        <f>J15*$AC15</f>
+      <c r="R15" s="1">
+        <f>K15*$AC15</f>
         <v>0.23381001000000001</v>
       </c>
-      <c r="R15">
+      <c r="S15">
         <v>4250</v>
-      </c>
-      <c r="S15">
-        <v>0</v>
       </c>
       <c r="T15">
         <v>0</v>
@@ -6481,7 +6644,7 @@
         <v>4.3</v>
       </c>
       <c r="W15" s="13">
-        <f t="shared" ref="W15:W20" si="26">(($V15/100)*(1+$AB$16*$E$31)-$Y$16)/(((1+1/$X$23)*(14*10^(-6)))-(($J$31/$X$23+$F$31)*$V15/100))</f>
+        <f t="shared" ref="W15:W20" si="24">(($V15/100)*(1+$AB$16*$E$31)-$Y$16)/(((1+1/$X$23)*(14*10^(-6)))-(($J$31/$X$23+$F$31)*$V15/100))</f>
         <v>395.90503059926971</v>
       </c>
       <c r="X15" s="13">
@@ -6495,7 +6658,7 @@
         <v>27</v>
       </c>
       <c r="AA15" s="73">
-        <f t="shared" ref="AA15:AA20" si="27">IF(F15="HiddenElement",$AA$22/100/(1-$X$33)*$X$32*10^6/$X$30,0)</f>
+        <f t="shared" ref="AA15:AA20" si="25">IF(F15="HiddenElement",$AA$22/100/(1-$X$33)*$X$32*10^6/$X$30,0)</f>
         <v>0</v>
       </c>
       <c r="AB15" s="72" t="s">
@@ -6506,11 +6669,11 @@
         <v>57</v>
       </c>
       <c r="AD15" s="13">
-        <f>J15+L15*$F$31+M15*$J$31+O15*$E$31</f>
+        <f>K15+M15*$F$31+N15*$J$31+P15*$E$31</f>
         <v>6.293064121245898E-3</v>
       </c>
       <c r="AE15" s="56">
-        <f>(1-J15/AD15)*100</f>
+        <f>(1-K15/AD15)*100</f>
         <v>34.818239239744116</v>
       </c>
       <c r="AF15" s="1"/>
@@ -6531,7 +6694,7 @@
       <c r="AZ15" s="78"/>
     </row>
     <row r="16" spans="1:60" x14ac:dyDescent="0.25">
-      <c r="A16" s="96"/>
+      <c r="A16" s="97"/>
       <c r="B16">
         <v>1</v>
       </c>
@@ -6554,47 +6717,44 @@
       <c r="H16" s="36">
         <v>2.8500000000000001E-2</v>
       </c>
-      <c r="I16" s="36" t="s">
-        <v>33</v>
-      </c>
-      <c r="J16">
+      <c r="J16" s="36" t="s">
+        <v>33</v>
+      </c>
+      <c r="K16">
         <f>H16*$U$16</f>
         <v>1.7099999999999999E-3</v>
       </c>
-      <c r="K16">
-        <f t="shared" ref="K16:K20" si="28">J16*0.005</f>
+      <c r="L16">
+        <f t="shared" ref="L16:L20" si="26">K16*0.005</f>
         <v>8.5499999999999995E-6</v>
       </c>
-      <c r="L16">
-        <f>J16*$W16</f>
+      <c r="M16">
+        <f>K16*$W16</f>
         <v>0.19277131424832977</v>
       </c>
-      <c r="M16">
+      <c r="N16">
+        <f>K16*$X16</f>
+        <v>1.9277131424832974</v>
+      </c>
+      <c r="O16">
+        <f>AA16*$K16</f>
+        <v>0</v>
+      </c>
+      <c r="P16" s="1">
         <f t="shared" si="23"/>
-        <v>1.9277131424832974</v>
-      </c>
-      <c r="N16">
-        <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-      <c r="O16" s="1">
-        <f t="shared" si="25"/>
         <v>7.5441176470588234</v>
       </c>
-      <c r="P16">
+      <c r="Q16">
         <v>2.6861000000000002E-4</v>
       </c>
-      <c r="Q16" s="1">
-        <f t="shared" ref="Q16:Q20" si="29">J16*$AC16</f>
+      <c r="R16" s="1">
+        <f>K16*$AC16</f>
         <v>2.7359999999999999E-2</v>
       </c>
-      <c r="R16">
+      <c r="S16">
         <f>X16</f>
         <v>1127.3176271832149</v>
       </c>
-      <c r="S16">
-        <v>0</v>
-      </c>
       <c r="T16">
         <v>0</v>
       </c>
@@ -6605,7 +6765,7 @@
         <v>1.8</v>
       </c>
       <c r="W16" s="13">
-        <f t="shared" si="26"/>
+        <f t="shared" si="24"/>
         <v>112.73176271832151</v>
       </c>
       <c r="X16" s="13">
@@ -6619,7 +6779,7 @@
         <v>1</v>
       </c>
       <c r="AA16" s="73">
-        <f t="shared" si="27"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="AB16" s="42">
@@ -6627,15 +6787,15 @@
         <v>4411.7647058823532</v>
       </c>
       <c r="AC16" s="13">
-        <f t="shared" ref="AC16:AC20" si="30">ROUND(X16/$AY$6*120,0)</f>
+        <f t="shared" ref="AC16:AC20" si="27">ROUND(X16/$AY$6*120,0)</f>
         <v>16</v>
       </c>
       <c r="AD16" s="13">
-        <f t="shared" ref="AD16:AD20" si="31">J16+L16*$F$31+M16*$J$31+O16*$E$31</f>
+        <f>K16+M16*$F$31+N16*$J$31+P16*$E$31</f>
         <v>2.1242656885690431E-3</v>
       </c>
       <c r="AE16" s="56">
-        <f t="shared" ref="AE16:AE20" si="32">(1-J16/AD16)*100</f>
+        <f>(1-K16/AD16)*100</f>
         <v>19.501594871030591</v>
       </c>
       <c r="AF16" s="1"/>
@@ -6656,7 +6816,7 @@
       <c r="AZ16" s="79"/>
     </row>
     <row r="17" spans="1:55" x14ac:dyDescent="0.25">
-      <c r="A17" s="96"/>
+      <c r="A17" s="97"/>
       <c r="B17">
         <v>1</v>
       </c>
@@ -6679,45 +6839,45 @@
       <c r="H17" s="36">
         <v>9.1999999999999998E-2</v>
       </c>
-      <c r="I17" s="36" t="s">
-        <v>33</v>
-      </c>
-      <c r="J17">
-        <f>P17*$U$17</f>
+      <c r="I17">
+        <v>3.3E-3</v>
+      </c>
+      <c r="J17" s="36" t="s">
+        <v>33</v>
+      </c>
+      <c r="K17">
+        <f>Q17*$U$17</f>
         <v>5.0624699999999995E-3</v>
       </c>
-      <c r="K17">
-        <f t="shared" si="28"/>
+      <c r="L17">
+        <f t="shared" si="26"/>
         <v>2.5312349999999998E-5</v>
       </c>
-      <c r="L17">
-        <f t="shared" ref="L17:L20" si="33">J17*$W17</f>
+      <c r="M17">
+        <f>K17*$W17</f>
         <v>2.3758024102824513</v>
       </c>
-      <c r="M17">
+      <c r="N17">
+        <f>K17*$X17</f>
+        <v>23.758024102824514</v>
+      </c>
+      <c r="O17">
+        <f>AA17*$K17</f>
+        <v>0</v>
+      </c>
+      <c r="P17" s="1">
         <f t="shared" si="23"/>
-        <v>23.758024102824514</v>
-      </c>
-      <c r="N17">
-        <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-      <c r="O17" s="1">
-        <f t="shared" si="25"/>
         <v>22.334426470588234</v>
       </c>
-      <c r="P17">
+      <c r="Q17">
         <v>2.4106999999999999E-4</v>
       </c>
-      <c r="Q17" s="1">
-        <f>J17*$AC17</f>
+      <c r="R17" s="1">
+        <f>K17*$AC17</f>
         <v>0.34424795999999996</v>
       </c>
-      <c r="R17">
+      <c r="S17">
         <v>4250</v>
-      </c>
-      <c r="S17">
-        <v>0</v>
       </c>
       <c r="T17">
         <v>0</v>
@@ -6729,38 +6889,38 @@
         <v>4.8</v>
       </c>
       <c r="W17" s="13">
-        <f t="shared" si="26"/>
+        <f t="shared" si="24"/>
         <v>469.29708428542818</v>
       </c>
       <c r="X17" s="13">
-        <f t="shared" ref="X17:X20" si="34">$W17/$X$23</f>
+        <f t="shared" ref="X17:X20" si="28">$W17/$X$23</f>
         <v>4692.9708428542817</v>
       </c>
       <c r="Z17" s="24"/>
       <c r="AA17" s="73">
-        <f t="shared" si="27"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="AB17" s="39">
         <v>10</v>
       </c>
       <c r="AC17" s="13">
-        <f t="shared" si="30"/>
+        <f t="shared" si="27"/>
         <v>68</v>
       </c>
       <c r="AD17" s="13">
-        <f t="shared" si="31"/>
+        <f>K17+M17*$F$31+N17*$J$31+P17*$E$31</f>
         <v>8.1497066913228666E-3</v>
       </c>
       <c r="AE17" s="56">
-        <f t="shared" si="32"/>
+        <f>(1-K17/AD17)*100</f>
         <v>37.88156811348685</v>
       </c>
       <c r="AF17" s="1"/>
       <c r="AG17" s="1"/>
     </row>
     <row r="18" spans="1:55" x14ac:dyDescent="0.25">
-      <c r="A18" s="96"/>
+      <c r="A18" s="97"/>
       <c r="B18">
         <v>1</v>
       </c>
@@ -6783,47 +6943,44 @@
       <c r="H18" s="36">
         <v>2.8500000000000001E-2</v>
       </c>
-      <c r="I18" s="36" t="s">
-        <v>33</v>
-      </c>
-      <c r="J18">
+      <c r="J18" s="36" t="s">
+        <v>33</v>
+      </c>
+      <c r="K18">
         <f>H18*$U$18</f>
         <v>2.2800000000000003E-3</v>
       </c>
-      <c r="K18">
-        <f t="shared" si="28"/>
+      <c r="L18">
+        <f t="shared" si="26"/>
         <v>1.1400000000000003E-5</v>
       </c>
-      <c r="L18">
-        <f t="shared" si="33"/>
+      <c r="M18">
+        <f>K18*$W18</f>
         <v>0.36572238936056839</v>
       </c>
-      <c r="M18">
+      <c r="N18">
+        <f>K18*$X18</f>
+        <v>3.6572238936056838</v>
+      </c>
+      <c r="O18">
+        <f>AA18*$K18</f>
+        <v>3.0176470588235293</v>
+      </c>
+      <c r="P18" s="1">
         <f t="shared" si="23"/>
-        <v>3.6572238936056838</v>
-      </c>
-      <c r="N18">
-        <f t="shared" si="24"/>
-        <v>3.0176470588235293</v>
-      </c>
-      <c r="O18" s="1">
-        <f t="shared" si="25"/>
         <v>10.058823529411766</v>
       </c>
-      <c r="P18">
+      <c r="Q18">
         <v>2.4800000000000001E-4</v>
       </c>
-      <c r="Q18" s="1">
-        <f t="shared" si="29"/>
+      <c r="R18" s="1">
+        <f>K18*$AC18</f>
         <v>5.2440000000000007E-2</v>
       </c>
-      <c r="R18">
+      <c r="S18">
         <f>X18</f>
         <v>1604.0455673709137</v>
       </c>
-      <c r="S18">
-        <v>0</v>
-      </c>
       <c r="T18">
         <v>0</v>
       </c>
@@ -6834,11 +6991,11 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="W18" s="13">
-        <f t="shared" si="26"/>
+        <f t="shared" si="24"/>
         <v>160.40455673709138</v>
       </c>
       <c r="X18" s="13">
-        <f t="shared" si="34"/>
+        <f t="shared" si="28"/>
         <v>1604.0455673709137</v>
       </c>
       <c r="AA18" s="73">
@@ -6849,22 +7006,22 @@
         <v>104</v>
       </c>
       <c r="AC18" s="13">
-        <f t="shared" si="30"/>
+        <f t="shared" si="27"/>
         <v>23</v>
       </c>
       <c r="AD18" s="13">
-        <f t="shared" si="31"/>
+        <f>K18+M18*$F$31+N18*$J$31+P18*$E$31</f>
         <v>2.9444020852838065E-3</v>
       </c>
       <c r="AE18" s="56">
-        <f t="shared" si="32"/>
+        <f>(1-K18/AD18)*100</f>
         <v>22.564923744773314</v>
       </c>
       <c r="AF18" s="1"/>
       <c r="AG18" s="1"/>
     </row>
     <row r="19" spans="1:55" x14ac:dyDescent="0.25">
-      <c r="A19" s="96"/>
+      <c r="A19" s="97"/>
       <c r="B19">
         <v>1</v>
       </c>
@@ -6887,47 +7044,44 @@
       <c r="H19" s="36">
         <v>5.0000000000000001E-4</v>
       </c>
-      <c r="I19" s="36" t="s">
-        <v>33</v>
-      </c>
-      <c r="J19">
+      <c r="J19" s="36" t="s">
+        <v>33</v>
+      </c>
+      <c r="K19">
         <f>H19*$U$19</f>
         <v>4.0000000000000003E-5</v>
       </c>
-      <c r="K19">
-        <f t="shared" si="28"/>
+      <c r="L19">
+        <f t="shared" si="26"/>
         <v>2.0000000000000002E-7</v>
       </c>
-      <c r="L19">
-        <f t="shared" si="33"/>
+      <c r="M19">
+        <f>K19*$W19</f>
         <v>6.4161822694836562E-3</v>
       </c>
-      <c r="M19">
+      <c r="N19">
+        <f>K19*$X19</f>
+        <v>6.4161822694836557E-2</v>
+      </c>
+      <c r="O19">
+        <f>AA19*$K19</f>
+        <v>0</v>
+      </c>
+      <c r="P19" s="1">
         <f t="shared" si="23"/>
-        <v>6.4161822694836557E-2</v>
-      </c>
-      <c r="N19">
-        <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-      <c r="O19" s="1">
-        <f t="shared" si="25"/>
         <v>0.17647058823529413</v>
       </c>
-      <c r="P19">
+      <c r="Q19">
         <v>4.7099999999999998E-6</v>
       </c>
-      <c r="Q19" s="1">
-        <f t="shared" si="29"/>
+      <c r="R19" s="1">
+        <f>K19*$AC19</f>
         <v>9.2000000000000003E-4</v>
       </c>
-      <c r="R19">
+      <c r="S19">
         <f>X19</f>
         <v>1604.0455673709137</v>
       </c>
-      <c r="S19">
-        <v>0</v>
-      </c>
       <c r="T19">
         <v>0</v>
       </c>
@@ -6938,28 +7092,28 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="W19" s="13">
-        <f t="shared" si="26"/>
+        <f t="shared" si="24"/>
         <v>160.40455673709138</v>
       </c>
       <c r="X19" s="13">
-        <f t="shared" si="34"/>
+        <f t="shared" si="28"/>
         <v>1604.0455673709137</v>
       </c>
       <c r="AA19" s="73">
-        <f t="shared" si="27"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="AB19" s="1"/>
       <c r="AC19" s="13">
-        <f t="shared" si="30"/>
+        <f t="shared" si="27"/>
         <v>23</v>
       </c>
       <c r="AD19" s="13">
-        <f t="shared" si="31"/>
+        <f>K19+M19*$F$31+N19*$J$31+P19*$E$31</f>
         <v>5.1656176934803615E-5</v>
       </c>
       <c r="AE19" s="56">
-        <f t="shared" si="32"/>
+        <f>(1-K19/AD19)*100</f>
         <v>22.564923744773303</v>
       </c>
       <c r="BA19" s="63" t="s">
@@ -6973,7 +7127,7 @@
       </c>
     </row>
     <row r="20" spans="1:55" x14ac:dyDescent="0.25">
-      <c r="A20" s="96"/>
+      <c r="A20" s="97"/>
       <c r="B20">
         <v>1</v>
       </c>
@@ -6995,42 +7149,42 @@
       <c r="H20" s="36">
         <v>6.0421565000000003E-2</v>
       </c>
-      <c r="I20" s="36" t="s">
+      <c r="I20">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="J20" s="36" t="s">
         <v>31</v>
       </c>
-      <c r="J20">
-        <f>P20*$U$20</f>
+      <c r="K20">
+        <f>Q20*$U$20</f>
         <v>4.0322099999999996E-3</v>
       </c>
-      <c r="K20">
-        <f t="shared" si="28"/>
+      <c r="L20">
+        <f t="shared" si="26"/>
         <v>2.0161049999999999E-5</v>
       </c>
-      <c r="L20">
-        <f t="shared" si="33"/>
+      <c r="M20">
+        <f>K20*$W20</f>
         <v>2.0843008232103681</v>
       </c>
-      <c r="M20">
+      <c r="N20">
+        <f>K20*$X20</f>
+        <v>20.843008232103678</v>
+      </c>
+      <c r="O20">
+        <f>AA20*$K20</f>
+        <v>0</v>
+      </c>
+      <c r="P20" s="1">
         <f t="shared" si="23"/>
-        <v>20.843008232103678</v>
-      </c>
-      <c r="N20">
-        <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-      <c r="O20" s="1">
-        <f t="shared" si="25"/>
         <v>17.789161764705881</v>
       </c>
-      <c r="P20">
+      <c r="Q20">
         <v>1.9201E-4</v>
       </c>
-      <c r="Q20" s="1">
-        <f t="shared" si="29"/>
+      <c r="R20" s="1">
+        <f>K20*$AC20</f>
         <v>0.30241574999999998</v>
-      </c>
-      <c r="R20">
-        <v>0</v>
       </c>
       <c r="S20">
         <v>0</v>
@@ -7045,27 +7199,27 @@
         <v>5.0999999999999996</v>
       </c>
       <c r="W20" s="14">
-        <f t="shared" si="26"/>
+        <f t="shared" si="24"/>
         <v>516.91276575633913</v>
       </c>
       <c r="X20" s="14">
-        <f t="shared" si="34"/>
+        <f t="shared" si="28"/>
         <v>5169.127657563391</v>
       </c>
       <c r="AA20" s="74">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="AC20" s="14">
         <f t="shared" si="27"/>
-        <v>0</v>
-      </c>
-      <c r="AC20" s="14">
-        <f t="shared" si="30"/>
         <v>75</v>
       </c>
       <c r="AD20" s="14">
-        <f t="shared" si="31"/>
+        <f>K20+M20*$F$31+N20*$J$31+P20*$E$31</f>
         <v>6.689085819105817E-3</v>
       </c>
       <c r="AE20" s="57">
-        <f t="shared" si="32"/>
+        <f>(1-K20/AD20)*100</f>
         <v>39.719565437732463</v>
       </c>
       <c r="BA20" s="63"/>
@@ -7193,7 +7347,7 @@
       </c>
     </row>
     <row r="25" spans="1:55" x14ac:dyDescent="0.25">
-      <c r="A25" s="96" t="s">
+      <c r="A25" s="97" t="s">
         <v>72</v>
       </c>
       <c r="B25" s="5" t="s">
@@ -7254,7 +7408,7 @@
       </c>
     </row>
     <row r="26" spans="1:55" x14ac:dyDescent="0.25">
-      <c r="A26" s="96"/>
+      <c r="A26" s="97"/>
       <c r="B26">
         <v>1</v>
       </c>
@@ -7308,7 +7462,7 @@
       <c r="BA26" s="7"/>
     </row>
     <row r="27" spans="1:55" x14ac:dyDescent="0.25">
-      <c r="A27" s="96"/>
+      <c r="A27" s="97"/>
       <c r="B27">
         <v>1</v>
       </c>
@@ -7363,7 +7517,7 @@
       <c r="Q27" s="17" t="s">
         <v>82</v>
       </c>
-      <c r="R27" s="97" t="s">
+      <c r="R27" s="98" t="s">
         <v>46</v>
       </c>
       <c r="S27" s="7" t="s">
@@ -7410,7 +7564,7 @@
         <v>250</v>
       </c>
       <c r="N28" s="62">
-        <f>SUM(AK5:AK12,J15:J20)/K27</f>
+        <f>SUM(AK5:AK12,K15:K20)/K27</f>
         <v>0.59356706071351761</v>
       </c>
       <c r="O28" s="14">
@@ -7422,7 +7576,7 @@
       <c r="Q28" s="14">
         <v>1.2</v>
       </c>
-      <c r="R28" s="97"/>
+      <c r="R28" s="98"/>
       <c r="S28" s="7" t="s">
         <v>48</v>
       </c>
@@ -7449,7 +7603,7 @@
     </row>
     <row r="29" spans="1:55" x14ac:dyDescent="0.25">
       <c r="F29" s="1"/>
-      <c r="R29" s="97"/>
+      <c r="R29" s="98"/>
       <c r="S29" s="7" t="s">
         <v>49</v>
       </c>
@@ -7489,10 +7643,10 @@
         <v>116</v>
       </c>
       <c r="P30" s="54">
-        <f>K27+SUM(J15:J20)+SUM(AK5:AK12)</f>
+        <f>K27+SUM(K15:K20)+SUM(AK5:AK12)</f>
         <v>5.3967520737202901E-2</v>
       </c>
-      <c r="R30" s="97"/>
+      <c r="R30" s="98"/>
       <c r="S30" s="7" t="s">
         <v>50</v>
       </c>
@@ -7541,7 +7695,7 @@
         <f>( 0.000001*14) / 0.151</f>
         <v>9.2715231788079476E-5</v>
       </c>
-      <c r="R31" s="97"/>
+      <c r="R31" s="98"/>
       <c r="S31" s="7" t="s">
         <v>51</v>
       </c>
@@ -7593,7 +7747,7 @@
         <f>E26*E31+F26*F31</f>
         <v>0</v>
       </c>
-      <c r="R32" s="97"/>
+      <c r="R32" s="98"/>
       <c r="S32" s="9" t="s">
         <v>52</v>
       </c>
@@ -7612,7 +7766,7 @@
         <v>92</v>
       </c>
       <c r="P33" s="54">
-        <f t="array" ref="P33">SUM(J15:J20,AK5:AK12)+SUM(AF5:AF12*F31,L15:L20*F31)+SUM(AH5:AH12*J31,M15:M20*J31)+SUM(AE5:AE12*E31,O15:O20*E31)+SUM(N15:N20*E31,AG5:AG12*E31)</f>
+        <f t="array" ref="P33">SUM(K15:K20,AK5:AK12)+SUM(AF5:AF12*F31,M15:M20*F31)+SUM(AH5:AH12*J31,N15:N20*J31)+SUM(AE5:AE12*E31,P15:P20*E31)+SUM(O15:O20*E31,AG5:AG12*E31)</f>
         <v>3.1685114136390059E-2</v>
       </c>
       <c r="W33" s="28" t="s">
@@ -7632,7 +7786,7 @@
       </c>
     </row>
     <row r="35" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="98" t="s">
+      <c r="A35" s="99" t="s">
         <v>132</v>
       </c>
       <c r="B35" s="5" t="s">
@@ -7681,7 +7835,7 @@
       <c r="Q35" s="25"/>
     </row>
     <row r="36" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A36" s="98"/>
+      <c r="A36" s="99"/>
       <c r="B36">
         <v>1</v>
       </c>
@@ -7727,7 +7881,7 @@
         <v>114</v>
       </c>
       <c r="P37" s="32">
-        <f>1-SUM($AK$5:$AK$12,$J$15:$J$20)/$P$33</f>
+        <f>1-SUM($AK$5:$AK$12,$K$15:$K$20)/$P$33</f>
         <v>0.36558033065004591</v>
       </c>
     </row>
@@ -7745,7 +7899,7 @@
         <v>94</v>
       </c>
       <c r="P39" s="32">
-        <f>1-SUM($AK$5:$AK$12,$J$15:$J$20)/($P$33+N28/(1+N28)*P32)</f>
+        <f>1-SUM($AK$5:$AK$12,$K$15:$K$20)/($P$33+N28/(1+N28)*P32)</f>
         <v>0.36558033065004591</v>
       </c>
     </row>
@@ -7800,6 +7954,6730 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FF92D050"/>
+  </sheetPr>
+  <dimension ref="A1:BH44"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="F4" workbookViewId="0">
+      <selection activeCell="J18" sqref="J18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="5" max="5" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12" customWidth="1"/>
+    <col min="23" max="23" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="12.85546875" customWidth="1"/>
+    <col min="35" max="35" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="21.7109375" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="12" bestFit="1" customWidth="1"/>
+    <col min="51" max="52" width="12" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:60" x14ac:dyDescent="0.25">
+      <c r="A1" s="46" t="s">
+        <v>96</v>
+      </c>
+      <c r="B1" s="47" t="s">
+        <v>97</v>
+      </c>
+      <c r="C1" s="48"/>
+      <c r="E1" s="52" t="s">
+        <v>120</v>
+      </c>
+      <c r="G1" s="103" t="s">
+        <v>162</v>
+      </c>
+      <c r="H1" s="100"/>
+      <c r="I1" s="100"/>
+      <c r="J1" s="104" t="s">
+        <v>163</v>
+      </c>
+      <c r="K1" s="104" t="s">
+        <v>164</v>
+      </c>
+      <c r="L1" s="105" t="s">
+        <v>165</v>
+      </c>
+      <c r="M1" s="27"/>
+      <c r="W1" s="81" t="s">
+        <v>136</v>
+      </c>
+      <c r="X1" s="82" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="2" spans="1:60" s="27" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="49" t="s">
+        <v>96</v>
+      </c>
+      <c r="B2" s="50" t="s">
+        <v>98</v>
+      </c>
+      <c r="C2" s="51"/>
+      <c r="E2" s="53">
+        <f xml:space="preserve"> 76.1/12*24*3600</f>
+        <v>547920</v>
+      </c>
+      <c r="G2" s="101" t="s">
+        <v>167</v>
+      </c>
+      <c r="H2" s="102"/>
+      <c r="I2" s="102"/>
+      <c r="J2" s="106">
+        <v>5.3</v>
+      </c>
+      <c r="K2" s="106">
+        <v>8.4</v>
+      </c>
+      <c r="L2" s="107">
+        <v>11.5</v>
+      </c>
+      <c r="W2" s="83">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="X2" s="83">
+        <v>9.9999999999999995E-7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:60" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="97" t="s">
+        <v>70</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="H4" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="I4" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="J4" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="K4" s="35" t="s">
+        <v>8</v>
+      </c>
+      <c r="L4" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="M4" s="35" t="s">
+        <v>10</v>
+      </c>
+      <c r="N4" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="O4" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="P4" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q4" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="R4" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="S4" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="T4" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="U4" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="V4" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="W4" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="X4" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="Y4" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="Z4" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="AA4" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="AB4" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="AC4" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="AD4" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="AE4" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="AF4" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="AG4" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="AH4" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="AI4" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="AJ4" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="AK4" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="AL4" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="AM4" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="AN4" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="AO4" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="AP4" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="AQ4" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="AR4" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="AS4" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="AT4" s="85" t="s">
+        <v>151</v>
+      </c>
+      <c r="AU4" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="AV4" s="12" t="s">
+        <v>107</v>
+      </c>
+      <c r="AW4" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="AX4" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="AY4" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="AZ4" s="12" t="s">
+        <v>133</v>
+      </c>
+      <c r="BA4" s="80" t="s">
+        <v>134</v>
+      </c>
+      <c r="BB4" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="BC4" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="BD4" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="BE4" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="BF4" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="BG4" s="6"/>
+      <c r="BH4" s="6" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="5" spans="1:60" x14ac:dyDescent="0.25">
+      <c r="A5" s="97"/>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D5">
+        <v>3</v>
+      </c>
+      <c r="E5">
+        <f>(10-D5)*$E$2</f>
+        <v>3835440</v>
+      </c>
+      <c r="F5">
+        <v>1570000</v>
+      </c>
+      <c r="G5">
+        <f>432000*24/12</f>
+        <v>864000</v>
+      </c>
+      <c r="H5" t="s">
+        <v>31</v>
+      </c>
+      <c r="I5" t="s">
+        <v>31</v>
+      </c>
+      <c r="J5">
+        <f>H16+H19-M5</f>
+        <v>2.895E-2</v>
+      </c>
+      <c r="K5" s="36">
+        <f>J5-M5</f>
+        <v>2.8899999999999999E-2</v>
+      </c>
+      <c r="L5" s="36">
+        <v>9.2499999999999999E-2</v>
+      </c>
+      <c r="M5" s="36">
+        <v>5.0000000000000002E-5</v>
+      </c>
+      <c r="N5">
+        <v>3600</v>
+      </c>
+      <c r="O5">
+        <v>3600</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+      <c r="T5">
+        <v>0.12280000000000001</v>
+      </c>
+      <c r="U5">
+        <v>9.3426658551430383E-2</v>
+      </c>
+      <c r="V5">
+        <v>2.9373341448569623E-2</v>
+      </c>
+      <c r="W5" s="1">
+        <f>$W$2*EXP($X$2*E5)</f>
+        <v>4.6313801257985432E-5</v>
+      </c>
+      <c r="X5">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="Y5">
+        <v>21</v>
+      </c>
+      <c r="Z5">
+        <v>0.09</v>
+      </c>
+      <c r="AA5" t="s">
+        <v>31</v>
+      </c>
+      <c r="AB5" t="s">
+        <v>32</v>
+      </c>
+      <c r="AC5">
+        <v>1</v>
+      </c>
+      <c r="AD5" t="s">
+        <v>33</v>
+      </c>
+      <c r="AE5" s="1">
+        <f t="shared" ref="AE5:AE12" si="0">AK5*$AV$15</f>
+        <v>8.9088436646547198</v>
+      </c>
+      <c r="AF5" s="1">
+        <f t="shared" ref="AF5:AF12" si="1">AK5*$AX5</f>
+        <v>0.99652622317307915</v>
+      </c>
+      <c r="AG5" s="24">
+        <f t="shared" ref="AG5:AG12" si="2">AK5*$BA5</f>
+        <v>8.9088436646547198</v>
+      </c>
+      <c r="AH5" s="26">
+        <f t="shared" ref="AH5:AH12" si="3">AK5*$AY5</f>
+        <v>9.9652622317307902</v>
+      </c>
+      <c r="AI5" s="1">
+        <f>BE5</f>
+        <v>2.0180134110471437E-3</v>
+      </c>
+      <c r="AJ5" s="1">
+        <f>BH5</f>
+        <v>1.3244862745926676E-6</v>
+      </c>
+      <c r="AK5" s="1">
+        <f>AI5+AJ5</f>
+        <v>2.0193378973217364E-3</v>
+      </c>
+      <c r="AL5" s="1">
+        <f>AI5*0.005</f>
+        <v>1.0090067055235718E-5</v>
+      </c>
+      <c r="AM5">
+        <f>AJ5*0.005</f>
+        <v>6.6224313729633385E-9</v>
+      </c>
+      <c r="AN5">
+        <f>AL5+AM5</f>
+        <v>1.0096689486608681E-5</v>
+      </c>
+      <c r="AO5" s="1">
+        <v>1800</v>
+      </c>
+      <c r="AP5" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AQ5" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AR5" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AS5" s="1">
+        <f>T5</f>
+        <v>0.12280000000000001</v>
+      </c>
+      <c r="AT5" t="s">
+        <v>32</v>
+      </c>
+      <c r="AU5" s="55">
+        <f t="shared" ref="AU5:AU12" si="4">AK5+AE5*$E$31+AF5*$F$31+AH5*$J$31</f>
+        <v>3.3011513455652687E-3</v>
+      </c>
+      <c r="AV5" s="56">
+        <f t="shared" ref="AV5:AV12" si="5">(1-AK5/AU5)*100</f>
+        <v>38.829284515098252</v>
+      </c>
+      <c r="AW5" s="13">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="AX5" s="13">
+        <f t="shared" ref="AX5:AX12" si="6">(($AW5/100)*(1+($AV$15+$BA5)*$E$31)-$Y$16)/(((1+1/$X$23)*(14*10^(-6)))-(($J$31/$X$23+$F$31)*$AW5/100))</f>
+        <v>493.49156696102204</v>
+      </c>
+      <c r="AY5" s="13">
+        <f t="shared" ref="AY5:AY12" si="7">$AX5/$X$23</f>
+        <v>4934.91566961022</v>
+      </c>
+      <c r="AZ5" s="13">
+        <v>10</v>
+      </c>
+      <c r="BA5" s="68">
+        <f t="shared" ref="BA5:BA12" si="8">$AZ5/100/(1-$X$33)*$X$32*10^6/$X$30</f>
+        <v>4411.7647058823532</v>
+      </c>
+      <c r="BB5" s="7">
+        <v>851425</v>
+      </c>
+      <c r="BC5" s="8">
+        <f>$T$27+$T$28*$T$30*(J5)^$T$29</f>
+        <v>9.1058115591388438E-4</v>
+      </c>
+      <c r="BD5" s="7">
+        <f t="shared" ref="BD5:BD12" si="9">J5*Z5</f>
+        <v>2.6054999999999997E-3</v>
+      </c>
+      <c r="BE5" s="8">
+        <f>((BD5-BC5)/($T$31-BB5))*(F5-$T$31)+BD5</f>
+        <v>2.0180134110471437E-3</v>
+      </c>
+      <c r="BF5" s="8">
+        <f t="shared" ref="BF5:BF12" si="10">$T$27+$T$28*$T$30*(L5)^$T$29</f>
+        <v>4.0277279389003447E-3</v>
+      </c>
+      <c r="BG5" s="7"/>
+      <c r="BH5" s="7">
+        <f t="shared" ref="BH5:BH12" si="11">$BC$20*$BB$22*$BB$24*(M5)^$BB$21</f>
+        <v>1.3244862745926676E-6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:60" x14ac:dyDescent="0.25">
+      <c r="A6" s="97"/>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6" t="s">
+        <v>30</v>
+      </c>
+      <c r="D6">
+        <v>4</v>
+      </c>
+      <c r="E6">
+        <f t="shared" ref="E6:E11" si="12">(10-D6)*$E$2</f>
+        <v>3287520</v>
+      </c>
+      <c r="F6">
+        <v>757000</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6" t="s">
+        <v>31</v>
+      </c>
+      <c r="I6" t="s">
+        <v>31</v>
+      </c>
+      <c r="J6">
+        <f>J5-M6</f>
+        <v>2.894E-2</v>
+      </c>
+      <c r="K6" s="36">
+        <f t="shared" ref="K6:K12" si="13">J6-M6</f>
+        <v>2.8930000000000001E-2</v>
+      </c>
+      <c r="L6" s="36">
+        <v>2.6499999999999999E-2</v>
+      </c>
+      <c r="M6" s="36">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="N6">
+        <v>3600</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+      <c r="T6">
+        <v>0.1331</v>
+      </c>
+      <c r="U6">
+        <v>9.9106478034251738E-2</v>
+      </c>
+      <c r="V6">
+        <v>3.3993521965748258E-2</v>
+      </c>
+      <c r="W6" s="1">
+        <f t="shared" ref="W6:W12" si="14">$W$2*EXP($X$2*E6)</f>
+        <v>2.6776375833009532E-5</v>
+      </c>
+      <c r="X6" t="s">
+        <v>32</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>32</v>
+      </c>
+      <c r="Z6" t="s">
+        <v>32</v>
+      </c>
+      <c r="AA6" t="s">
+        <v>33</v>
+      </c>
+      <c r="AB6" t="s">
+        <v>32</v>
+      </c>
+      <c r="AC6" t="s">
+        <v>32</v>
+      </c>
+      <c r="AD6" t="s">
+        <v>33</v>
+      </c>
+      <c r="AE6" s="1">
+        <f t="shared" si="0"/>
+        <v>3.5881220853167113</v>
+      </c>
+      <c r="AF6" s="1">
+        <f t="shared" si="1"/>
+        <v>0.67583627559825854</v>
+      </c>
+      <c r="AG6" s="24">
+        <f t="shared" si="2"/>
+        <v>1.7940610426583556</v>
+      </c>
+      <c r="AH6" s="26">
+        <f t="shared" si="3"/>
+        <v>6.7583627559825858</v>
+      </c>
+      <c r="AI6" s="1">
+        <f>BF6</f>
+        <v>8.1313887523147316E-4</v>
+      </c>
+      <c r="AJ6" s="1">
+        <f>BH6</f>
+        <v>1.6879744031468265E-7</v>
+      </c>
+      <c r="AK6">
+        <f t="shared" ref="AK6:AK12" si="15">AI6+AJ6</f>
+        <v>8.1330767267178783E-4</v>
+      </c>
+      <c r="AL6">
+        <f t="shared" ref="AL6:AM12" si="16">AI6*0.005</f>
+        <v>4.0656943761573658E-6</v>
+      </c>
+      <c r="AM6">
+        <f t="shared" si="16"/>
+        <v>8.4398720157341326E-10</v>
+      </c>
+      <c r="AN6">
+        <f t="shared" ref="AN6:AN12" si="17">AL6+AM6</f>
+        <v>4.066538363358939E-6</v>
+      </c>
+      <c r="AO6" s="1">
+        <v>1800</v>
+      </c>
+      <c r="AP6" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AQ6" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AR6" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AS6" s="1">
+        <f t="shared" ref="AS6:AS12" si="18">T6</f>
+        <v>0.1331</v>
+      </c>
+      <c r="AT6" t="s">
+        <v>32</v>
+      </c>
+      <c r="AU6" s="55">
+        <f t="shared" si="4"/>
+        <v>1.612515340843685E-3</v>
+      </c>
+      <c r="AV6" s="56">
+        <f t="shared" si="5"/>
+        <v>49.562794717583479</v>
+      </c>
+      <c r="AW6" s="13">
+        <v>6.5</v>
+      </c>
+      <c r="AX6" s="13">
+        <f t="shared" si="6"/>
+        <v>830.97245766546928</v>
+      </c>
+      <c r="AY6" s="13">
+        <f t="shared" si="7"/>
+        <v>8309.724576654693</v>
+      </c>
+      <c r="AZ6" s="13">
+        <v>5</v>
+      </c>
+      <c r="BA6" s="68">
+        <f t="shared" si="8"/>
+        <v>2205.8823529411766</v>
+      </c>
+      <c r="BB6" s="7">
+        <v>818263</v>
+      </c>
+      <c r="BC6" s="8">
+        <f>$T$27+$T$28*$T$30*(J6)^$T$29</f>
+        <v>9.1017858127080242E-4</v>
+      </c>
+      <c r="BD6" s="7" t="e">
+        <f t="shared" si="9"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="BE6" s="8" t="e">
+        <f>((BD6-BC6)/($T$31-BB6))*(F6-$T$31)+BD6</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="BF6" s="8">
+        <f t="shared" si="10"/>
+        <v>8.1313887523147316E-4</v>
+      </c>
+      <c r="BG6" s="7"/>
+      <c r="BH6" s="7">
+        <f t="shared" si="11"/>
+        <v>1.6879744031468265E-7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:60" x14ac:dyDescent="0.25">
+      <c r="A7" s="97"/>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7" t="s">
+        <v>30</v>
+      </c>
+      <c r="D7">
+        <v>5</v>
+      </c>
+      <c r="E7">
+        <f t="shared" si="12"/>
+        <v>2739600</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7" t="s">
+        <v>31</v>
+      </c>
+      <c r="I7" t="s">
+        <v>33</v>
+      </c>
+      <c r="J7">
+        <f>J6-M7</f>
+        <v>2.894E-2</v>
+      </c>
+      <c r="K7" s="36">
+        <f t="shared" si="13"/>
+        <v>2.894E-2</v>
+      </c>
+      <c r="L7" s="91">
+        <v>1.9677388526365687E-3</v>
+      </c>
+      <c r="M7" s="36">
+        <v>0</v>
+      </c>
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+      <c r="T7" t="s">
+        <v>32</v>
+      </c>
+      <c r="U7" t="s">
+        <v>32</v>
+      </c>
+      <c r="V7" t="s">
+        <v>32</v>
+      </c>
+      <c r="W7" s="1">
+        <f t="shared" si="14"/>
+        <v>1.5480791541095022E-5</v>
+      </c>
+      <c r="X7" t="s">
+        <v>32</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>32</v>
+      </c>
+      <c r="Z7" t="s">
+        <v>32</v>
+      </c>
+      <c r="AA7" t="s">
+        <v>33</v>
+      </c>
+      <c r="AB7" t="s">
+        <v>32</v>
+      </c>
+      <c r="AC7" t="s">
+        <v>32</v>
+      </c>
+      <c r="AD7" t="s">
+        <v>33</v>
+      </c>
+      <c r="AE7" s="1">
+        <f t="shared" si="0"/>
+        <v>0.12873040793583418</v>
+      </c>
+      <c r="AF7" s="1">
+        <f t="shared" si="1"/>
+        <v>5.3069049208309536E-2</v>
+      </c>
+      <c r="AG7" s="24">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AH7" s="26">
+        <f t="shared" si="3"/>
+        <v>0.53069049208309527</v>
+      </c>
+      <c r="AI7" s="1">
+        <f>BF7</f>
+        <v>2.9178892465455746E-5</v>
+      </c>
+      <c r="AJ7" s="1">
+        <v>0</v>
+      </c>
+      <c r="AK7">
+        <f t="shared" si="15"/>
+        <v>2.9178892465455746E-5</v>
+      </c>
+      <c r="AL7">
+        <f t="shared" si="16"/>
+        <v>1.4589446232727874E-7</v>
+      </c>
+      <c r="AM7">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="AN7">
+        <f t="shared" si="17"/>
+        <v>1.4589446232727874E-7</v>
+      </c>
+      <c r="AO7" s="1">
+        <v>1800</v>
+      </c>
+      <c r="AP7" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AQ7" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AR7" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AS7" s="1" t="str">
+        <f t="shared" si="18"/>
+        <v>NA</v>
+      </c>
+      <c r="AT7" t="s">
+        <v>32</v>
+      </c>
+      <c r="AU7" s="55">
+        <f t="shared" si="4"/>
+        <v>8.7563453056915228E-5</v>
+      </c>
+      <c r="AV7" s="56">
+        <f t="shared" si="5"/>
+        <v>66.676859526668281</v>
+      </c>
+      <c r="AW7" s="13">
+        <v>9.5</v>
+      </c>
+      <c r="AX7" s="13">
+        <f t="shared" si="6"/>
+        <v>1818.7478935719314</v>
+      </c>
+      <c r="AY7" s="13">
+        <f t="shared" si="7"/>
+        <v>18187.478935719311</v>
+      </c>
+      <c r="AZ7" s="13">
+        <v>0</v>
+      </c>
+      <c r="BA7" s="68">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="BB7" s="7"/>
+      <c r="BC7" s="8" t="e">
+        <f t="shared" ref="BC7:BC12" si="19">$T$27+$T$28*$T$30*(T7*$T$32)^$T$29</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="BD7" s="7" t="e">
+        <f t="shared" si="9"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="BE7" s="8" t="e">
+        <f t="shared" ref="BE7:BE12" si="20">BC7+((BD7-BC7)/$T$31)*F7</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="BF7" s="8">
+        <f t="shared" si="10"/>
+        <v>2.9178892465455746E-5</v>
+      </c>
+      <c r="BG7" s="7"/>
+      <c r="BH7" s="7">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:60" x14ac:dyDescent="0.25">
+      <c r="A8" s="97"/>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8" t="s">
+        <v>30</v>
+      </c>
+      <c r="D8">
+        <v>6</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="12"/>
+        <v>2191680</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8" t="s">
+        <v>31</v>
+      </c>
+      <c r="I8" t="s">
+        <v>33</v>
+      </c>
+      <c r="J8">
+        <f t="shared" ref="J8:J12" si="21">J7-M8</f>
+        <v>2.894E-2</v>
+      </c>
+      <c r="K8" s="36">
+        <f t="shared" si="13"/>
+        <v>2.894E-2</v>
+      </c>
+      <c r="L8" s="91">
+        <v>7.5411160325070082E-4</v>
+      </c>
+      <c r="M8" s="36">
+        <v>0</v>
+      </c>
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+      <c r="T8" t="s">
+        <v>32</v>
+      </c>
+      <c r="U8" t="s">
+        <v>32</v>
+      </c>
+      <c r="V8" t="s">
+        <v>32</v>
+      </c>
+      <c r="W8" s="1">
+        <f t="shared" si="14"/>
+        <v>8.9502368891684043E-6</v>
+      </c>
+      <c r="X8" t="s">
+        <v>32</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>32</v>
+      </c>
+      <c r="Z8" t="s">
+        <v>32</v>
+      </c>
+      <c r="AA8" t="s">
+        <v>33</v>
+      </c>
+      <c r="AB8" t="s">
+        <v>32</v>
+      </c>
+      <c r="AC8" t="s">
+        <v>32</v>
+      </c>
+      <c r="AD8" t="s">
+        <v>33</v>
+      </c>
+      <c r="AE8" s="1">
+        <f t="shared" si="0"/>
+        <v>3.7798204342272199E-2</v>
+      </c>
+      <c r="AF8" s="1">
+        <f t="shared" si="1"/>
+        <v>1.5582291693083372E-2</v>
+      </c>
+      <c r="AG8" s="24">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AH8" s="26">
+        <f t="shared" si="3"/>
+        <v>0.15582291693083369</v>
+      </c>
+      <c r="AI8" s="1">
+        <f t="shared" ref="AI8:AI12" si="22">BF8</f>
+        <v>8.5675929842483652E-6</v>
+      </c>
+      <c r="AJ8" s="1">
+        <v>0</v>
+      </c>
+      <c r="AK8">
+        <f t="shared" si="15"/>
+        <v>8.5675929842483652E-6</v>
+      </c>
+      <c r="AL8">
+        <f t="shared" si="16"/>
+        <v>4.2837964921241826E-8</v>
+      </c>
+      <c r="AM8">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="AN8">
+        <f t="shared" si="17"/>
+        <v>4.2837964921241826E-8</v>
+      </c>
+      <c r="AO8" t="s">
+        <v>32</v>
+      </c>
+      <c r="AP8" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AQ8" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AR8" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AS8" s="1" t="str">
+        <f t="shared" si="18"/>
+        <v>NA</v>
+      </c>
+      <c r="AT8" t="s">
+        <v>32</v>
+      </c>
+      <c r="AU8" s="55">
+        <f t="shared" si="4"/>
+        <v>2.5710640901642957E-5</v>
+      </c>
+      <c r="AV8" s="56">
+        <f t="shared" si="5"/>
+        <v>66.676859526668281</v>
+      </c>
+      <c r="AW8" s="13">
+        <v>9.5</v>
+      </c>
+      <c r="AX8" s="13">
+        <f t="shared" si="6"/>
+        <v>1818.7478935719314</v>
+      </c>
+      <c r="AY8" s="13">
+        <f t="shared" si="7"/>
+        <v>18187.478935719311</v>
+      </c>
+      <c r="AZ8" s="13">
+        <v>0</v>
+      </c>
+      <c r="BA8" s="68">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="BB8" s="7"/>
+      <c r="BC8" s="8" t="e">
+        <f t="shared" si="19"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="BD8" s="7" t="e">
+        <f t="shared" si="9"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="BE8" s="8" t="e">
+        <f t="shared" si="20"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="BF8" s="8">
+        <f t="shared" si="10"/>
+        <v>8.5675929842483652E-6</v>
+      </c>
+      <c r="BG8" s="7"/>
+      <c r="BH8" s="7">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:60" x14ac:dyDescent="0.25">
+      <c r="A9" s="97"/>
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9" t="s">
+        <v>30</v>
+      </c>
+      <c r="D9">
+        <v>7</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="12"/>
+        <v>1643760</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9" t="s">
+        <v>31</v>
+      </c>
+      <c r="I9" t="s">
+        <v>33</v>
+      </c>
+      <c r="J9">
+        <f t="shared" si="21"/>
+        <v>2.894E-2</v>
+      </c>
+      <c r="K9" s="36">
+        <f t="shared" si="13"/>
+        <v>2.894E-2</v>
+      </c>
+      <c r="L9" s="91">
+        <v>3.1376376813217782E-4</v>
+      </c>
+      <c r="M9" s="36">
+        <v>0</v>
+      </c>
+      <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+      <c r="T9" t="s">
+        <v>32</v>
+      </c>
+      <c r="U9" t="s">
+        <v>32</v>
+      </c>
+      <c r="V9" t="s">
+        <v>32</v>
+      </c>
+      <c r="W9" s="1">
+        <f t="shared" si="14"/>
+        <v>5.1745894361784425E-6</v>
+      </c>
+      <c r="X9" t="s">
+        <v>32</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>32</v>
+      </c>
+      <c r="Z9" t="s">
+        <v>32</v>
+      </c>
+      <c r="AA9" t="s">
+        <v>33</v>
+      </c>
+      <c r="AB9" t="s">
+        <v>32</v>
+      </c>
+      <c r="AC9" t="s">
+        <v>32</v>
+      </c>
+      <c r="AD9" t="s">
+        <v>33</v>
+      </c>
+      <c r="AE9" s="1">
+        <f t="shared" si="0"/>
+        <v>1.2381691922498196E-2</v>
+      </c>
+      <c r="AF9" s="1">
+        <f t="shared" si="1"/>
+        <v>5.1043465833240436E-3</v>
+      </c>
+      <c r="AG9" s="24">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AH9" s="26">
+        <f t="shared" si="3"/>
+        <v>5.1043465833240424E-2</v>
+      </c>
+      <c r="AI9" s="1">
+        <f t="shared" si="22"/>
+        <v>2.8065168357662577E-6</v>
+      </c>
+      <c r="AJ9" s="1">
+        <v>0</v>
+      </c>
+      <c r="AK9">
+        <f t="shared" si="15"/>
+        <v>2.8065168357662577E-6</v>
+      </c>
+      <c r="AL9">
+        <f t="shared" si="16"/>
+        <v>1.4032584178831289E-8</v>
+      </c>
+      <c r="AM9">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="AN9">
+        <f t="shared" si="17"/>
+        <v>1.4032584178831289E-8</v>
+      </c>
+      <c r="AO9" t="s">
+        <v>32</v>
+      </c>
+      <c r="AP9" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AQ9" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AR9" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AS9" s="1" t="str">
+        <f t="shared" si="18"/>
+        <v>NA</v>
+      </c>
+      <c r="AT9" t="s">
+        <v>32</v>
+      </c>
+      <c r="AU9" s="55">
+        <f t="shared" si="4"/>
+        <v>8.4221258737971998E-6</v>
+      </c>
+      <c r="AV9" s="56">
+        <f t="shared" si="5"/>
+        <v>66.676859526668281</v>
+      </c>
+      <c r="AW9" s="13">
+        <v>9.5</v>
+      </c>
+      <c r="AX9" s="13">
+        <f t="shared" si="6"/>
+        <v>1818.7478935719314</v>
+      </c>
+      <c r="AY9" s="13">
+        <f t="shared" si="7"/>
+        <v>18187.478935719311</v>
+      </c>
+      <c r="AZ9" s="13">
+        <v>0</v>
+      </c>
+      <c r="BA9" s="68">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="BB9" s="7"/>
+      <c r="BC9" s="8" t="e">
+        <f t="shared" si="19"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="BD9" s="7" t="e">
+        <f t="shared" si="9"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="BE9" s="8" t="e">
+        <f t="shared" si="20"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="BF9" s="8">
+        <f t="shared" si="10"/>
+        <v>2.8065168357662577E-6</v>
+      </c>
+      <c r="BG9" s="7"/>
+      <c r="BH9" s="7">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:60" x14ac:dyDescent="0.25">
+      <c r="A10" s="97"/>
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10" t="s">
+        <v>30</v>
+      </c>
+      <c r="D10">
+        <v>8</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="12"/>
+        <v>1095840</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10" t="s">
+        <v>31</v>
+      </c>
+      <c r="I10" t="s">
+        <v>33</v>
+      </c>
+      <c r="J10">
+        <f t="shared" si="21"/>
+        <v>2.894E-2</v>
+      </c>
+      <c r="K10" s="36">
+        <f t="shared" si="13"/>
+        <v>2.894E-2</v>
+      </c>
+      <c r="L10" s="91">
+        <v>1.4587358230165945E-4</v>
+      </c>
+      <c r="M10" s="36">
+        <v>0</v>
+      </c>
+      <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+      <c r="T10" t="s">
+        <v>32</v>
+      </c>
+      <c r="U10" t="s">
+        <v>32</v>
+      </c>
+      <c r="V10" t="s">
+        <v>32</v>
+      </c>
+      <c r="W10" s="1">
+        <f t="shared" si="14"/>
+        <v>2.9916946517264094E-6</v>
+      </c>
+      <c r="X10" t="s">
+        <v>32</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>32</v>
+      </c>
+      <c r="Z10" t="s">
+        <v>32</v>
+      </c>
+      <c r="AA10" t="s">
+        <v>33</v>
+      </c>
+      <c r="AB10" t="s">
+        <v>32</v>
+      </c>
+      <c r="AC10" t="s">
+        <v>32</v>
+      </c>
+      <c r="AD10" t="s">
+        <v>33</v>
+      </c>
+      <c r="AE10" s="1">
+        <f t="shared" si="0"/>
+        <v>4.7183998739784598E-3</v>
+      </c>
+      <c r="AF10" s="1">
+        <f t="shared" si="1"/>
+        <v>1.9451580952144349E-3</v>
+      </c>
+      <c r="AG10" s="24">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AH10" s="26">
+        <f t="shared" si="3"/>
+        <v>1.9451580952144346E-2</v>
+      </c>
+      <c r="AI10" s="1">
+        <f t="shared" si="22"/>
+        <v>1.0695039714351174E-6</v>
+      </c>
+      <c r="AJ10" s="1">
+        <v>0</v>
+      </c>
+      <c r="AK10">
+        <f t="shared" si="15"/>
+        <v>1.0695039714351174E-6</v>
+      </c>
+      <c r="AL10">
+        <f t="shared" si="16"/>
+        <v>5.3475198571755876E-9</v>
+      </c>
+      <c r="AM10">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="AN10">
+        <f t="shared" si="17"/>
+        <v>5.3475198571755876E-9</v>
+      </c>
+      <c r="AO10" t="s">
+        <v>32</v>
+      </c>
+      <c r="AP10" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AQ10" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AR10" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AS10" s="1" t="str">
+        <f t="shared" si="18"/>
+        <v>NA</v>
+      </c>
+      <c r="AT10" t="s">
+        <v>32</v>
+      </c>
+      <c r="AU10" s="55">
+        <f t="shared" si="4"/>
+        <v>3.2094933317915637E-6</v>
+      </c>
+      <c r="AV10" s="56">
+        <f t="shared" si="5"/>
+        <v>66.676859526668281</v>
+      </c>
+      <c r="AW10" s="13">
+        <v>9.5</v>
+      </c>
+      <c r="AX10" s="13">
+        <f t="shared" si="6"/>
+        <v>1818.7478935719314</v>
+      </c>
+      <c r="AY10" s="13">
+        <f t="shared" si="7"/>
+        <v>18187.478935719311</v>
+      </c>
+      <c r="AZ10" s="13">
+        <v>0</v>
+      </c>
+      <c r="BA10" s="68">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="BB10" s="7"/>
+      <c r="BC10" s="8" t="e">
+        <f t="shared" si="19"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="BD10" s="7" t="e">
+        <f t="shared" si="9"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="BE10" s="8" t="e">
+        <f t="shared" si="20"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="BF10" s="8">
+        <f t="shared" si="10"/>
+        <v>1.0695039714351174E-6</v>
+      </c>
+      <c r="BG10" s="7"/>
+      <c r="BH10" s="7">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:60" x14ac:dyDescent="0.25">
+      <c r="A11" s="97"/>
+      <c r="B11">
+        <v>1</v>
+      </c>
+      <c r="C11" t="s">
+        <v>30</v>
+      </c>
+      <c r="D11">
+        <v>9</v>
+      </c>
+      <c r="E11">
+        <f t="shared" si="12"/>
+        <v>547920</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11" t="s">
+        <v>31</v>
+      </c>
+      <c r="I11" t="s">
+        <v>33</v>
+      </c>
+      <c r="J11">
+        <f t="shared" si="21"/>
+        <v>2.894E-2</v>
+      </c>
+      <c r="K11" s="36">
+        <f t="shared" si="13"/>
+        <v>2.894E-2</v>
+      </c>
+      <c r="L11" s="91">
+        <v>7.7994660715105795E-5</v>
+      </c>
+      <c r="M11" s="36">
+        <v>0</v>
+      </c>
+      <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+      <c r="T11" t="s">
+        <v>32</v>
+      </c>
+      <c r="U11" t="s">
+        <v>32</v>
+      </c>
+      <c r="V11" t="s">
+        <v>32</v>
+      </c>
+      <c r="W11" s="1">
+        <f t="shared" si="14"/>
+        <v>1.7296515983649451E-6</v>
+      </c>
+      <c r="X11" t="s">
+        <v>32</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>32</v>
+      </c>
+      <c r="Z11" t="s">
+        <v>32</v>
+      </c>
+      <c r="AA11" t="s">
+        <v>33</v>
+      </c>
+      <c r="AB11" t="s">
+        <v>32</v>
+      </c>
+      <c r="AC11" t="s">
+        <v>32</v>
+      </c>
+      <c r="AD11" t="s">
+        <v>33</v>
+      </c>
+      <c r="AE11" s="1">
+        <f t="shared" si="0"/>
+        <v>2.1815845434399943E-3</v>
+      </c>
+      <c r="AF11" s="1">
+        <f t="shared" si="1"/>
+        <v>8.9935718642026317E-4</v>
+      </c>
+      <c r="AG11" s="24">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AH11" s="26">
+        <f t="shared" si="3"/>
+        <v>8.9935718642026301E-3</v>
+      </c>
+      <c r="AI11" s="1">
+        <f t="shared" si="22"/>
+        <v>4.944924965130653E-7</v>
+      </c>
+      <c r="AJ11" s="1">
+        <v>0</v>
+      </c>
+      <c r="AK11">
+        <f t="shared" si="15"/>
+        <v>4.944924965130653E-7</v>
+      </c>
+      <c r="AL11">
+        <f t="shared" si="16"/>
+        <v>2.4724624825653264E-9</v>
+      </c>
+      <c r="AM11">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="AN11">
+        <f t="shared" si="17"/>
+        <v>2.4724624825653264E-9</v>
+      </c>
+      <c r="AO11" t="s">
+        <v>32</v>
+      </c>
+      <c r="AP11" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AQ11" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AR11" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AS11" s="1" t="str">
+        <f t="shared" si="18"/>
+        <v>NA</v>
+      </c>
+      <c r="AT11" t="s">
+        <v>32</v>
+      </c>
+      <c r="AU11" s="55">
+        <f t="shared" si="4"/>
+        <v>1.4839312546451142E-6</v>
+      </c>
+      <c r="AV11" s="56">
+        <f t="shared" si="5"/>
+        <v>66.676859526668281</v>
+      </c>
+      <c r="AW11" s="13">
+        <v>9.5</v>
+      </c>
+      <c r="AX11" s="13">
+        <f t="shared" si="6"/>
+        <v>1818.7478935719314</v>
+      </c>
+      <c r="AY11" s="13">
+        <f t="shared" si="7"/>
+        <v>18187.478935719311</v>
+      </c>
+      <c r="AZ11" s="13">
+        <v>0</v>
+      </c>
+      <c r="BA11" s="68">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="BB11" s="7"/>
+      <c r="BC11" s="8" t="e">
+        <f t="shared" si="19"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="BD11" s="7" t="e">
+        <f t="shared" si="9"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="BE11" s="8" t="e">
+        <f t="shared" si="20"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="BF11" s="8">
+        <f t="shared" si="10"/>
+        <v>4.944924965130653E-7</v>
+      </c>
+      <c r="BG11" s="7"/>
+      <c r="BH11" s="7">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:60" x14ac:dyDescent="0.25">
+      <c r="A12" s="97"/>
+      <c r="B12">
+        <v>1</v>
+      </c>
+      <c r="C12" t="s">
+        <v>30</v>
+      </c>
+      <c r="D12">
+        <v>10</v>
+      </c>
+      <c r="E12">
+        <f>(10-D12)*$E$2</f>
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12" t="s">
+        <v>31</v>
+      </c>
+      <c r="I12" t="s">
+        <v>33</v>
+      </c>
+      <c r="J12">
+        <f t="shared" si="21"/>
+        <v>2.894E-2</v>
+      </c>
+      <c r="K12" s="36">
+        <f t="shared" si="13"/>
+        <v>2.894E-2</v>
+      </c>
+      <c r="L12" s="91">
+        <v>4.9359999623829953E-5</v>
+      </c>
+      <c r="M12" s="36">
+        <v>0</v>
+      </c>
+      <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+      <c r="T12" t="s">
+        <v>32</v>
+      </c>
+      <c r="U12" t="s">
+        <v>32</v>
+      </c>
+      <c r="V12" t="s">
+        <v>32</v>
+      </c>
+      <c r="W12" s="1">
+        <f t="shared" si="14"/>
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="X12" t="s">
+        <v>32</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>32</v>
+      </c>
+      <c r="Z12" t="s">
+        <v>32</v>
+      </c>
+      <c r="AA12" t="s">
+        <v>33</v>
+      </c>
+      <c r="AB12" t="s">
+        <v>32</v>
+      </c>
+      <c r="AC12" t="s">
+        <v>32</v>
+      </c>
+      <c r="AD12" t="s">
+        <v>33</v>
+      </c>
+      <c r="AE12" s="1">
+        <f t="shared" si="0"/>
+        <v>1.2664631346800649E-3</v>
+      </c>
+      <c r="AF12" s="1">
+        <f t="shared" si="1"/>
+        <v>5.2209882259013124E-4</v>
+      </c>
+      <c r="AG12" s="24">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AH12" s="26">
+        <f t="shared" si="3"/>
+        <v>5.2209882259013117E-3</v>
+      </c>
+      <c r="AI12" s="1">
+        <f t="shared" si="22"/>
+        <v>2.8706497719414803E-7</v>
+      </c>
+      <c r="AJ12" s="1">
+        <v>0</v>
+      </c>
+      <c r="AK12">
+        <f t="shared" si="15"/>
+        <v>2.8706497719414803E-7</v>
+      </c>
+      <c r="AL12">
+        <f t="shared" si="16"/>
+        <v>1.4353248859707402E-9</v>
+      </c>
+      <c r="AM12">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="AN12">
+        <f t="shared" si="17"/>
+        <v>1.4353248859707402E-9</v>
+      </c>
+      <c r="AO12" t="s">
+        <v>32</v>
+      </c>
+      <c r="AP12" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AQ12" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AR12" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AS12" s="1" t="str">
+        <f t="shared" si="18"/>
+        <v>NA</v>
+      </c>
+      <c r="AT12" t="s">
+        <v>32</v>
+      </c>
+      <c r="AU12" s="58">
+        <f t="shared" si="4"/>
+        <v>8.6145835331422058E-7</v>
+      </c>
+      <c r="AV12" s="57">
+        <f t="shared" si="5"/>
+        <v>66.676859526668281</v>
+      </c>
+      <c r="AW12" s="14">
+        <v>9.5</v>
+      </c>
+      <c r="AX12" s="13">
+        <f t="shared" si="6"/>
+        <v>1818.7478935719314</v>
+      </c>
+      <c r="AY12" s="14">
+        <f t="shared" si="7"/>
+        <v>18187.478935719311</v>
+      </c>
+      <c r="AZ12" s="14">
+        <v>0</v>
+      </c>
+      <c r="BA12" s="68">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="BB12" s="7"/>
+      <c r="BC12" s="8" t="e">
+        <f t="shared" si="19"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="BD12" s="7" t="e">
+        <f t="shared" si="9"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="BE12" s="8" t="e">
+        <f t="shared" si="20"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="BF12" s="8">
+        <f t="shared" si="10"/>
+        <v>2.8706497719414803E-7</v>
+      </c>
+      <c r="BG12" s="7"/>
+      <c r="BH12" s="7">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:60" x14ac:dyDescent="0.25">
+      <c r="A13" s="4"/>
+      <c r="X13" s="1"/>
+      <c r="Y13" s="1"/>
+      <c r="Z13" s="1"/>
+      <c r="AA13" s="1"/>
+      <c r="AB13" s="1"/>
+      <c r="AC13" s="1"/>
+      <c r="AD13" s="1"/>
+      <c r="AE13" s="1"/>
+      <c r="AF13" s="1"/>
+    </row>
+    <row r="14" spans="1:60" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="97" t="s">
+        <v>71</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="F14" s="35" t="s">
+        <v>35</v>
+      </c>
+      <c r="G14" s="35" t="s">
+        <v>119</v>
+      </c>
+      <c r="H14" s="35" t="s">
+        <v>36</v>
+      </c>
+      <c r="I14" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="J14" s="35" t="s">
+        <v>37</v>
+      </c>
+      <c r="K14" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="L14" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="M14" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="N14" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="O14" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="P14" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q14" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="R14" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="S14" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="T14" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="U14" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="V14" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="W14" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="X14" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA14" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="AB14" s="3"/>
+      <c r="AC14" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="AD14" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="AE14" s="12" t="s">
+        <v>107</v>
+      </c>
+      <c r="AF14" s="3"/>
+      <c r="AG14" s="3"/>
+      <c r="AU14" s="22"/>
+      <c r="AV14" s="64" t="s">
+        <v>21</v>
+      </c>
+      <c r="AW14" s="64" t="s">
+        <v>117</v>
+      </c>
+      <c r="AX14" s="65" t="s">
+        <v>99</v>
+      </c>
+      <c r="AY14" s="37"/>
+      <c r="AZ14" s="37"/>
+    </row>
+    <row r="15" spans="1:60" x14ac:dyDescent="0.25">
+      <c r="A15" s="97"/>
+      <c r="B15">
+        <v>1</v>
+      </c>
+      <c r="C15" t="s">
+        <v>30</v>
+      </c>
+      <c r="D15">
+        <v>1</v>
+      </c>
+      <c r="E15" t="s">
+        <v>38</v>
+      </c>
+      <c r="F15" s="36" t="s">
+        <v>39</v>
+      </c>
+      <c r="G15" s="36">
+        <f>G16</f>
+        <v>240</v>
+      </c>
+      <c r="H15" s="36">
+        <v>8.2000000000000003E-2</v>
+      </c>
+      <c r="I15" s="108">
+        <f>INPUTS!I15*(100+J2)/100</f>
+        <v>3.1590000000000003E-3</v>
+      </c>
+      <c r="J15" s="36" t="s">
+        <v>33</v>
+      </c>
+      <c r="K15">
+        <f>Q15*$U$15</f>
+        <v>4.1019300000000002E-3</v>
+      </c>
+      <c r="L15">
+        <f>K15*0.005</f>
+        <v>2.0509650000000001E-5</v>
+      </c>
+      <c r="M15">
+        <f>K15*$W15</f>
+        <v>1.6239747221660625</v>
+      </c>
+      <c r="N15">
+        <f>K15*$X15</f>
+        <v>16.239747221660625</v>
+      </c>
+      <c r="O15">
+        <f>AA15*$K15</f>
+        <v>0</v>
+      </c>
+      <c r="P15" s="1">
+        <f t="shared" ref="P15:P20" si="23">K15*$AB$16</f>
+        <v>18.09675</v>
+      </c>
+      <c r="Q15">
+        <v>1.9532999999999999E-4</v>
+      </c>
+      <c r="R15" s="1">
+        <f>K15*$AC15</f>
+        <v>0.23381001000000001</v>
+      </c>
+      <c r="S15">
+        <v>4250</v>
+      </c>
+      <c r="T15">
+        <v>0</v>
+      </c>
+      <c r="U15" s="13">
+        <v>21</v>
+      </c>
+      <c r="V15" s="13">
+        <v>4.3</v>
+      </c>
+      <c r="W15" s="13">
+        <f t="shared" ref="W15:W20" si="24">(($V15/100)*(1+$AB$16*$E$31)-$Y$16)/(((1+1/$X$23)*(14*10^(-6)))-(($J$31/$X$23+$F$31)*$V15/100))</f>
+        <v>395.90503059926971</v>
+      </c>
+      <c r="X15" s="13">
+        <f>$W15/$X$23</f>
+        <v>3959.0503059926968</v>
+      </c>
+      <c r="Y15" s="64" t="s">
+        <v>43</v>
+      </c>
+      <c r="Z15" s="64" t="s">
+        <v>27</v>
+      </c>
+      <c r="AA15" s="73">
+        <f t="shared" ref="AA15:AA20" si="25">IF(F15="HiddenElement",$AA$22/100/(1-$X$33)*$X$32*10^6/$X$30,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AB15" s="72" t="s">
+        <v>21</v>
+      </c>
+      <c r="AC15" s="13">
+        <f>ROUND(X15/$AY$6*120,0)</f>
+        <v>57</v>
+      </c>
+      <c r="AD15" s="13">
+        <f>K15+M15*$F$31+N15*$J$31+P15*$E$31</f>
+        <v>6.293064121245898E-3</v>
+      </c>
+      <c r="AE15" s="56">
+        <f>(1-K15/AD15)*100</f>
+        <v>34.818239239744116</v>
+      </c>
+      <c r="AF15" s="1"/>
+      <c r="AU15" s="66"/>
+      <c r="AV15" s="68">
+        <f>$AV$16/100/(1-$X$33)*$X$32*10^6/$X$30</f>
+        <v>4411.7647058823532</v>
+      </c>
+      <c r="AW15" s="68">
+        <f>$AW$16/100/(1-$X$33)*$X$32*10^6/$X$30</f>
+        <v>4411.7647058823532</v>
+      </c>
+      <c r="AX15" s="69">
+        <f>AW15+AV15</f>
+        <v>8823.5294117647063</v>
+      </c>
+      <c r="AY15" s="78"/>
+      <c r="AZ15" s="78"/>
+    </row>
+    <row r="16" spans="1:60" x14ac:dyDescent="0.25">
+      <c r="A16" s="97"/>
+      <c r="B16">
+        <v>1</v>
+      </c>
+      <c r="C16" t="s">
+        <v>30</v>
+      </c>
+      <c r="D16">
+        <v>1</v>
+      </c>
+      <c r="E16" t="s">
+        <v>40</v>
+      </c>
+      <c r="F16" s="36" t="s">
+        <v>41</v>
+      </c>
+      <c r="G16" s="36">
+        <f>80+G17</f>
+        <v>240</v>
+      </c>
+      <c r="H16" s="36">
+        <v>2.8500000000000001E-2</v>
+      </c>
+      <c r="I16" s="109"/>
+      <c r="J16" s="36" t="s">
+        <v>33</v>
+      </c>
+      <c r="K16">
+        <f>H16*$U$16</f>
+        <v>1.7099999999999999E-3</v>
+      </c>
+      <c r="L16">
+        <f t="shared" ref="L16:L20" si="26">K16*0.005</f>
+        <v>8.5499999999999995E-6</v>
+      </c>
+      <c r="M16">
+        <f>K16*$W16</f>
+        <v>0.19277131424832977</v>
+      </c>
+      <c r="N16">
+        <f>K16*$X16</f>
+        <v>1.9277131424832974</v>
+      </c>
+      <c r="O16">
+        <f>AA16*$K16</f>
+        <v>0</v>
+      </c>
+      <c r="P16" s="1">
+        <f t="shared" si="23"/>
+        <v>7.5441176470588234</v>
+      </c>
+      <c r="Q16">
+        <v>2.6861000000000002E-4</v>
+      </c>
+      <c r="R16" s="1">
+        <f>K16*$AC16</f>
+        <v>2.7359999999999999E-2</v>
+      </c>
+      <c r="S16">
+        <f>X16</f>
+        <v>1127.3176271832149</v>
+      </c>
+      <c r="T16">
+        <v>0</v>
+      </c>
+      <c r="U16" s="13">
+        <v>0.06</v>
+      </c>
+      <c r="V16" s="13">
+        <v>1.8</v>
+      </c>
+      <c r="W16" s="13">
+        <f t="shared" si="24"/>
+        <v>112.73176271832151</v>
+      </c>
+      <c r="X16" s="13">
+        <f>$W16/$X$23</f>
+        <v>1127.3176271832149</v>
+      </c>
+      <c r="Y16" s="16">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="Z16" s="16">
+        <v>1</v>
+      </c>
+      <c r="AA16" s="73">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="AB16" s="42">
+        <f>$AB$17/100/(1-$X$33)*$X$32*10^6/$X$30</f>
+        <v>4411.7647058823532</v>
+      </c>
+      <c r="AC16" s="13">
+        <f t="shared" ref="AC16:AC20" si="27">ROUND(X16/$AY$6*120,0)</f>
+        <v>16</v>
+      </c>
+      <c r="AD16" s="13">
+        <f>K16+M16*$F$31+N16*$J$31+P16*$E$31</f>
+        <v>2.1242656885690431E-3</v>
+      </c>
+      <c r="AE16" s="56">
+        <f>(1-K16/AD16)*100</f>
+        <v>19.501594871030591</v>
+      </c>
+      <c r="AF16" s="1"/>
+      <c r="AU16" s="67" t="s">
+        <v>118</v>
+      </c>
+      <c r="AV16" s="70">
+        <v>10</v>
+      </c>
+      <c r="AW16" s="70">
+        <v>10</v>
+      </c>
+      <c r="AX16" s="71">
+        <f>AW16+AV16</f>
+        <v>20</v>
+      </c>
+      <c r="AY16" s="79"/>
+      <c r="AZ16" s="79"/>
+    </row>
+    <row r="17" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="A17" s="97"/>
+      <c r="B17">
+        <v>1</v>
+      </c>
+      <c r="C17" t="s">
+        <v>30</v>
+      </c>
+      <c r="D17">
+        <v>2</v>
+      </c>
+      <c r="E17" t="s">
+        <v>38</v>
+      </c>
+      <c r="F17" s="36" t="s">
+        <v>39</v>
+      </c>
+      <c r="G17" s="36">
+        <f>G19</f>
+        <v>160</v>
+      </c>
+      <c r="H17" s="36">
+        <v>9.1999999999999998E-2</v>
+      </c>
+      <c r="I17" s="108">
+        <f>INPUTS!I17*(100+K2)/100</f>
+        <v>3.5772000000000004E-3</v>
+      </c>
+      <c r="J17" s="36" t="s">
+        <v>33</v>
+      </c>
+      <c r="K17">
+        <f>Q17*$U$17</f>
+        <v>5.0624699999999995E-3</v>
+      </c>
+      <c r="L17">
+        <f t="shared" si="26"/>
+        <v>2.5312349999999998E-5</v>
+      </c>
+      <c r="M17">
+        <f>K17*$W17</f>
+        <v>2.3758024102824513</v>
+      </c>
+      <c r="N17">
+        <f>K17*$X17</f>
+        <v>23.758024102824514</v>
+      </c>
+      <c r="O17">
+        <f>AA17*$K17</f>
+        <v>0</v>
+      </c>
+      <c r="P17" s="1">
+        <f t="shared" si="23"/>
+        <v>22.334426470588234</v>
+      </c>
+      <c r="Q17">
+        <v>2.4106999999999999E-4</v>
+      </c>
+      <c r="R17" s="1">
+        <f>K17*$AC17</f>
+        <v>0.34424795999999996</v>
+      </c>
+      <c r="S17">
+        <v>4250</v>
+      </c>
+      <c r="T17">
+        <v>0</v>
+      </c>
+      <c r="U17" s="13">
+        <v>21</v>
+      </c>
+      <c r="V17" s="13">
+        <v>4.8</v>
+      </c>
+      <c r="W17" s="13">
+        <f t="shared" si="24"/>
+        <v>469.29708428542818</v>
+      </c>
+      <c r="X17" s="13">
+        <f t="shared" ref="X17:X20" si="28">$W17/$X$23</f>
+        <v>4692.9708428542817</v>
+      </c>
+      <c r="Z17" s="24"/>
+      <c r="AA17" s="73">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="AB17" s="39">
+        <v>10</v>
+      </c>
+      <c r="AC17" s="13">
+        <f t="shared" si="27"/>
+        <v>68</v>
+      </c>
+      <c r="AD17" s="13">
+        <f>K17+M17*$F$31+N17*$J$31+P17*$E$31</f>
+        <v>8.1497066913228666E-3</v>
+      </c>
+      <c r="AE17" s="56">
+        <f>(1-K17/AD17)*100</f>
+        <v>37.88156811348685</v>
+      </c>
+      <c r="AF17" s="1"/>
+      <c r="AG17" s="1"/>
+    </row>
+    <row r="18" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="A18" s="97"/>
+      <c r="B18">
+        <v>1</v>
+      </c>
+      <c r="C18" t="s">
+        <v>30</v>
+      </c>
+      <c r="D18">
+        <v>2</v>
+      </c>
+      <c r="E18" t="s">
+        <v>40</v>
+      </c>
+      <c r="F18" s="36" t="s">
+        <v>42</v>
+      </c>
+      <c r="G18" s="36">
+        <f>G19</f>
+        <v>160</v>
+      </c>
+      <c r="H18" s="36">
+        <v>2.8500000000000001E-2</v>
+      </c>
+      <c r="I18" s="109"/>
+      <c r="J18" s="36" t="s">
+        <v>33</v>
+      </c>
+      <c r="K18">
+        <f>H18*$U$18</f>
+        <v>2.2800000000000003E-3</v>
+      </c>
+      <c r="L18">
+        <f t="shared" si="26"/>
+        <v>1.1400000000000003E-5</v>
+      </c>
+      <c r="M18">
+        <f>K18*$W18</f>
+        <v>0.36572238936056839</v>
+      </c>
+      <c r="N18">
+        <f>K18*$X18</f>
+        <v>3.6572238936056838</v>
+      </c>
+      <c r="O18">
+        <f>AA18*$K18</f>
+        <v>3.0176470588235293</v>
+      </c>
+      <c r="P18" s="1">
+        <f t="shared" si="23"/>
+        <v>10.058823529411766</v>
+      </c>
+      <c r="Q18">
+        <v>2.4800000000000001E-4</v>
+      </c>
+      <c r="R18" s="1">
+        <f>K18*$AC18</f>
+        <v>5.2440000000000007E-2</v>
+      </c>
+      <c r="S18">
+        <f>X18</f>
+        <v>1604.0455673709137</v>
+      </c>
+      <c r="T18">
+        <v>0</v>
+      </c>
+      <c r="U18" s="13">
+        <v>0.08</v>
+      </c>
+      <c r="V18" s="13">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="W18" s="13">
+        <f t="shared" si="24"/>
+        <v>160.40455673709138</v>
+      </c>
+      <c r="X18" s="13">
+        <f t="shared" si="28"/>
+        <v>1604.0455673709137</v>
+      </c>
+      <c r="AA18" s="73">
+        <f>IF(F18="HiddenElement",$AA$22/100/(1-$X$33)*$X$32*10^6/$X$30,0)</f>
+        <v>1323.5294117647056</v>
+      </c>
+      <c r="AB18" s="40" t="s">
+        <v>104</v>
+      </c>
+      <c r="AC18" s="13">
+        <f t="shared" si="27"/>
+        <v>23</v>
+      </c>
+      <c r="AD18" s="13">
+        <f>K18+M18*$F$31+N18*$J$31+P18*$E$31</f>
+        <v>2.9444020852838065E-3</v>
+      </c>
+      <c r="AE18" s="56">
+        <f>(1-K18/AD18)*100</f>
+        <v>22.564923744773314</v>
+      </c>
+      <c r="AF18" s="1"/>
+      <c r="AG18" s="1"/>
+    </row>
+    <row r="19" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="A19" s="97"/>
+      <c r="B19">
+        <v>1</v>
+      </c>
+      <c r="C19" t="s">
+        <v>30</v>
+      </c>
+      <c r="D19">
+        <v>2</v>
+      </c>
+      <c r="E19" t="s">
+        <v>40</v>
+      </c>
+      <c r="F19" s="36" t="s">
+        <v>41</v>
+      </c>
+      <c r="G19" s="36">
+        <f>80+G20</f>
+        <v>160</v>
+      </c>
+      <c r="H19" s="36">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="I19" s="109"/>
+      <c r="J19" s="36" t="s">
+        <v>33</v>
+      </c>
+      <c r="K19">
+        <f>H19*$U$19</f>
+        <v>4.0000000000000003E-5</v>
+      </c>
+      <c r="L19">
+        <f t="shared" si="26"/>
+        <v>2.0000000000000002E-7</v>
+      </c>
+      <c r="M19">
+        <f>K19*$W19</f>
+        <v>6.4161822694836562E-3</v>
+      </c>
+      <c r="N19">
+        <f>K19*$X19</f>
+        <v>6.4161822694836557E-2</v>
+      </c>
+      <c r="O19">
+        <f>AA19*$K19</f>
+        <v>0</v>
+      </c>
+      <c r="P19" s="1">
+        <f t="shared" si="23"/>
+        <v>0.17647058823529413</v>
+      </c>
+      <c r="Q19">
+        <v>4.7099999999999998E-6</v>
+      </c>
+      <c r="R19" s="1">
+        <f>K19*$AC19</f>
+        <v>9.2000000000000003E-4</v>
+      </c>
+      <c r="S19">
+        <f>X19</f>
+        <v>1604.0455673709137</v>
+      </c>
+      <c r="T19">
+        <v>0</v>
+      </c>
+      <c r="U19" s="13">
+        <v>0.08</v>
+      </c>
+      <c r="V19" s="13">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="W19" s="13">
+        <f t="shared" si="24"/>
+        <v>160.40455673709138</v>
+      </c>
+      <c r="X19" s="13">
+        <f t="shared" si="28"/>
+        <v>1604.0455673709137</v>
+      </c>
+      <c r="AA19" s="73">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="AB19" s="1"/>
+      <c r="AC19" s="13">
+        <f t="shared" si="27"/>
+        <v>23</v>
+      </c>
+      <c r="AD19" s="13">
+        <f>K19+M19*$F$31+N19*$J$31+P19*$E$31</f>
+        <v>5.1656176934803615E-5</v>
+      </c>
+      <c r="AE19" s="56">
+        <f>(1-K19/AD19)*100</f>
+        <v>22.564923744773303</v>
+      </c>
+      <c r="BA19" s="96" t="s">
+        <v>57</v>
+      </c>
+      <c r="BB19" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="BC19" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="A20" s="97"/>
+      <c r="B20">
+        <v>1</v>
+      </c>
+      <c r="C20" t="s">
+        <v>30</v>
+      </c>
+      <c r="D20">
+        <v>3</v>
+      </c>
+      <c r="E20" t="s">
+        <v>38</v>
+      </c>
+      <c r="F20" s="36" t="s">
+        <v>39</v>
+      </c>
+      <c r="G20" s="34">
+        <v>80</v>
+      </c>
+      <c r="H20" s="36">
+        <v>6.0421565000000003E-2</v>
+      </c>
+      <c r="I20" s="108">
+        <f>INPUTS!I20*(100+L2)/100</f>
+        <v>4.4600000000000004E-3</v>
+      </c>
+      <c r="J20" s="36" t="s">
+        <v>31</v>
+      </c>
+      <c r="K20">
+        <f>Q20*$U$20</f>
+        <v>4.0322099999999996E-3</v>
+      </c>
+      <c r="L20">
+        <f t="shared" si="26"/>
+        <v>2.0161049999999999E-5</v>
+      </c>
+      <c r="M20">
+        <f>K20*$W20</f>
+        <v>2.0843008232103681</v>
+      </c>
+      <c r="N20">
+        <f>K20*$X20</f>
+        <v>20.843008232103678</v>
+      </c>
+      <c r="O20">
+        <f>AA20*$K20</f>
+        <v>0</v>
+      </c>
+      <c r="P20" s="1">
+        <f t="shared" si="23"/>
+        <v>17.789161764705881</v>
+      </c>
+      <c r="Q20">
+        <v>1.9201E-4</v>
+      </c>
+      <c r="R20" s="1">
+        <f>K20*$AC20</f>
+        <v>0.30241574999999998</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+      <c r="T20">
+        <v>0</v>
+      </c>
+      <c r="U20" s="14">
+        <v>21</v>
+      </c>
+      <c r="V20" s="14">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="W20" s="14">
+        <f t="shared" si="24"/>
+        <v>516.91276575633913</v>
+      </c>
+      <c r="X20" s="14">
+        <f t="shared" si="28"/>
+        <v>5169.127657563391</v>
+      </c>
+      <c r="AA20" s="74">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="AC20" s="14">
+        <f t="shared" si="27"/>
+        <v>75</v>
+      </c>
+      <c r="AD20" s="14">
+        <f>K20+M20*$F$31+N20*$J$31+P20*$E$31</f>
+        <v>6.689085819105817E-3</v>
+      </c>
+      <c r="AE20" s="57">
+        <f>(1-K20/AD20)*100</f>
+        <v>39.719565437732463</v>
+      </c>
+      <c r="BA20" s="96"/>
+      <c r="BB20" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="BC20" s="7">
+        <v>0.106</v>
+      </c>
+    </row>
+    <row r="21" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="A21" s="2"/>
+      <c r="V21" s="75"/>
+      <c r="W21" s="15"/>
+      <c r="X21" s="45"/>
+      <c r="Z21" s="1"/>
+      <c r="AN21" s="96"/>
+      <c r="AO21" s="96"/>
+      <c r="AP21" s="96"/>
+      <c r="AQ21" s="96"/>
+      <c r="AR21" s="96"/>
+      <c r="AS21" s="96"/>
+      <c r="AT21" s="96"/>
+      <c r="AU21" s="96"/>
+      <c r="AV21" s="96"/>
+      <c r="AW21" s="96"/>
+      <c r="AX21" s="96"/>
+      <c r="AY21" s="96"/>
+      <c r="AZ21" s="96"/>
+      <c r="BA21" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="BB21" s="7">
+        <v>1.28</v>
+      </c>
+    </row>
+    <row r="22" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="A22" s="2"/>
+      <c r="V22" s="27"/>
+      <c r="W22" s="76"/>
+      <c r="X22" s="17" t="s">
+        <v>80</v>
+      </c>
+      <c r="Y22" s="33" t="s">
+        <v>81</v>
+      </c>
+      <c r="AA22" s="39">
+        <v>3</v>
+      </c>
+      <c r="AN22" s="96"/>
+      <c r="AO22" s="96"/>
+      <c r="AP22" s="96"/>
+      <c r="AQ22" s="96"/>
+      <c r="AR22" s="96"/>
+      <c r="AS22" s="96"/>
+      <c r="AT22" s="96"/>
+      <c r="AU22" s="96"/>
+      <c r="AV22" s="96"/>
+      <c r="AW22" s="96"/>
+      <c r="AX22" s="96"/>
+      <c r="AY22" s="96"/>
+      <c r="AZ22" s="96"/>
+      <c r="BA22" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="BB22" s="7">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="23" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="A23" s="2"/>
+      <c r="X23" s="14">
+        <v>0.1</v>
+      </c>
+      <c r="Y23" s="59">
+        <f>(SUMPRODUCT(V15:V20,AD15:AD20)+SUMPRODUCT(AW5:AW12,AU5:AU12))/SUM(AD15:AD20,AU5:AU12)</f>
+        <v>4.4061871887392909</v>
+      </c>
+      <c r="AA23" s="40" t="s">
+        <v>104</v>
+      </c>
+      <c r="AN23" s="96"/>
+      <c r="AO23" s="96"/>
+      <c r="AP23" s="96"/>
+      <c r="AQ23" s="96"/>
+      <c r="AR23" s="96"/>
+      <c r="AS23" s="96"/>
+      <c r="AT23" s="96"/>
+      <c r="AU23" s="96"/>
+      <c r="AV23" s="96"/>
+      <c r="AW23" s="96"/>
+      <c r="AX23" s="96"/>
+      <c r="AY23" s="96"/>
+      <c r="AZ23" s="96"/>
+      <c r="BA23" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="BB23" s="7">
+        <f>210*3600*24/12</f>
+        <v>1512000</v>
+      </c>
+    </row>
+    <row r="24" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="A24" s="2"/>
+      <c r="F24" s="1"/>
+      <c r="G24" s="1"/>
+      <c r="AN24" s="7"/>
+      <c r="AO24" s="7"/>
+      <c r="AP24" s="7"/>
+      <c r="AQ24" s="7"/>
+      <c r="AR24" s="7"/>
+      <c r="AS24" s="7"/>
+      <c r="AT24" s="7"/>
+      <c r="AU24" s="7"/>
+      <c r="AV24" s="7"/>
+      <c r="AW24" s="7"/>
+      <c r="AX24" s="7"/>
+      <c r="AY24" s="7"/>
+      <c r="AZ24" s="7"/>
+      <c r="BA24" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="BB24" s="7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="A25" s="97" t="s">
+        <v>72</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="E25" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F25" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="G25" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="H25" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="I25" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="J25" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="K25" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="L25" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="M25" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="AM25" s="9"/>
+      <c r="AN25" s="9"/>
+      <c r="AO25" s="9"/>
+      <c r="AP25" s="9"/>
+      <c r="AQ25" s="9"/>
+      <c r="AR25" s="9"/>
+      <c r="AS25" s="9"/>
+      <c r="AT25" s="9"/>
+      <c r="AU25" s="9"/>
+      <c r="AV25" s="9"/>
+      <c r="AW25" s="9"/>
+      <c r="AX25" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="AY25" s="7"/>
+      <c r="AZ25" s="7"/>
+      <c r="BA25" s="7">
+        <f>1/59</f>
+        <v>1.6949152542372881E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="A26" s="97"/>
+      <c r="B26">
+        <v>1</v>
+      </c>
+      <c r="C26" t="s">
+        <v>30</v>
+      </c>
+      <c r="D26" t="s">
+        <v>67</v>
+      </c>
+      <c r="E26" s="24">
+        <v>0</v>
+      </c>
+      <c r="F26" s="24">
+        <v>0</v>
+      </c>
+      <c r="G26" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="H26" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="I26" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="J26" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="K26" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="L26" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="M26" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="AM26" s="10"/>
+      <c r="AN26" s="10"/>
+      <c r="AO26" s="10"/>
+      <c r="AP26" s="10"/>
+      <c r="AQ26" s="10"/>
+      <c r="AR26" s="10"/>
+      <c r="AS26" s="10"/>
+      <c r="AT26" s="10"/>
+      <c r="AU26" s="10"/>
+      <c r="AV26" s="10"/>
+      <c r="AW26" s="10"/>
+      <c r="AX26" s="7"/>
+      <c r="AY26" s="7"/>
+      <c r="AZ26" s="7"/>
+      <c r="BA26" s="7"/>
+    </row>
+    <row r="27" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="A27" s="97"/>
+      <c r="B27">
+        <v>1</v>
+      </c>
+      <c r="C27" t="s">
+        <v>30</v>
+      </c>
+      <c r="D27" t="s">
+        <v>68</v>
+      </c>
+      <c r="E27" s="24">
+        <f>E28*$K$27</f>
+        <v>149.40821075064164</v>
+      </c>
+      <c r="F27" s="24">
+        <f>F28*$K$27</f>
+        <v>2.0336023403363006</v>
+      </c>
+      <c r="G27" s="24">
+        <f>G28*$K$27</f>
+        <v>20.336023403363001</v>
+      </c>
+      <c r="H27" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="I27" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="J27" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="K27" s="1">
+        <f>$P$33/$O$28/(1+$E$28*$E$31+$F$28*$F$31+$G$28*$G$31)</f>
+        <v>3.3865861103478771E-2</v>
+      </c>
+      <c r="L27" s="24">
+        <f>K27*$Y$16</f>
+        <v>1.6932930551739387E-4</v>
+      </c>
+      <c r="M27" s="24">
+        <f>M28*$K$27</f>
+        <v>8.4664652758696928</v>
+      </c>
+      <c r="N27" s="61" t="s">
+        <v>112</v>
+      </c>
+      <c r="O27" s="17" t="s">
+        <v>69</v>
+      </c>
+      <c r="P27" s="17" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q27" s="17" t="s">
+        <v>82</v>
+      </c>
+      <c r="R27" s="98" t="s">
+        <v>46</v>
+      </c>
+      <c r="S27" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="T27" s="8">
+        <v>2.6499999999999999E-8</v>
+      </c>
+      <c r="AM27" s="10"/>
+      <c r="AN27" s="10"/>
+      <c r="AO27" s="10"/>
+      <c r="AP27" s="10"/>
+      <c r="AQ27" s="10"/>
+      <c r="AR27" s="10"/>
+      <c r="AS27" s="10"/>
+      <c r="AT27" s="10"/>
+      <c r="AU27" s="10"/>
+      <c r="AV27" s="10"/>
+      <c r="AW27" s="10"/>
+      <c r="AX27" s="7"/>
+      <c r="AY27" s="7"/>
+      <c r="AZ27" s="7"/>
+      <c r="BA27" s="7"/>
+    </row>
+    <row r="28" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="E28" s="43">
+        <f>AB16</f>
+        <v>4411.7647058823532</v>
+      </c>
+      <c r="F28" s="44">
+        <f>(($Q$28/100)*(1+$E$28*$E$31)-$Y$16)/((1+1/$P$28)*(14*10^-6-$J$31*$Q$28/100))</f>
+        <v>60.04874153716424</v>
+      </c>
+      <c r="G28" s="44">
+        <f>F28/$P$28</f>
+        <v>600.48741537164233</v>
+      </c>
+      <c r="H28" s="18"/>
+      <c r="I28" s="18"/>
+      <c r="J28" s="18"/>
+      <c r="K28" s="18"/>
+      <c r="L28" s="18"/>
+      <c r="M28" s="19">
+        <v>250</v>
+      </c>
+      <c r="N28" s="62">
+        <f>SUM(AK5:AK12,K15:K20)/K27</f>
+        <v>0.59356706071351761</v>
+      </c>
+      <c r="O28" s="14">
+        <v>0.8</v>
+      </c>
+      <c r="P28" s="14">
+        <v>0.1</v>
+      </c>
+      <c r="Q28" s="14">
+        <v>1.2</v>
+      </c>
+      <c r="R28" s="98"/>
+      <c r="S28" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="T28" s="7">
+        <v>0.106</v>
+      </c>
+      <c r="AM28" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="AN28" s="10"/>
+      <c r="AO28" s="10"/>
+      <c r="AP28" s="10"/>
+      <c r="AQ28" s="10"/>
+      <c r="AR28" s="10"/>
+      <c r="AS28" s="10"/>
+      <c r="AT28" s="10"/>
+      <c r="AU28" s="10"/>
+      <c r="AV28" s="10"/>
+      <c r="AW28" s="10"/>
+      <c r="AX28" s="7"/>
+      <c r="AY28" s="7"/>
+      <c r="AZ28" s="7"/>
+      <c r="BA28" s="7"/>
+    </row>
+    <row r="29" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="F29" s="1"/>
+      <c r="R29" s="98"/>
+      <c r="S29" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="T29" s="7">
+        <v>1.28</v>
+      </c>
+      <c r="W29" s="37" t="s">
+        <v>103</v>
+      </c>
+      <c r="X29" s="38">
+        <v>180</v>
+      </c>
+      <c r="AM29" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="AN29" s="11"/>
+      <c r="AO29" s="11"/>
+      <c r="AP29" s="11"/>
+      <c r="AQ29" s="11"/>
+      <c r="AR29" s="11"/>
+      <c r="AS29" s="11"/>
+      <c r="AT29" s="11"/>
+      <c r="AU29" s="11"/>
+      <c r="AV29" s="11"/>
+      <c r="AW29" s="11"/>
+      <c r="AX29" s="7"/>
+      <c r="AY29" s="7"/>
+      <c r="AZ29" s="7"/>
+      <c r="BA29" s="7"/>
+    </row>
+    <row r="30" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="D30" s="23" t="s">
+        <v>78</v>
+      </c>
+      <c r="F30" s="1"/>
+      <c r="O30" s="28" t="s">
+        <v>116</v>
+      </c>
+      <c r="P30" s="54">
+        <f>K27+SUM(K15:K20)+SUM(AK5:AK12)</f>
+        <v>5.3967520737202901E-2</v>
+      </c>
+      <c r="R30" s="98"/>
+      <c r="S30" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="T30" s="7">
+        <v>0.8</v>
+      </c>
+      <c r="W30" s="37" t="s">
+        <v>100</v>
+      </c>
+      <c r="X30" s="38">
+        <v>340</v>
+      </c>
+      <c r="AM30" s="11"/>
+      <c r="AN30" s="11"/>
+      <c r="AO30" s="11"/>
+      <c r="AP30" s="11"/>
+      <c r="AQ30" s="11"/>
+      <c r="AR30" s="11"/>
+      <c r="AS30" s="11"/>
+      <c r="AT30" s="11"/>
+      <c r="AU30" s="11"/>
+      <c r="AV30" s="11"/>
+      <c r="AW30" s="11"/>
+      <c r="AX30" s="7"/>
+      <c r="AY30" s="7"/>
+      <c r="AZ30" s="7"/>
+      <c r="BA30" s="7"/>
+    </row>
+    <row r="31" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="D31" s="20" t="s">
+        <v>79</v>
+      </c>
+      <c r="E31" s="20">
+        <f xml:space="preserve"> (0.000001*12) / 0.42</f>
+        <v>2.8571428571428574E-5</v>
+      </c>
+      <c r="F31" s="21">
+        <f>( 0.000001*14) / 0.135</f>
+        <v>1.037037037037037E-4</v>
+      </c>
+      <c r="G31" s="21">
+        <f>62*10^-6</f>
+        <v>6.2000000000000003E-5</v>
+      </c>
+      <c r="J31" s="21">
+        <f>( 0.000001*14) / 0.151</f>
+        <v>9.2715231788079476E-5</v>
+      </c>
+      <c r="R31" s="98"/>
+      <c r="S31" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="T31" s="7">
+        <f>271*3600 * 24 /12</f>
+        <v>1951200</v>
+      </c>
+      <c r="W31" s="28" t="s">
+        <v>101</v>
+      </c>
+      <c r="X31" s="30">
+        <v>12</v>
+      </c>
+      <c r="AM31" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="AN31" s="10"/>
+      <c r="AO31" s="10"/>
+      <c r="AP31" s="10"/>
+      <c r="AQ31" s="10"/>
+      <c r="AR31" s="10"/>
+      <c r="AS31" s="10"/>
+      <c r="AT31" s="10"/>
+      <c r="AU31" s="10"/>
+      <c r="AV31" s="10"/>
+      <c r="AW31" s="10"/>
+      <c r="AX31" s="7"/>
+      <c r="AY31" s="7"/>
+      <c r="AZ31" s="7"/>
+      <c r="BA31" s="7"/>
+    </row>
+    <row r="32" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="D32" s="20" t="s">
+        <v>76</v>
+      </c>
+      <c r="E32" s="20">
+        <f>E26*E31</f>
+        <v>0</v>
+      </c>
+      <c r="F32" s="21">
+        <f>F26*F31</f>
+        <v>0</v>
+      </c>
+      <c r="G32" s="21"/>
+      <c r="O32" s="28" t="s">
+        <v>111</v>
+      </c>
+      <c r="P32" s="54">
+        <f>E26*E31+F26*F31</f>
+        <v>0</v>
+      </c>
+      <c r="R32" s="98"/>
+      <c r="S32" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="T32" s="7">
+        <v>1.557936E-2</v>
+      </c>
+      <c r="W32" s="28" t="s">
+        <v>102</v>
+      </c>
+      <c r="X32" s="30">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="33" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="O33" s="28" t="s">
+        <v>92</v>
+      </c>
+      <c r="P33" s="54">
+        <f t="array" ref="P33">SUM(K15:K20,AK5:AK12)+SUM(AF5:AF12*F31,M15:M20*F31)+SUM(AH5:AH12*J31,N15:N20*J31)+SUM(AE5:AE12*E31,P15:P20*E31)+SUM(O15:O20*E31,AG5:AG12*E31)</f>
+        <v>3.1685114136390059E-2</v>
+      </c>
+      <c r="W33" s="28" t="s">
+        <v>105</v>
+      </c>
+      <c r="X33" s="41">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="O34" s="28" t="s">
+        <v>93</v>
+      </c>
+      <c r="P34" s="29">
+        <f>K27+E27*E31+F27*F31+G27*G31</f>
+        <v>3.9606392670487579E-2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="99" t="s">
+        <v>132</v>
+      </c>
+      <c r="B35" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C35" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D35" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="E35" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="F35" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="G35" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="H35" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="I35" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="J35" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="K35" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="L35" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="M35" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="O35" s="28" t="s">
+        <v>108</v>
+      </c>
+      <c r="P35" s="29">
+        <f>P34+P33+P32</f>
+        <v>7.1291506806877639E-2</v>
+      </c>
+      <c r="Q35" s="25"/>
+    </row>
+    <row r="36" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A36" s="99"/>
+      <c r="B36">
+        <v>1</v>
+      </c>
+      <c r="C36" t="s">
+        <v>30</v>
+      </c>
+      <c r="D36" t="s">
+        <v>131</v>
+      </c>
+      <c r="E36">
+        <v>10</v>
+      </c>
+      <c r="F36" t="s">
+        <v>33</v>
+      </c>
+      <c r="G36">
+        <v>0</v>
+      </c>
+      <c r="H36">
+        <v>1</v>
+      </c>
+      <c r="I36">
+        <v>20</v>
+      </c>
+      <c r="J36">
+        <v>3600</v>
+      </c>
+      <c r="K36">
+        <v>3600</v>
+      </c>
+      <c r="L36">
+        <v>0</v>
+      </c>
+      <c r="M36">
+        <v>0</v>
+      </c>
+      <c r="O36" s="30"/>
+      <c r="P36" s="31"/>
+      <c r="Q36" s="1"/>
+    </row>
+    <row r="37" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="O37" s="28" t="s">
+        <v>114</v>
+      </c>
+      <c r="P37" s="32">
+        <f>1-SUM($AK$5:$AK$12,$K$15:$K$20)/$P$33</f>
+        <v>0.36558033065004591</v>
+      </c>
+    </row>
+    <row r="38" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="O38" s="28" t="s">
+        <v>115</v>
+      </c>
+      <c r="P38" s="32">
+        <f>1-$K$27/$P$34</f>
+        <v>0.14493952061648685</v>
+      </c>
+    </row>
+    <row r="39" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="O39" s="28" t="s">
+        <v>94</v>
+      </c>
+      <c r="P39" s="32">
+        <f>1-SUM($AK$5:$AK$12,$K$15:$K$20)/($P$33+N28/(1+N28)*P32)</f>
+        <v>0.36558033065004591</v>
+      </c>
+    </row>
+    <row r="40" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="O40" s="28" t="s">
+        <v>95</v>
+      </c>
+      <c r="P40" s="32">
+        <f>1-$K$27/($P$34+1/(1+N28)*P32)</f>
+        <v>0.14493952061648685</v>
+      </c>
+    </row>
+    <row r="42" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="O42" s="28" t="s">
+        <v>110</v>
+      </c>
+      <c r="P42" s="60" t="e">
+        <f>(F26*14*10^-6)/(E26*E31+F26*F31)*100</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="43" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="O43" s="28" t="s">
+        <v>109</v>
+      </c>
+      <c r="P43" s="60" t="e">
+        <f>($Y$23*$P$33+$Q$28*$P$34+$P$32*$P$42)/$P$35</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="44" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="O44" s="28" t="s">
+        <v>113</v>
+      </c>
+      <c r="P44" s="60">
+        <f>($Y$23*$P$33+$Q$28*$P$34)/($P$33+$P$34)</f>
+        <v>2.6249720838841291</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="A4:A12"/>
+    <mergeCell ref="A14:A20"/>
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="R27:R32"/>
+    <mergeCell ref="A35:A36"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FF92D050"/>
+  </sheetPr>
+  <dimension ref="A1:BH44"/>
+  <sheetViews>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="I14" sqref="I14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="5" max="5" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12" customWidth="1"/>
+    <col min="23" max="23" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="12.85546875" customWidth="1"/>
+    <col min="35" max="35" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="21.7109375" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="12" bestFit="1" customWidth="1"/>
+    <col min="51" max="52" width="12" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:60" x14ac:dyDescent="0.25">
+      <c r="A1" s="46" t="s">
+        <v>96</v>
+      </c>
+      <c r="B1" s="47" t="s">
+        <v>97</v>
+      </c>
+      <c r="C1" s="48"/>
+      <c r="E1" s="52" t="s">
+        <v>120</v>
+      </c>
+      <c r="W1" s="81" t="s">
+        <v>136</v>
+      </c>
+      <c r="X1" s="82" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="2" spans="1:60" s="27" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="49" t="s">
+        <v>96</v>
+      </c>
+      <c r="B2" s="50" t="s">
+        <v>98</v>
+      </c>
+      <c r="C2" s="51"/>
+      <c r="E2" s="53">
+        <f xml:space="preserve"> 76.1/12*24*3600</f>
+        <v>547920</v>
+      </c>
+      <c r="L2" s="90" t="s">
+        <v>146</v>
+      </c>
+      <c r="W2" s="83">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="X2" s="83">
+        <v>9.9999999999999995E-7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:60" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="97" t="s">
+        <v>70</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="H4" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="I4" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="J4" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="K4" s="35" t="s">
+        <v>8</v>
+      </c>
+      <c r="L4" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="M4" s="35" t="s">
+        <v>10</v>
+      </c>
+      <c r="N4" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="O4" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="P4" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q4" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="R4" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="S4" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="T4" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="U4" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="V4" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="W4" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="X4" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="Y4" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="Z4" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="AA4" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="AB4" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="AC4" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="AD4" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="AE4" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="AF4" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="AG4" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="AH4" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="AI4" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="AJ4" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="AK4" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="AL4" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="AM4" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="AN4" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="AO4" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="AP4" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="AQ4" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="AR4" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="AS4" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="AT4" s="85" t="s">
+        <v>151</v>
+      </c>
+      <c r="AU4" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="AV4" s="12" t="s">
+        <v>107</v>
+      </c>
+      <c r="AW4" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="AX4" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="AY4" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="AZ4" s="12" t="s">
+        <v>133</v>
+      </c>
+      <c r="BA4" s="80" t="s">
+        <v>134</v>
+      </c>
+      <c r="BB4" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="BC4" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="BD4" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="BE4" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="BF4" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="BG4" s="6"/>
+      <c r="BH4" s="6" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="5" spans="1:60" x14ac:dyDescent="0.25">
+      <c r="A5" s="97"/>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D5">
+        <v>3</v>
+      </c>
+      <c r="E5">
+        <f>(10-D5)*$E$2</f>
+        <v>3835440</v>
+      </c>
+      <c r="F5">
+        <v>1570000</v>
+      </c>
+      <c r="G5">
+        <f>432000*24/12</f>
+        <v>864000</v>
+      </c>
+      <c r="H5" t="s">
+        <v>31</v>
+      </c>
+      <c r="I5" t="s">
+        <v>31</v>
+      </c>
+      <c r="J5">
+        <f>H16+H19-M5</f>
+        <v>2.895E-2</v>
+      </c>
+      <c r="K5" s="36">
+        <f>J5-M5</f>
+        <v>2.8899999999999999E-2</v>
+      </c>
+      <c r="L5" s="36">
+        <v>9.2499999999999999E-2</v>
+      </c>
+      <c r="M5" s="36">
+        <v>5.0000000000000002E-5</v>
+      </c>
+      <c r="N5">
+        <v>3600</v>
+      </c>
+      <c r="O5">
+        <v>3600</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+      <c r="T5">
+        <v>0.12280000000000001</v>
+      </c>
+      <c r="U5">
+        <v>9.3426658551430383E-2</v>
+      </c>
+      <c r="V5">
+        <v>2.9373341448569623E-2</v>
+      </c>
+      <c r="W5" s="1">
+        <f>$W$2*EXP($X$2*E5)</f>
+        <v>4.6313801257985432E-5</v>
+      </c>
+      <c r="X5">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="Y5">
+        <v>21</v>
+      </c>
+      <c r="Z5">
+        <v>0.09</v>
+      </c>
+      <c r="AA5" t="s">
+        <v>31</v>
+      </c>
+      <c r="AB5" t="s">
+        <v>32</v>
+      </c>
+      <c r="AC5">
+        <v>1</v>
+      </c>
+      <c r="AD5" t="s">
+        <v>33</v>
+      </c>
+      <c r="AE5" s="1">
+        <f t="shared" ref="AE5:AE12" si="0">AK5*$AV$15</f>
+        <v>8.9088436646547198</v>
+      </c>
+      <c r="AF5" s="1">
+        <f t="shared" ref="AF5:AF12" si="1">AK5*$AX5</f>
+        <v>0.99652622317307915</v>
+      </c>
+      <c r="AG5" s="24">
+        <f t="shared" ref="AG5:AG12" si="2">AK5*$BA5</f>
+        <v>8.9088436646547198</v>
+      </c>
+      <c r="AH5" s="26">
+        <f t="shared" ref="AH5:AH12" si="3">AK5*$AY5</f>
+        <v>9.9652622317307902</v>
+      </c>
+      <c r="AI5" s="1">
+        <f>BE5</f>
+        <v>2.0180134110471437E-3</v>
+      </c>
+      <c r="AJ5" s="1">
+        <f>BH5</f>
+        <v>1.3244862745926676E-6</v>
+      </c>
+      <c r="AK5" s="1">
+        <f>AI5+AJ5</f>
+        <v>2.0193378973217364E-3</v>
+      </c>
+      <c r="AL5" s="1">
+        <f>AI5*0.005</f>
+        <v>1.0090067055235718E-5</v>
+      </c>
+      <c r="AM5">
+        <f>AJ5*0.005</f>
+        <v>6.6224313729633385E-9</v>
+      </c>
+      <c r="AN5">
+        <f>AL5+AM5</f>
+        <v>1.0096689486608681E-5</v>
+      </c>
+      <c r="AO5" s="1">
+        <v>1800</v>
+      </c>
+      <c r="AP5" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AQ5" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AR5" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AS5" s="1">
+        <f>T5</f>
+        <v>0.12280000000000001</v>
+      </c>
+      <c r="AT5" t="s">
+        <v>32</v>
+      </c>
+      <c r="AU5" s="55">
+        <f t="shared" ref="AU5:AU12" si="4">AK5+AE5*$E$31+AF5*$F$31+AH5*$J$31</f>
+        <v>3.3011513455652687E-3</v>
+      </c>
+      <c r="AV5" s="56">
+        <f t="shared" ref="AV5:AV12" si="5">(1-AK5/AU5)*100</f>
+        <v>38.829284515098252</v>
+      </c>
+      <c r="AW5" s="13">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="AX5" s="13">
+        <f t="shared" ref="AX5:AX12" si="6">(($AW5/100)*(1+($AV$15+$BA5)*$E$31)-$Y$16)/(((1+1/$X$23)*(14*10^(-6)))-(($J$31/$X$23+$F$31)*$AW5/100))</f>
+        <v>493.49156696102204</v>
+      </c>
+      <c r="AY5" s="13">
+        <f t="shared" ref="AY5:AY12" si="7">$AX5/$X$23</f>
+        <v>4934.91566961022</v>
+      </c>
+      <c r="AZ5" s="13">
+        <v>10</v>
+      </c>
+      <c r="BA5" s="68">
+        <f t="shared" ref="BA5:BA12" si="8">$AZ5/100/(1-$X$33)*$X$32*10^6/$X$30</f>
+        <v>4411.7647058823532</v>
+      </c>
+      <c r="BB5" s="7">
+        <v>851425</v>
+      </c>
+      <c r="BC5" s="8">
+        <f>$T$27+$T$28*$T$30*(J5)^$T$29</f>
+        <v>9.1058115591388438E-4</v>
+      </c>
+      <c r="BD5" s="7">
+        <f t="shared" ref="BD5:BD12" si="9">J5*Z5</f>
+        <v>2.6054999999999997E-3</v>
+      </c>
+      <c r="BE5" s="8">
+        <f>((BD5-BC5)/($T$31-BB5))*(F5-$T$31)+BD5</f>
+        <v>2.0180134110471437E-3</v>
+      </c>
+      <c r="BF5" s="8">
+        <f t="shared" ref="BF5:BF12" si="10">$T$27+$T$28*$T$30*(L5)^$T$29</f>
+        <v>4.0277279389003447E-3</v>
+      </c>
+      <c r="BG5" s="7"/>
+      <c r="BH5" s="7">
+        <f t="shared" ref="BH5:BH12" si="11">$BC$20*$BB$22*$BB$24*(M5)^$BB$21</f>
+        <v>1.3244862745926676E-6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:60" x14ac:dyDescent="0.25">
+      <c r="A6" s="97"/>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6" t="s">
+        <v>30</v>
+      </c>
+      <c r="D6">
+        <v>4</v>
+      </c>
+      <c r="E6">
+        <f t="shared" ref="E6:E11" si="12">(10-D6)*$E$2</f>
+        <v>3287520</v>
+      </c>
+      <c r="F6">
+        <v>757000</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6" t="s">
+        <v>31</v>
+      </c>
+      <c r="I6" t="s">
+        <v>31</v>
+      </c>
+      <c r="J6">
+        <f>J5-M6</f>
+        <v>2.894E-2</v>
+      </c>
+      <c r="K6" s="36">
+        <f t="shared" ref="K6:K12" si="13">J6-M6</f>
+        <v>2.8930000000000001E-2</v>
+      </c>
+      <c r="L6" s="36">
+        <v>2.6499999999999999E-2</v>
+      </c>
+      <c r="M6" s="36">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="N6">
+        <v>3600</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+      <c r="T6">
+        <v>0.1331</v>
+      </c>
+      <c r="U6">
+        <v>9.9106478034251738E-2</v>
+      </c>
+      <c r="V6">
+        <v>3.3993521965748258E-2</v>
+      </c>
+      <c r="W6" s="1">
+        <f t="shared" ref="W6:W12" si="14">$W$2*EXP($X$2*E6)</f>
+        <v>2.6776375833009532E-5</v>
+      </c>
+      <c r="X6" t="s">
+        <v>32</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>32</v>
+      </c>
+      <c r="Z6" t="s">
+        <v>32</v>
+      </c>
+      <c r="AA6" t="s">
+        <v>33</v>
+      </c>
+      <c r="AB6" t="s">
+        <v>32</v>
+      </c>
+      <c r="AC6" t="s">
+        <v>32</v>
+      </c>
+      <c r="AD6" t="s">
+        <v>33</v>
+      </c>
+      <c r="AE6" s="1">
+        <f t="shared" si="0"/>
+        <v>3.5881220853167113</v>
+      </c>
+      <c r="AF6" s="1">
+        <f t="shared" si="1"/>
+        <v>0.67583627559825854</v>
+      </c>
+      <c r="AG6" s="24">
+        <f t="shared" si="2"/>
+        <v>1.7940610426583556</v>
+      </c>
+      <c r="AH6" s="26">
+        <f t="shared" si="3"/>
+        <v>6.7583627559825858</v>
+      </c>
+      <c r="AI6" s="1">
+        <f>BF6</f>
+        <v>8.1313887523147316E-4</v>
+      </c>
+      <c r="AJ6" s="1">
+        <f>BH6</f>
+        <v>1.6879744031468265E-7</v>
+      </c>
+      <c r="AK6">
+        <f t="shared" ref="AK6:AK12" si="15">AI6+AJ6</f>
+        <v>8.1330767267178783E-4</v>
+      </c>
+      <c r="AL6">
+        <f t="shared" ref="AL6:AM12" si="16">AI6*0.005</f>
+        <v>4.0656943761573658E-6</v>
+      </c>
+      <c r="AM6">
+        <f t="shared" si="16"/>
+        <v>8.4398720157341326E-10</v>
+      </c>
+      <c r="AN6">
+        <f t="shared" ref="AN6:AN12" si="17">AL6+AM6</f>
+        <v>4.066538363358939E-6</v>
+      </c>
+      <c r="AO6" s="1">
+        <v>1800</v>
+      </c>
+      <c r="AP6" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AQ6" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AR6" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AS6" s="1">
+        <f t="shared" ref="AS6:AS12" si="18">T6</f>
+        <v>0.1331</v>
+      </c>
+      <c r="AT6" t="s">
+        <v>32</v>
+      </c>
+      <c r="AU6" s="55">
+        <f t="shared" si="4"/>
+        <v>1.612515340843685E-3</v>
+      </c>
+      <c r="AV6" s="56">
+        <f t="shared" si="5"/>
+        <v>49.562794717583479</v>
+      </c>
+      <c r="AW6" s="13">
+        <v>6.5</v>
+      </c>
+      <c r="AX6" s="13">
+        <f t="shared" si="6"/>
+        <v>830.97245766546928</v>
+      </c>
+      <c r="AY6" s="13">
+        <f t="shared" si="7"/>
+        <v>8309.724576654693</v>
+      </c>
+      <c r="AZ6" s="13">
+        <v>5</v>
+      </c>
+      <c r="BA6" s="68">
+        <f t="shared" si="8"/>
+        <v>2205.8823529411766</v>
+      </c>
+      <c r="BB6" s="7">
+        <v>818263</v>
+      </c>
+      <c r="BC6" s="8">
+        <f>$T$27+$T$28*$T$30*(J6)^$T$29</f>
+        <v>9.1017858127080242E-4</v>
+      </c>
+      <c r="BD6" s="7" t="e">
+        <f t="shared" si="9"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="BE6" s="8" t="e">
+        <f>((BD6-BC6)/($T$31-BB6))*(F6-$T$31)+BD6</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="BF6" s="8">
+        <f t="shared" si="10"/>
+        <v>8.1313887523147316E-4</v>
+      </c>
+      <c r="BG6" s="7"/>
+      <c r="BH6" s="7">
+        <f t="shared" si="11"/>
+        <v>1.6879744031468265E-7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:60" x14ac:dyDescent="0.25">
+      <c r="A7" s="97"/>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7" t="s">
+        <v>30</v>
+      </c>
+      <c r="D7">
+        <v>5</v>
+      </c>
+      <c r="E7">
+        <f t="shared" si="12"/>
+        <v>2739600</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7" t="s">
+        <v>31</v>
+      </c>
+      <c r="I7" t="s">
+        <v>33</v>
+      </c>
+      <c r="J7">
+        <f>J6-M7</f>
+        <v>2.894E-2</v>
+      </c>
+      <c r="K7" s="36">
+        <f t="shared" si="13"/>
+        <v>2.894E-2</v>
+      </c>
+      <c r="L7" s="91">
+        <v>1.9677388526365687E-3</v>
+      </c>
+      <c r="M7" s="36">
+        <v>0</v>
+      </c>
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+      <c r="T7" t="s">
+        <v>32</v>
+      </c>
+      <c r="U7" t="s">
+        <v>32</v>
+      </c>
+      <c r="V7" t="s">
+        <v>32</v>
+      </c>
+      <c r="W7" s="1">
+        <f t="shared" si="14"/>
+        <v>1.5480791541095022E-5</v>
+      </c>
+      <c r="X7" t="s">
+        <v>32</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>32</v>
+      </c>
+      <c r="Z7" t="s">
+        <v>32</v>
+      </c>
+      <c r="AA7" t="s">
+        <v>33</v>
+      </c>
+      <c r="AB7" t="s">
+        <v>32</v>
+      </c>
+      <c r="AC7" t="s">
+        <v>32</v>
+      </c>
+      <c r="AD7" t="s">
+        <v>33</v>
+      </c>
+      <c r="AE7" s="1">
+        <f t="shared" si="0"/>
+        <v>0.12873040793583418</v>
+      </c>
+      <c r="AF7" s="1">
+        <f t="shared" si="1"/>
+        <v>5.3069049208309536E-2</v>
+      </c>
+      <c r="AG7" s="24">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AH7" s="26">
+        <f t="shared" si="3"/>
+        <v>0.53069049208309527</v>
+      </c>
+      <c r="AI7" s="1">
+        <f>BF7</f>
+        <v>2.9178892465455746E-5</v>
+      </c>
+      <c r="AJ7" s="1">
+        <v>0</v>
+      </c>
+      <c r="AK7">
+        <f t="shared" si="15"/>
+        <v>2.9178892465455746E-5</v>
+      </c>
+      <c r="AL7">
+        <f t="shared" si="16"/>
+        <v>1.4589446232727874E-7</v>
+      </c>
+      <c r="AM7">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="AN7">
+        <f t="shared" si="17"/>
+        <v>1.4589446232727874E-7</v>
+      </c>
+      <c r="AO7" s="1">
+        <v>1800</v>
+      </c>
+      <c r="AP7" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AQ7" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AR7" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AS7" s="1" t="str">
+        <f t="shared" si="18"/>
+        <v>NA</v>
+      </c>
+      <c r="AT7" t="s">
+        <v>32</v>
+      </c>
+      <c r="AU7" s="55">
+        <f t="shared" si="4"/>
+        <v>8.7563453056915228E-5</v>
+      </c>
+      <c r="AV7" s="56">
+        <f t="shared" si="5"/>
+        <v>66.676859526668281</v>
+      </c>
+      <c r="AW7" s="13">
+        <v>9.5</v>
+      </c>
+      <c r="AX7" s="13">
+        <f t="shared" si="6"/>
+        <v>1818.7478935719314</v>
+      </c>
+      <c r="AY7" s="13">
+        <f t="shared" si="7"/>
+        <v>18187.478935719311</v>
+      </c>
+      <c r="AZ7" s="13">
+        <v>0</v>
+      </c>
+      <c r="BA7" s="68">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="BB7" s="7"/>
+      <c r="BC7" s="8" t="e">
+        <f t="shared" ref="BC7:BC12" si="19">$T$27+$T$28*$T$30*(T7*$T$32)^$T$29</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="BD7" s="7" t="e">
+        <f t="shared" si="9"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="BE7" s="8" t="e">
+        <f t="shared" ref="BE7:BE12" si="20">BC7+((BD7-BC7)/$T$31)*F7</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="BF7" s="8">
+        <f t="shared" si="10"/>
+        <v>2.9178892465455746E-5</v>
+      </c>
+      <c r="BG7" s="7"/>
+      <c r="BH7" s="7">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:60" x14ac:dyDescent="0.25">
+      <c r="A8" s="97"/>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8" t="s">
+        <v>30</v>
+      </c>
+      <c r="D8">
+        <v>6</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="12"/>
+        <v>2191680</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8" t="s">
+        <v>31</v>
+      </c>
+      <c r="I8" t="s">
+        <v>33</v>
+      </c>
+      <c r="J8">
+        <f t="shared" ref="J8:J12" si="21">J7-M8</f>
+        <v>2.894E-2</v>
+      </c>
+      <c r="K8" s="36">
+        <f t="shared" si="13"/>
+        <v>2.894E-2</v>
+      </c>
+      <c r="L8" s="91">
+        <v>7.5411160325070082E-4</v>
+      </c>
+      <c r="M8" s="36">
+        <v>0</v>
+      </c>
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+      <c r="T8" t="s">
+        <v>32</v>
+      </c>
+      <c r="U8" t="s">
+        <v>32</v>
+      </c>
+      <c r="V8" t="s">
+        <v>32</v>
+      </c>
+      <c r="W8" s="1">
+        <f t="shared" si="14"/>
+        <v>8.9502368891684043E-6</v>
+      </c>
+      <c r="X8" t="s">
+        <v>32</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>32</v>
+      </c>
+      <c r="Z8" t="s">
+        <v>32</v>
+      </c>
+      <c r="AA8" t="s">
+        <v>33</v>
+      </c>
+      <c r="AB8" t="s">
+        <v>32</v>
+      </c>
+      <c r="AC8" t="s">
+        <v>32</v>
+      </c>
+      <c r="AD8" t="s">
+        <v>33</v>
+      </c>
+      <c r="AE8" s="1">
+        <f t="shared" si="0"/>
+        <v>3.7798204342272199E-2</v>
+      </c>
+      <c r="AF8" s="1">
+        <f t="shared" si="1"/>
+        <v>1.5582291693083372E-2</v>
+      </c>
+      <c r="AG8" s="24">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AH8" s="26">
+        <f t="shared" si="3"/>
+        <v>0.15582291693083369</v>
+      </c>
+      <c r="AI8" s="1">
+        <f t="shared" ref="AI8:AI12" si="22">BF8</f>
+        <v>8.5675929842483652E-6</v>
+      </c>
+      <c r="AJ8" s="1">
+        <v>0</v>
+      </c>
+      <c r="AK8">
+        <f t="shared" si="15"/>
+        <v>8.5675929842483652E-6</v>
+      </c>
+      <c r="AL8">
+        <f t="shared" si="16"/>
+        <v>4.2837964921241826E-8</v>
+      </c>
+      <c r="AM8">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="AN8">
+        <f t="shared" si="17"/>
+        <v>4.2837964921241826E-8</v>
+      </c>
+      <c r="AO8" t="s">
+        <v>32</v>
+      </c>
+      <c r="AP8" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AQ8" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AR8" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AS8" s="1" t="str">
+        <f t="shared" si="18"/>
+        <v>NA</v>
+      </c>
+      <c r="AT8" t="s">
+        <v>32</v>
+      </c>
+      <c r="AU8" s="55">
+        <f t="shared" si="4"/>
+        <v>2.5710640901642957E-5</v>
+      </c>
+      <c r="AV8" s="56">
+        <f t="shared" si="5"/>
+        <v>66.676859526668281</v>
+      </c>
+      <c r="AW8" s="13">
+        <v>9.5</v>
+      </c>
+      <c r="AX8" s="13">
+        <f t="shared" si="6"/>
+        <v>1818.7478935719314</v>
+      </c>
+      <c r="AY8" s="13">
+        <f t="shared" si="7"/>
+        <v>18187.478935719311</v>
+      </c>
+      <c r="AZ8" s="13">
+        <v>0</v>
+      </c>
+      <c r="BA8" s="68">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="BB8" s="7"/>
+      <c r="BC8" s="8" t="e">
+        <f t="shared" si="19"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="BD8" s="7" t="e">
+        <f t="shared" si="9"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="BE8" s="8" t="e">
+        <f t="shared" si="20"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="BF8" s="8">
+        <f t="shared" si="10"/>
+        <v>8.5675929842483652E-6</v>
+      </c>
+      <c r="BG8" s="7"/>
+      <c r="BH8" s="7">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:60" x14ac:dyDescent="0.25">
+      <c r="A9" s="97"/>
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9" t="s">
+        <v>30</v>
+      </c>
+      <c r="D9">
+        <v>7</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="12"/>
+        <v>1643760</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9" t="s">
+        <v>31</v>
+      </c>
+      <c r="I9" t="s">
+        <v>33</v>
+      </c>
+      <c r="J9">
+        <f t="shared" si="21"/>
+        <v>2.894E-2</v>
+      </c>
+      <c r="K9" s="36">
+        <f t="shared" si="13"/>
+        <v>2.894E-2</v>
+      </c>
+      <c r="L9" s="91">
+        <v>3.1376376813217782E-4</v>
+      </c>
+      <c r="M9" s="36">
+        <v>0</v>
+      </c>
+      <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+      <c r="T9" t="s">
+        <v>32</v>
+      </c>
+      <c r="U9" t="s">
+        <v>32</v>
+      </c>
+      <c r="V9" t="s">
+        <v>32</v>
+      </c>
+      <c r="W9" s="1">
+        <f t="shared" si="14"/>
+        <v>5.1745894361784425E-6</v>
+      </c>
+      <c r="X9" t="s">
+        <v>32</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>32</v>
+      </c>
+      <c r="Z9" t="s">
+        <v>32</v>
+      </c>
+      <c r="AA9" t="s">
+        <v>33</v>
+      </c>
+      <c r="AB9" t="s">
+        <v>32</v>
+      </c>
+      <c r="AC9" t="s">
+        <v>32</v>
+      </c>
+      <c r="AD9" t="s">
+        <v>33</v>
+      </c>
+      <c r="AE9" s="1">
+        <f t="shared" si="0"/>
+        <v>1.2381691922498196E-2</v>
+      </c>
+      <c r="AF9" s="1">
+        <f t="shared" si="1"/>
+        <v>5.1043465833240436E-3</v>
+      </c>
+      <c r="AG9" s="24">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AH9" s="26">
+        <f t="shared" si="3"/>
+        <v>5.1043465833240424E-2</v>
+      </c>
+      <c r="AI9" s="1">
+        <f t="shared" si="22"/>
+        <v>2.8065168357662577E-6</v>
+      </c>
+      <c r="AJ9" s="1">
+        <v>0</v>
+      </c>
+      <c r="AK9">
+        <f t="shared" si="15"/>
+        <v>2.8065168357662577E-6</v>
+      </c>
+      <c r="AL9">
+        <f t="shared" si="16"/>
+        <v>1.4032584178831289E-8</v>
+      </c>
+      <c r="AM9">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="AN9">
+        <f t="shared" si="17"/>
+        <v>1.4032584178831289E-8</v>
+      </c>
+      <c r="AO9" t="s">
+        <v>32</v>
+      </c>
+      <c r="AP9" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AQ9" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AR9" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AS9" s="1" t="str">
+        <f t="shared" si="18"/>
+        <v>NA</v>
+      </c>
+      <c r="AT9" t="s">
+        <v>32</v>
+      </c>
+      <c r="AU9" s="55">
+        <f t="shared" si="4"/>
+        <v>8.4221258737971998E-6</v>
+      </c>
+      <c r="AV9" s="56">
+        <f t="shared" si="5"/>
+        <v>66.676859526668281</v>
+      </c>
+      <c r="AW9" s="13">
+        <v>9.5</v>
+      </c>
+      <c r="AX9" s="13">
+        <f t="shared" si="6"/>
+        <v>1818.7478935719314</v>
+      </c>
+      <c r="AY9" s="13">
+        <f t="shared" si="7"/>
+        <v>18187.478935719311</v>
+      </c>
+      <c r="AZ9" s="13">
+        <v>0</v>
+      </c>
+      <c r="BA9" s="68">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="BB9" s="7"/>
+      <c r="BC9" s="8" t="e">
+        <f t="shared" si="19"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="BD9" s="7" t="e">
+        <f t="shared" si="9"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="BE9" s="8" t="e">
+        <f t="shared" si="20"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="BF9" s="8">
+        <f t="shared" si="10"/>
+        <v>2.8065168357662577E-6</v>
+      </c>
+      <c r="BG9" s="7"/>
+      <c r="BH9" s="7">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:60" x14ac:dyDescent="0.25">
+      <c r="A10" s="97"/>
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10" t="s">
+        <v>30</v>
+      </c>
+      <c r="D10">
+        <v>8</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="12"/>
+        <v>1095840</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10" t="s">
+        <v>31</v>
+      </c>
+      <c r="I10" t="s">
+        <v>33</v>
+      </c>
+      <c r="J10">
+        <f t="shared" si="21"/>
+        <v>2.894E-2</v>
+      </c>
+      <c r="K10" s="36">
+        <f t="shared" si="13"/>
+        <v>2.894E-2</v>
+      </c>
+      <c r="L10" s="91">
+        <v>1.4587358230165945E-4</v>
+      </c>
+      <c r="M10" s="36">
+        <v>0</v>
+      </c>
+      <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+      <c r="T10" t="s">
+        <v>32</v>
+      </c>
+      <c r="U10" t="s">
+        <v>32</v>
+      </c>
+      <c r="V10" t="s">
+        <v>32</v>
+      </c>
+      <c r="W10" s="1">
+        <f t="shared" si="14"/>
+        <v>2.9916946517264094E-6</v>
+      </c>
+      <c r="X10" t="s">
+        <v>32</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>32</v>
+      </c>
+      <c r="Z10" t="s">
+        <v>32</v>
+      </c>
+      <c r="AA10" t="s">
+        <v>33</v>
+      </c>
+      <c r="AB10" t="s">
+        <v>32</v>
+      </c>
+      <c r="AC10" t="s">
+        <v>32</v>
+      </c>
+      <c r="AD10" t="s">
+        <v>33</v>
+      </c>
+      <c r="AE10" s="1">
+        <f t="shared" si="0"/>
+        <v>4.7183998739784598E-3</v>
+      </c>
+      <c r="AF10" s="1">
+        <f t="shared" si="1"/>
+        <v>1.9451580952144349E-3</v>
+      </c>
+      <c r="AG10" s="24">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AH10" s="26">
+        <f t="shared" si="3"/>
+        <v>1.9451580952144346E-2</v>
+      </c>
+      <c r="AI10" s="1">
+        <f t="shared" si="22"/>
+        <v>1.0695039714351174E-6</v>
+      </c>
+      <c r="AJ10" s="1">
+        <v>0</v>
+      </c>
+      <c r="AK10">
+        <f t="shared" si="15"/>
+        <v>1.0695039714351174E-6</v>
+      </c>
+      <c r="AL10">
+        <f t="shared" si="16"/>
+        <v>5.3475198571755876E-9</v>
+      </c>
+      <c r="AM10">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="AN10">
+        <f t="shared" si="17"/>
+        <v>5.3475198571755876E-9</v>
+      </c>
+      <c r="AO10" t="s">
+        <v>32</v>
+      </c>
+      <c r="AP10" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AQ10" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AR10" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AS10" s="1" t="str">
+        <f t="shared" si="18"/>
+        <v>NA</v>
+      </c>
+      <c r="AT10" t="s">
+        <v>32</v>
+      </c>
+      <c r="AU10" s="55">
+        <f t="shared" si="4"/>
+        <v>3.2094933317915637E-6</v>
+      </c>
+      <c r="AV10" s="56">
+        <f t="shared" si="5"/>
+        <v>66.676859526668281</v>
+      </c>
+      <c r="AW10" s="13">
+        <v>9.5</v>
+      </c>
+      <c r="AX10" s="13">
+        <f t="shared" si="6"/>
+        <v>1818.7478935719314</v>
+      </c>
+      <c r="AY10" s="13">
+        <f t="shared" si="7"/>
+        <v>18187.478935719311</v>
+      </c>
+      <c r="AZ10" s="13">
+        <v>0</v>
+      </c>
+      <c r="BA10" s="68">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="BB10" s="7"/>
+      <c r="BC10" s="8" t="e">
+        <f t="shared" si="19"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="BD10" s="7" t="e">
+        <f t="shared" si="9"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="BE10" s="8" t="e">
+        <f t="shared" si="20"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="BF10" s="8">
+        <f t="shared" si="10"/>
+        <v>1.0695039714351174E-6</v>
+      </c>
+      <c r="BG10" s="7"/>
+      <c r="BH10" s="7">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:60" x14ac:dyDescent="0.25">
+      <c r="A11" s="97"/>
+      <c r="B11">
+        <v>1</v>
+      </c>
+      <c r="C11" t="s">
+        <v>30</v>
+      </c>
+      <c r="D11">
+        <v>9</v>
+      </c>
+      <c r="E11">
+        <f t="shared" si="12"/>
+        <v>547920</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11" t="s">
+        <v>31</v>
+      </c>
+      <c r="I11" t="s">
+        <v>33</v>
+      </c>
+      <c r="J11">
+        <f t="shared" si="21"/>
+        <v>2.894E-2</v>
+      </c>
+      <c r="K11" s="36">
+        <f t="shared" si="13"/>
+        <v>2.894E-2</v>
+      </c>
+      <c r="L11" s="91">
+        <v>7.7994660715105795E-5</v>
+      </c>
+      <c r="M11" s="36">
+        <v>0</v>
+      </c>
+      <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+      <c r="T11" t="s">
+        <v>32</v>
+      </c>
+      <c r="U11" t="s">
+        <v>32</v>
+      </c>
+      <c r="V11" t="s">
+        <v>32</v>
+      </c>
+      <c r="W11" s="1">
+        <f t="shared" si="14"/>
+        <v>1.7296515983649451E-6</v>
+      </c>
+      <c r="X11" t="s">
+        <v>32</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>32</v>
+      </c>
+      <c r="Z11" t="s">
+        <v>32</v>
+      </c>
+      <c r="AA11" t="s">
+        <v>33</v>
+      </c>
+      <c r="AB11" t="s">
+        <v>32</v>
+      </c>
+      <c r="AC11" t="s">
+        <v>32</v>
+      </c>
+      <c r="AD11" t="s">
+        <v>33</v>
+      </c>
+      <c r="AE11" s="1">
+        <f t="shared" si="0"/>
+        <v>2.1815845434399943E-3</v>
+      </c>
+      <c r="AF11" s="1">
+        <f t="shared" si="1"/>
+        <v>8.9935718642026317E-4</v>
+      </c>
+      <c r="AG11" s="24">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AH11" s="26">
+        <f t="shared" si="3"/>
+        <v>8.9935718642026301E-3</v>
+      </c>
+      <c r="AI11" s="1">
+        <f t="shared" si="22"/>
+        <v>4.944924965130653E-7</v>
+      </c>
+      <c r="AJ11" s="1">
+        <v>0</v>
+      </c>
+      <c r="AK11">
+        <f t="shared" si="15"/>
+        <v>4.944924965130653E-7</v>
+      </c>
+      <c r="AL11">
+        <f t="shared" si="16"/>
+        <v>2.4724624825653264E-9</v>
+      </c>
+      <c r="AM11">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="AN11">
+        <f t="shared" si="17"/>
+        <v>2.4724624825653264E-9</v>
+      </c>
+      <c r="AO11" t="s">
+        <v>32</v>
+      </c>
+      <c r="AP11" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AQ11" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AR11" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AS11" s="1" t="str">
+        <f t="shared" si="18"/>
+        <v>NA</v>
+      </c>
+      <c r="AT11" t="s">
+        <v>32</v>
+      </c>
+      <c r="AU11" s="55">
+        <f t="shared" si="4"/>
+        <v>1.4839312546451142E-6</v>
+      </c>
+      <c r="AV11" s="56">
+        <f t="shared" si="5"/>
+        <v>66.676859526668281</v>
+      </c>
+      <c r="AW11" s="13">
+        <v>9.5</v>
+      </c>
+      <c r="AX11" s="13">
+        <f t="shared" si="6"/>
+        <v>1818.7478935719314</v>
+      </c>
+      <c r="AY11" s="13">
+        <f t="shared" si="7"/>
+        <v>18187.478935719311</v>
+      </c>
+      <c r="AZ11" s="13">
+        <v>0</v>
+      </c>
+      <c r="BA11" s="68">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="BB11" s="7"/>
+      <c r="BC11" s="8" t="e">
+        <f t="shared" si="19"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="BD11" s="7" t="e">
+        <f t="shared" si="9"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="BE11" s="8" t="e">
+        <f t="shared" si="20"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="BF11" s="8">
+        <f t="shared" si="10"/>
+        <v>4.944924965130653E-7</v>
+      </c>
+      <c r="BG11" s="7"/>
+      <c r="BH11" s="7">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:60" x14ac:dyDescent="0.25">
+      <c r="A12" s="97"/>
+      <c r="B12">
+        <v>1</v>
+      </c>
+      <c r="C12" t="s">
+        <v>30</v>
+      </c>
+      <c r="D12">
+        <v>10</v>
+      </c>
+      <c r="E12">
+        <f>(10-D12)*$E$2</f>
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12" t="s">
+        <v>31</v>
+      </c>
+      <c r="I12" t="s">
+        <v>33</v>
+      </c>
+      <c r="J12">
+        <f t="shared" si="21"/>
+        <v>2.894E-2</v>
+      </c>
+      <c r="K12" s="36">
+        <f t="shared" si="13"/>
+        <v>2.894E-2</v>
+      </c>
+      <c r="L12" s="91">
+        <v>4.9359999623829953E-5</v>
+      </c>
+      <c r="M12" s="36">
+        <v>0</v>
+      </c>
+      <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+      <c r="T12" t="s">
+        <v>32</v>
+      </c>
+      <c r="U12" t="s">
+        <v>32</v>
+      </c>
+      <c r="V12" t="s">
+        <v>32</v>
+      </c>
+      <c r="W12" s="1">
+        <f t="shared" si="14"/>
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="X12" t="s">
+        <v>32</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>32</v>
+      </c>
+      <c r="Z12" t="s">
+        <v>32</v>
+      </c>
+      <c r="AA12" t="s">
+        <v>33</v>
+      </c>
+      <c r="AB12" t="s">
+        <v>32</v>
+      </c>
+      <c r="AC12" t="s">
+        <v>32</v>
+      </c>
+      <c r="AD12" t="s">
+        <v>33</v>
+      </c>
+      <c r="AE12" s="1">
+        <f t="shared" si="0"/>
+        <v>1.2664631346800649E-3</v>
+      </c>
+      <c r="AF12" s="1">
+        <f t="shared" si="1"/>
+        <v>5.2209882259013124E-4</v>
+      </c>
+      <c r="AG12" s="24">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AH12" s="26">
+        <f t="shared" si="3"/>
+        <v>5.2209882259013117E-3</v>
+      </c>
+      <c r="AI12" s="1">
+        <f t="shared" si="22"/>
+        <v>2.8706497719414803E-7</v>
+      </c>
+      <c r="AJ12" s="1">
+        <v>0</v>
+      </c>
+      <c r="AK12">
+        <f t="shared" si="15"/>
+        <v>2.8706497719414803E-7</v>
+      </c>
+      <c r="AL12">
+        <f t="shared" si="16"/>
+        <v>1.4353248859707402E-9</v>
+      </c>
+      <c r="AM12">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="AN12">
+        <f t="shared" si="17"/>
+        <v>1.4353248859707402E-9</v>
+      </c>
+      <c r="AO12" t="s">
+        <v>32</v>
+      </c>
+      <c r="AP12" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AQ12" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AR12" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AS12" s="1" t="str">
+        <f t="shared" si="18"/>
+        <v>NA</v>
+      </c>
+      <c r="AT12" t="s">
+        <v>32</v>
+      </c>
+      <c r="AU12" s="58">
+        <f t="shared" si="4"/>
+        <v>8.6145835331422058E-7</v>
+      </c>
+      <c r="AV12" s="57">
+        <f t="shared" si="5"/>
+        <v>66.676859526668281</v>
+      </c>
+      <c r="AW12" s="14">
+        <v>9.5</v>
+      </c>
+      <c r="AX12" s="13">
+        <f t="shared" si="6"/>
+        <v>1818.7478935719314</v>
+      </c>
+      <c r="AY12" s="14">
+        <f t="shared" si="7"/>
+        <v>18187.478935719311</v>
+      </c>
+      <c r="AZ12" s="14">
+        <v>0</v>
+      </c>
+      <c r="BA12" s="68">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="BB12" s="7"/>
+      <c r="BC12" s="8" t="e">
+        <f t="shared" si="19"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="BD12" s="7" t="e">
+        <f t="shared" si="9"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="BE12" s="8" t="e">
+        <f t="shared" si="20"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="BF12" s="8">
+        <f t="shared" si="10"/>
+        <v>2.8706497719414803E-7</v>
+      </c>
+      <c r="BG12" s="7"/>
+      <c r="BH12" s="7">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:60" x14ac:dyDescent="0.25">
+      <c r="A13" s="4"/>
+      <c r="X13" s="1"/>
+      <c r="Y13" s="1"/>
+      <c r="Z13" s="1"/>
+      <c r="AA13" s="1"/>
+      <c r="AB13" s="1"/>
+      <c r="AC13" s="1"/>
+      <c r="AD13" s="1"/>
+      <c r="AE13" s="1"/>
+      <c r="AF13" s="1"/>
+    </row>
+    <row r="14" spans="1:60" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="97" t="s">
+        <v>71</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="F14" s="35" t="s">
+        <v>35</v>
+      </c>
+      <c r="G14" s="35" t="s">
+        <v>119</v>
+      </c>
+      <c r="H14" s="35" t="s">
+        <v>36</v>
+      </c>
+      <c r="I14" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="J14" s="35" t="s">
+        <v>37</v>
+      </c>
+      <c r="K14" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="L14" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="M14" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="N14" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="O14" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="P14" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q14" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="R14" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="S14" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="T14" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="U14" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="V14" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="W14" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="X14" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA14" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="AB14" s="3"/>
+      <c r="AC14" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="AD14" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="AE14" s="12" t="s">
+        <v>107</v>
+      </c>
+      <c r="AF14" s="3"/>
+      <c r="AG14" s="3"/>
+      <c r="AU14" s="22"/>
+      <c r="AV14" s="64" t="s">
+        <v>21</v>
+      </c>
+      <c r="AW14" s="64" t="s">
+        <v>117</v>
+      </c>
+      <c r="AX14" s="65" t="s">
+        <v>99</v>
+      </c>
+      <c r="AY14" s="37"/>
+      <c r="AZ14" s="37"/>
+    </row>
+    <row r="15" spans="1:60" x14ac:dyDescent="0.25">
+      <c r="A15" s="97"/>
+      <c r="B15">
+        <v>1</v>
+      </c>
+      <c r="C15" t="s">
+        <v>30</v>
+      </c>
+      <c r="D15">
+        <v>1</v>
+      </c>
+      <c r="E15" t="s">
+        <v>38</v>
+      </c>
+      <c r="F15" s="36" t="s">
+        <v>39</v>
+      </c>
+      <c r="G15" s="36">
+        <f>G16</f>
+        <v>240</v>
+      </c>
+      <c r="H15" s="36">
+        <v>8.2000000000000003E-2</v>
+      </c>
+      <c r="I15">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="J15" s="36" t="s">
+        <v>33</v>
+      </c>
+      <c r="K15">
+        <f>Q15*$U$15</f>
+        <v>4.1019300000000002E-3</v>
+      </c>
+      <c r="L15">
+        <f>K15*0.005</f>
+        <v>2.0509650000000001E-5</v>
+      </c>
+      <c r="M15">
+        <f>K15*$W15</f>
+        <v>1.6239747221660625</v>
+      </c>
+      <c r="N15">
+        <f>K15*$X15</f>
+        <v>16.239747221660625</v>
+      </c>
+      <c r="O15">
+        <f>AA15*$K15</f>
+        <v>0</v>
+      </c>
+      <c r="P15" s="1">
+        <f t="shared" ref="P15:P20" si="23">K15*$AB$16</f>
+        <v>18.09675</v>
+      </c>
+      <c r="Q15">
+        <v>1.9532999999999999E-4</v>
+      </c>
+      <c r="R15" s="1">
+        <f>K15*$AC15</f>
+        <v>0.23381001000000001</v>
+      </c>
+      <c r="S15">
+        <v>4250</v>
+      </c>
+      <c r="T15">
+        <v>0</v>
+      </c>
+      <c r="U15" s="13">
+        <v>21</v>
+      </c>
+      <c r="V15" s="13">
+        <v>4.3</v>
+      </c>
+      <c r="W15" s="13">
+        <f t="shared" ref="W15:W20" si="24">(($V15/100)*(1+$AB$16*$E$31)-$Y$16)/(((1+1/$X$23)*(14*10^(-6)))-(($J$31/$X$23+$F$31)*$V15/100))</f>
+        <v>395.90503059926971</v>
+      </c>
+      <c r="X15" s="13">
+        <f>$W15/$X$23</f>
+        <v>3959.0503059926968</v>
+      </c>
+      <c r="Y15" s="64" t="s">
+        <v>43</v>
+      </c>
+      <c r="Z15" s="64" t="s">
+        <v>27</v>
+      </c>
+      <c r="AA15" s="73">
+        <f t="shared" ref="AA15:AA20" si="25">IF(F15="HiddenElement",$AA$22/100/(1-$X$33)*$X$32*10^6/$X$30,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AB15" s="72" t="s">
+        <v>21</v>
+      </c>
+      <c r="AC15" s="13">
+        <f>ROUND(X15/$AY$6*120,0)</f>
+        <v>57</v>
+      </c>
+      <c r="AD15" s="13">
+        <f>K15+M15*$F$31+N15*$J$31+P15*$E$31</f>
+        <v>6.293064121245898E-3</v>
+      </c>
+      <c r="AE15" s="56">
+        <f>(1-K15/AD15)*100</f>
+        <v>34.818239239744116</v>
+      </c>
+      <c r="AF15" s="1"/>
+      <c r="AU15" s="66"/>
+      <c r="AV15" s="68">
+        <f>$AV$16/100/(1-$X$33)*$X$32*10^6/$X$30</f>
+        <v>4411.7647058823532</v>
+      </c>
+      <c r="AW15" s="68">
+        <f>$AW$16/100/(1-$X$33)*$X$32*10^6/$X$30</f>
+        <v>4411.7647058823532</v>
+      </c>
+      <c r="AX15" s="69">
+        <f>AW15+AV15</f>
+        <v>8823.5294117647063</v>
+      </c>
+      <c r="AY15" s="78"/>
+      <c r="AZ15" s="78"/>
+    </row>
+    <row r="16" spans="1:60" x14ac:dyDescent="0.25">
+      <c r="A16" s="97"/>
+      <c r="B16">
+        <v>1</v>
+      </c>
+      <c r="C16" t="s">
+        <v>30</v>
+      </c>
+      <c r="D16">
+        <v>1</v>
+      </c>
+      <c r="E16" t="s">
+        <v>40</v>
+      </c>
+      <c r="F16" s="36" t="s">
+        <v>41</v>
+      </c>
+      <c r="G16" s="36">
+        <f>80+G17</f>
+        <v>240</v>
+      </c>
+      <c r="H16" s="36">
+        <v>2.8500000000000001E-2</v>
+      </c>
+      <c r="J16" s="36" t="s">
+        <v>33</v>
+      </c>
+      <c r="K16">
+        <f>H16*$U$16</f>
+        <v>1.7099999999999999E-3</v>
+      </c>
+      <c r="L16">
+        <f t="shared" ref="L16:L20" si="26">K16*0.005</f>
+        <v>8.5499999999999995E-6</v>
+      </c>
+      <c r="M16">
+        <f>K16*$W16</f>
+        <v>0.19277131424832977</v>
+      </c>
+      <c r="N16">
+        <f>K16*$X16</f>
+        <v>1.9277131424832974</v>
+      </c>
+      <c r="O16">
+        <f>AA16*$K16</f>
+        <v>0</v>
+      </c>
+      <c r="P16" s="1">
+        <f t="shared" si="23"/>
+        <v>7.5441176470588234</v>
+      </c>
+      <c r="Q16">
+        <v>2.6861000000000002E-4</v>
+      </c>
+      <c r="R16" s="1">
+        <f>K16*$AC16</f>
+        <v>2.7359999999999999E-2</v>
+      </c>
+      <c r="S16">
+        <f>X16</f>
+        <v>1127.3176271832149</v>
+      </c>
+      <c r="T16">
+        <v>0</v>
+      </c>
+      <c r="U16" s="13">
+        <v>0.06</v>
+      </c>
+      <c r="V16" s="13">
+        <v>1.8</v>
+      </c>
+      <c r="W16" s="13">
+        <f t="shared" si="24"/>
+        <v>112.73176271832151</v>
+      </c>
+      <c r="X16" s="13">
+        <f>$W16/$X$23</f>
+        <v>1127.3176271832149</v>
+      </c>
+      <c r="Y16" s="16">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="Z16" s="16">
+        <v>1</v>
+      </c>
+      <c r="AA16" s="73">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="AB16" s="42">
+        <f>$AB$17/100/(1-$X$33)*$X$32*10^6/$X$30</f>
+        <v>4411.7647058823532</v>
+      </c>
+      <c r="AC16" s="13">
+        <f t="shared" ref="AC16:AC20" si="27">ROUND(X16/$AY$6*120,0)</f>
+        <v>16</v>
+      </c>
+      <c r="AD16" s="13">
+        <f>K16+M16*$F$31+N16*$J$31+P16*$E$31</f>
+        <v>2.1242656885690431E-3</v>
+      </c>
+      <c r="AE16" s="56">
+        <f>(1-K16/AD16)*100</f>
+        <v>19.501594871030591</v>
+      </c>
+      <c r="AF16" s="1"/>
+      <c r="AU16" s="67" t="s">
+        <v>118</v>
+      </c>
+      <c r="AV16" s="70">
+        <v>10</v>
+      </c>
+      <c r="AW16" s="70">
+        <v>10</v>
+      </c>
+      <c r="AX16" s="71">
+        <f>AW16+AV16</f>
+        <v>20</v>
+      </c>
+      <c r="AY16" s="79"/>
+      <c r="AZ16" s="79"/>
+    </row>
+    <row r="17" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="A17" s="97"/>
+      <c r="B17">
+        <v>1</v>
+      </c>
+      <c r="C17" t="s">
+        <v>30</v>
+      </c>
+      <c r="D17">
+        <v>2</v>
+      </c>
+      <c r="E17" t="s">
+        <v>38</v>
+      </c>
+      <c r="F17" s="36" t="s">
+        <v>39</v>
+      </c>
+      <c r="G17" s="36">
+        <f>G19</f>
+        <v>160</v>
+      </c>
+      <c r="H17" s="36">
+        <v>9.1999999999999998E-2</v>
+      </c>
+      <c r="I17">
+        <v>3.3E-3</v>
+      </c>
+      <c r="J17" s="36" t="s">
+        <v>33</v>
+      </c>
+      <c r="K17">
+        <f>Q17*$U$17</f>
+        <v>5.0624699999999995E-3</v>
+      </c>
+      <c r="L17">
+        <f t="shared" si="26"/>
+        <v>2.5312349999999998E-5</v>
+      </c>
+      <c r="M17">
+        <f>K17*$W17</f>
+        <v>2.3758024102824513</v>
+      </c>
+      <c r="N17">
+        <f>K17*$X17</f>
+        <v>23.758024102824514</v>
+      </c>
+      <c r="O17">
+        <f>AA17*$K17</f>
+        <v>0</v>
+      </c>
+      <c r="P17" s="1">
+        <f t="shared" si="23"/>
+        <v>22.334426470588234</v>
+      </c>
+      <c r="Q17">
+        <v>2.4106999999999999E-4</v>
+      </c>
+      <c r="R17" s="1">
+        <f>K17*$AC17</f>
+        <v>0.34424795999999996</v>
+      </c>
+      <c r="S17">
+        <v>4250</v>
+      </c>
+      <c r="T17">
+        <v>0</v>
+      </c>
+      <c r="U17" s="13">
+        <v>21</v>
+      </c>
+      <c r="V17" s="13">
+        <v>4.8</v>
+      </c>
+      <c r="W17" s="13">
+        <f t="shared" si="24"/>
+        <v>469.29708428542818</v>
+      </c>
+      <c r="X17" s="13">
+        <f t="shared" ref="X17:X20" si="28">$W17/$X$23</f>
+        <v>4692.9708428542817</v>
+      </c>
+      <c r="Z17" s="24"/>
+      <c r="AA17" s="73">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="AB17" s="39">
+        <v>10</v>
+      </c>
+      <c r="AC17" s="13">
+        <f t="shared" si="27"/>
+        <v>68</v>
+      </c>
+      <c r="AD17" s="13">
+        <f>K17+M17*$F$31+N17*$J$31+P17*$E$31</f>
+        <v>8.1497066913228666E-3</v>
+      </c>
+      <c r="AE17" s="56">
+        <f>(1-K17/AD17)*100</f>
+        <v>37.88156811348685</v>
+      </c>
+      <c r="AF17" s="1"/>
+      <c r="AG17" s="1"/>
+    </row>
+    <row r="18" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="A18" s="97"/>
+      <c r="B18">
+        <v>1</v>
+      </c>
+      <c r="C18" t="s">
+        <v>30</v>
+      </c>
+      <c r="D18">
+        <v>2</v>
+      </c>
+      <c r="E18" t="s">
+        <v>40</v>
+      </c>
+      <c r="F18" s="36" t="s">
+        <v>42</v>
+      </c>
+      <c r="G18" s="36">
+        <f>G19</f>
+        <v>160</v>
+      </c>
+      <c r="H18" s="36">
+        <v>2.8500000000000001E-2</v>
+      </c>
+      <c r="J18" s="36" t="s">
+        <v>33</v>
+      </c>
+      <c r="K18">
+        <f>H18*$U$18</f>
+        <v>2.2800000000000003E-3</v>
+      </c>
+      <c r="L18">
+        <f t="shared" si="26"/>
+        <v>1.1400000000000003E-5</v>
+      </c>
+      <c r="M18">
+        <f>K18*$W18</f>
+        <v>0.36572238936056839</v>
+      </c>
+      <c r="N18">
+        <f>K18*$X18</f>
+        <v>3.6572238936056838</v>
+      </c>
+      <c r="O18">
+        <f>AA18*$K18</f>
+        <v>3.0176470588235293</v>
+      </c>
+      <c r="P18" s="1">
+        <f t="shared" si="23"/>
+        <v>10.058823529411766</v>
+      </c>
+      <c r="Q18">
+        <v>2.4800000000000001E-4</v>
+      </c>
+      <c r="R18" s="1">
+        <f>K18*$AC18</f>
+        <v>5.2440000000000007E-2</v>
+      </c>
+      <c r="S18">
+        <f>X18</f>
+        <v>1604.0455673709137</v>
+      </c>
+      <c r="T18">
+        <v>0</v>
+      </c>
+      <c r="U18" s="13">
+        <v>0.08</v>
+      </c>
+      <c r="V18" s="13">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="W18" s="13">
+        <f t="shared" si="24"/>
+        <v>160.40455673709138</v>
+      </c>
+      <c r="X18" s="13">
+        <f t="shared" si="28"/>
+        <v>1604.0455673709137</v>
+      </c>
+      <c r="AA18" s="73">
+        <f>IF(F18="HiddenElement",$AA$22/100/(1-$X$33)*$X$32*10^6/$X$30,0)</f>
+        <v>1323.5294117647056</v>
+      </c>
+      <c r="AB18" s="40" t="s">
+        <v>104</v>
+      </c>
+      <c r="AC18" s="13">
+        <f t="shared" si="27"/>
+        <v>23</v>
+      </c>
+      <c r="AD18" s="13">
+        <f>K18+M18*$F$31+N18*$J$31+P18*$E$31</f>
+        <v>2.9444020852838065E-3</v>
+      </c>
+      <c r="AE18" s="56">
+        <f>(1-K18/AD18)*100</f>
+        <v>22.564923744773314</v>
+      </c>
+      <c r="AF18" s="1"/>
+      <c r="AG18" s="1"/>
+    </row>
+    <row r="19" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="A19" s="97"/>
+      <c r="B19">
+        <v>1</v>
+      </c>
+      <c r="C19" t="s">
+        <v>30</v>
+      </c>
+      <c r="D19">
+        <v>2</v>
+      </c>
+      <c r="E19" t="s">
+        <v>40</v>
+      </c>
+      <c r="F19" s="36" t="s">
+        <v>41</v>
+      </c>
+      <c r="G19" s="36">
+        <f>80+G20</f>
+        <v>160</v>
+      </c>
+      <c r="H19" s="36">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="J19" s="36" t="s">
+        <v>33</v>
+      </c>
+      <c r="K19">
+        <f>H19*$U$19</f>
+        <v>4.0000000000000003E-5</v>
+      </c>
+      <c r="L19">
+        <f t="shared" si="26"/>
+        <v>2.0000000000000002E-7</v>
+      </c>
+      <c r="M19">
+        <f>K19*$W19</f>
+        <v>6.4161822694836562E-3</v>
+      </c>
+      <c r="N19">
+        <f>K19*$X19</f>
+        <v>6.4161822694836557E-2</v>
+      </c>
+      <c r="O19">
+        <f>AA19*$K19</f>
+        <v>0</v>
+      </c>
+      <c r="P19" s="1">
+        <f t="shared" si="23"/>
+        <v>0.17647058823529413</v>
+      </c>
+      <c r="Q19">
+        <v>4.7099999999999998E-6</v>
+      </c>
+      <c r="R19" s="1">
+        <f>K19*$AC19</f>
+        <v>9.2000000000000003E-4</v>
+      </c>
+      <c r="S19">
+        <f>X19</f>
+        <v>1604.0455673709137</v>
+      </c>
+      <c r="T19">
+        <v>0</v>
+      </c>
+      <c r="U19" s="13">
+        <v>0.08</v>
+      </c>
+      <c r="V19" s="13">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="W19" s="13">
+        <f t="shared" si="24"/>
+        <v>160.40455673709138</v>
+      </c>
+      <c r="X19" s="13">
+        <f t="shared" si="28"/>
+        <v>1604.0455673709137</v>
+      </c>
+      <c r="AA19" s="73">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="AB19" s="1"/>
+      <c r="AC19" s="13">
+        <f t="shared" si="27"/>
+        <v>23</v>
+      </c>
+      <c r="AD19" s="13">
+        <f>K19+M19*$F$31+N19*$J$31+P19*$E$31</f>
+        <v>5.1656176934803615E-5</v>
+      </c>
+      <c r="AE19" s="56">
+        <f>(1-K19/AD19)*100</f>
+        <v>22.564923744773303</v>
+      </c>
+      <c r="BA19" s="96" t="s">
+        <v>57</v>
+      </c>
+      <c r="BB19" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="BC19" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="A20" s="97"/>
+      <c r="B20">
+        <v>1</v>
+      </c>
+      <c r="C20" t="s">
+        <v>30</v>
+      </c>
+      <c r="D20">
+        <v>3</v>
+      </c>
+      <c r="E20" t="s">
+        <v>38</v>
+      </c>
+      <c r="F20" s="36" t="s">
+        <v>39</v>
+      </c>
+      <c r="G20" s="34">
+        <v>80</v>
+      </c>
+      <c r="H20" s="36">
+        <v>6.0421565000000003E-2</v>
+      </c>
+      <c r="I20">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="J20" s="36" t="s">
+        <v>31</v>
+      </c>
+      <c r="K20">
+        <f>Q20*$U$20</f>
+        <v>4.0322099999999996E-3</v>
+      </c>
+      <c r="L20">
+        <f t="shared" si="26"/>
+        <v>2.0161049999999999E-5</v>
+      </c>
+      <c r="M20">
+        <f>K20*$W20</f>
+        <v>2.0843008232103681</v>
+      </c>
+      <c r="N20">
+        <f>K20*$X20</f>
+        <v>20.843008232103678</v>
+      </c>
+      <c r="O20">
+        <f>AA20*$K20</f>
+        <v>0</v>
+      </c>
+      <c r="P20" s="1">
+        <f t="shared" si="23"/>
+        <v>17.789161764705881</v>
+      </c>
+      <c r="Q20">
+        <v>1.9201E-4</v>
+      </c>
+      <c r="R20" s="1">
+        <f>K20*$AC20</f>
+        <v>0.30241574999999998</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+      <c r="T20">
+        <v>0</v>
+      </c>
+      <c r="U20" s="14">
+        <v>21</v>
+      </c>
+      <c r="V20" s="14">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="W20" s="14">
+        <f t="shared" si="24"/>
+        <v>516.91276575633913</v>
+      </c>
+      <c r="X20" s="14">
+        <f t="shared" si="28"/>
+        <v>5169.127657563391</v>
+      </c>
+      <c r="AA20" s="74">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="AC20" s="14">
+        <f t="shared" si="27"/>
+        <v>75</v>
+      </c>
+      <c r="AD20" s="14">
+        <f>K20+M20*$F$31+N20*$J$31+P20*$E$31</f>
+        <v>6.689085819105817E-3</v>
+      </c>
+      <c r="AE20" s="57">
+        <f>(1-K20/AD20)*100</f>
+        <v>39.719565437732463</v>
+      </c>
+      <c r="BA20" s="96"/>
+      <c r="BB20" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="BC20" s="7">
+        <v>0.106</v>
+      </c>
+    </row>
+    <row r="21" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="A21" s="2"/>
+      <c r="V21" s="75"/>
+      <c r="W21" s="15"/>
+      <c r="X21" s="45"/>
+      <c r="Z21" s="1"/>
+      <c r="AN21" s="96"/>
+      <c r="AO21" s="96"/>
+      <c r="AP21" s="96"/>
+      <c r="AQ21" s="96"/>
+      <c r="AR21" s="96"/>
+      <c r="AS21" s="96"/>
+      <c r="AT21" s="96"/>
+      <c r="AU21" s="96"/>
+      <c r="AV21" s="96"/>
+      <c r="AW21" s="96"/>
+      <c r="AX21" s="96"/>
+      <c r="AY21" s="96"/>
+      <c r="AZ21" s="96"/>
+      <c r="BA21" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="BB21" s="7">
+        <v>1.28</v>
+      </c>
+    </row>
+    <row r="22" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="A22" s="2"/>
+      <c r="V22" s="27"/>
+      <c r="W22" s="76"/>
+      <c r="X22" s="17" t="s">
+        <v>80</v>
+      </c>
+      <c r="Y22" s="33" t="s">
+        <v>81</v>
+      </c>
+      <c r="AA22" s="39">
+        <v>3</v>
+      </c>
+      <c r="AN22" s="96"/>
+      <c r="AO22" s="96"/>
+      <c r="AP22" s="96"/>
+      <c r="AQ22" s="96"/>
+      <c r="AR22" s="96"/>
+      <c r="AS22" s="96"/>
+      <c r="AT22" s="96"/>
+      <c r="AU22" s="96"/>
+      <c r="AV22" s="96"/>
+      <c r="AW22" s="96"/>
+      <c r="AX22" s="96"/>
+      <c r="AY22" s="96"/>
+      <c r="AZ22" s="96"/>
+      <c r="BA22" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="BB22" s="7">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="23" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="A23" s="2"/>
+      <c r="X23" s="14">
+        <v>0.1</v>
+      </c>
+      <c r="Y23" s="59">
+        <f>(SUMPRODUCT(V15:V20,AD15:AD20)+SUMPRODUCT(AW5:AW12,AU5:AU12))/SUM(AD15:AD20,AU5:AU12)</f>
+        <v>4.4061871887392909</v>
+      </c>
+      <c r="AA23" s="40" t="s">
+        <v>104</v>
+      </c>
+      <c r="AN23" s="96"/>
+      <c r="AO23" s="96"/>
+      <c r="AP23" s="96"/>
+      <c r="AQ23" s="96"/>
+      <c r="AR23" s="96"/>
+      <c r="AS23" s="96"/>
+      <c r="AT23" s="96"/>
+      <c r="AU23" s="96"/>
+      <c r="AV23" s="96"/>
+      <c r="AW23" s="96"/>
+      <c r="AX23" s="96"/>
+      <c r="AY23" s="96"/>
+      <c r="AZ23" s="96"/>
+      <c r="BA23" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="BB23" s="7">
+        <f>210*3600*24/12</f>
+        <v>1512000</v>
+      </c>
+    </row>
+    <row r="24" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="A24" s="2"/>
+      <c r="F24" s="1"/>
+      <c r="G24" s="1"/>
+      <c r="AN24" s="7"/>
+      <c r="AO24" s="7"/>
+      <c r="AP24" s="7"/>
+      <c r="AQ24" s="7"/>
+      <c r="AR24" s="7"/>
+      <c r="AS24" s="7"/>
+      <c r="AT24" s="7"/>
+      <c r="AU24" s="7"/>
+      <c r="AV24" s="7"/>
+      <c r="AW24" s="7"/>
+      <c r="AX24" s="7"/>
+      <c r="AY24" s="7"/>
+      <c r="AZ24" s="7"/>
+      <c r="BA24" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="BB24" s="7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="A25" s="97" t="s">
+        <v>72</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="E25" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F25" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="G25" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="H25" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="I25" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="J25" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="K25" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="L25" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="M25" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="AM25" s="9"/>
+      <c r="AN25" s="9"/>
+      <c r="AO25" s="9"/>
+      <c r="AP25" s="9"/>
+      <c r="AQ25" s="9"/>
+      <c r="AR25" s="9"/>
+      <c r="AS25" s="9"/>
+      <c r="AT25" s="9"/>
+      <c r="AU25" s="9"/>
+      <c r="AV25" s="9"/>
+      <c r="AW25" s="9"/>
+      <c r="AX25" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="AY25" s="7"/>
+      <c r="AZ25" s="7"/>
+      <c r="BA25" s="7">
+        <f>1/59</f>
+        <v>1.6949152542372881E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="A26" s="97"/>
+      <c r="B26">
+        <v>1</v>
+      </c>
+      <c r="C26" t="s">
+        <v>30</v>
+      </c>
+      <c r="D26" t="s">
+        <v>67</v>
+      </c>
+      <c r="E26" s="24">
+        <v>0</v>
+      </c>
+      <c r="F26" s="24">
+        <v>0</v>
+      </c>
+      <c r="G26" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="H26" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="I26" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="J26" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="K26" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="L26" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="M26" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="AM26" s="10"/>
+      <c r="AN26" s="10"/>
+      <c r="AO26" s="10"/>
+      <c r="AP26" s="10"/>
+      <c r="AQ26" s="10"/>
+      <c r="AR26" s="10"/>
+      <c r="AS26" s="10"/>
+      <c r="AT26" s="10"/>
+      <c r="AU26" s="10"/>
+      <c r="AV26" s="10"/>
+      <c r="AW26" s="10"/>
+      <c r="AX26" s="7"/>
+      <c r="AY26" s="7"/>
+      <c r="AZ26" s="7"/>
+      <c r="BA26" s="7"/>
+    </row>
+    <row r="27" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="A27" s="97"/>
+      <c r="B27">
+        <v>1</v>
+      </c>
+      <c r="C27" t="s">
+        <v>30</v>
+      </c>
+      <c r="D27" t="s">
+        <v>68</v>
+      </c>
+      <c r="E27" s="24">
+        <f>E28*$K$27</f>
+        <v>149.40821075064164</v>
+      </c>
+      <c r="F27" s="24">
+        <f>F28*$K$27</f>
+        <v>2.0336023403363006</v>
+      </c>
+      <c r="G27" s="24">
+        <f>G28*$K$27</f>
+        <v>20.336023403363001</v>
+      </c>
+      <c r="H27" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="I27" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="J27" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="K27" s="1">
+        <f>$P$33/$O$28/(1+$E$28*$E$31+$F$28*$F$31+$G$28*$G$31)</f>
+        <v>3.3865861103478771E-2</v>
+      </c>
+      <c r="L27" s="24">
+        <f>K27*$Y$16</f>
+        <v>1.6932930551739387E-4</v>
+      </c>
+      <c r="M27" s="24">
+        <f>M28*$K$27</f>
+        <v>8.4664652758696928</v>
+      </c>
+      <c r="N27" s="61" t="s">
+        <v>112</v>
+      </c>
+      <c r="O27" s="17" t="s">
+        <v>69</v>
+      </c>
+      <c r="P27" s="17" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q27" s="17" t="s">
+        <v>82</v>
+      </c>
+      <c r="R27" s="98" t="s">
+        <v>46</v>
+      </c>
+      <c r="S27" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="T27" s="8">
+        <v>2.6499999999999999E-8</v>
+      </c>
+      <c r="AM27" s="10"/>
+      <c r="AN27" s="10"/>
+      <c r="AO27" s="10"/>
+      <c r="AP27" s="10"/>
+      <c r="AQ27" s="10"/>
+      <c r="AR27" s="10"/>
+      <c r="AS27" s="10"/>
+      <c r="AT27" s="10"/>
+      <c r="AU27" s="10"/>
+      <c r="AV27" s="10"/>
+      <c r="AW27" s="10"/>
+      <c r="AX27" s="7"/>
+      <c r="AY27" s="7"/>
+      <c r="AZ27" s="7"/>
+      <c r="BA27" s="7"/>
+    </row>
+    <row r="28" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="E28" s="43">
+        <f>AB16</f>
+        <v>4411.7647058823532</v>
+      </c>
+      <c r="F28" s="44">
+        <f>(($Q$28/100)*(1+$E$28*$E$31)-$Y$16)/((1+1/$P$28)*(14*10^-6-$J$31*$Q$28/100))</f>
+        <v>60.04874153716424</v>
+      </c>
+      <c r="G28" s="44">
+        <f>F28/$P$28</f>
+        <v>600.48741537164233</v>
+      </c>
+      <c r="H28" s="18"/>
+      <c r="I28" s="18"/>
+      <c r="J28" s="18"/>
+      <c r="K28" s="18"/>
+      <c r="L28" s="18"/>
+      <c r="M28" s="19">
+        <v>250</v>
+      </c>
+      <c r="N28" s="62">
+        <f>SUM(AK5:AK12,K15:K20)/K27</f>
+        <v>0.59356706071351761</v>
+      </c>
+      <c r="O28" s="14">
+        <v>0.8</v>
+      </c>
+      <c r="P28" s="14">
+        <v>0.1</v>
+      </c>
+      <c r="Q28" s="14">
+        <v>1.2</v>
+      </c>
+      <c r="R28" s="98"/>
+      <c r="S28" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="T28" s="7">
+        <v>0.106</v>
+      </c>
+      <c r="AM28" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="AN28" s="10"/>
+      <c r="AO28" s="10"/>
+      <c r="AP28" s="10"/>
+      <c r="AQ28" s="10"/>
+      <c r="AR28" s="10"/>
+      <c r="AS28" s="10"/>
+      <c r="AT28" s="10"/>
+      <c r="AU28" s="10"/>
+      <c r="AV28" s="10"/>
+      <c r="AW28" s="10"/>
+      <c r="AX28" s="7"/>
+      <c r="AY28" s="7"/>
+      <c r="AZ28" s="7"/>
+      <c r="BA28" s="7"/>
+    </row>
+    <row r="29" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="F29" s="1"/>
+      <c r="R29" s="98"/>
+      <c r="S29" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="T29" s="7">
+        <v>1.28</v>
+      </c>
+      <c r="W29" s="37" t="s">
+        <v>103</v>
+      </c>
+      <c r="X29" s="38">
+        <v>180</v>
+      </c>
+      <c r="AM29" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="AN29" s="11"/>
+      <c r="AO29" s="11"/>
+      <c r="AP29" s="11"/>
+      <c r="AQ29" s="11"/>
+      <c r="AR29" s="11"/>
+      <c r="AS29" s="11"/>
+      <c r="AT29" s="11"/>
+      <c r="AU29" s="11"/>
+      <c r="AV29" s="11"/>
+      <c r="AW29" s="11"/>
+      <c r="AX29" s="7"/>
+      <c r="AY29" s="7"/>
+      <c r="AZ29" s="7"/>
+      <c r="BA29" s="7"/>
+    </row>
+    <row r="30" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="D30" s="23" t="s">
+        <v>78</v>
+      </c>
+      <c r="F30" s="1"/>
+      <c r="O30" s="28" t="s">
+        <v>116</v>
+      </c>
+      <c r="P30" s="54">
+        <f>K27+SUM(K15:K20)+SUM(AK5:AK12)</f>
+        <v>5.3967520737202901E-2</v>
+      </c>
+      <c r="R30" s="98"/>
+      <c r="S30" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="T30" s="7">
+        <v>0.8</v>
+      </c>
+      <c r="W30" s="37" t="s">
+        <v>100</v>
+      </c>
+      <c r="X30" s="38">
+        <v>340</v>
+      </c>
+      <c r="AM30" s="11"/>
+      <c r="AN30" s="11"/>
+      <c r="AO30" s="11"/>
+      <c r="AP30" s="11"/>
+      <c r="AQ30" s="11"/>
+      <c r="AR30" s="11"/>
+      <c r="AS30" s="11"/>
+      <c r="AT30" s="11"/>
+      <c r="AU30" s="11"/>
+      <c r="AV30" s="11"/>
+      <c r="AW30" s="11"/>
+      <c r="AX30" s="7"/>
+      <c r="AY30" s="7"/>
+      <c r="AZ30" s="7"/>
+      <c r="BA30" s="7"/>
+    </row>
+    <row r="31" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="D31" s="20" t="s">
+        <v>79</v>
+      </c>
+      <c r="E31" s="20">
+        <f xml:space="preserve"> (0.000001*12) / 0.42</f>
+        <v>2.8571428571428574E-5</v>
+      </c>
+      <c r="F31" s="21">
+        <f>( 0.000001*14) / 0.135</f>
+        <v>1.037037037037037E-4</v>
+      </c>
+      <c r="G31" s="21">
+        <f>62*10^-6</f>
+        <v>6.2000000000000003E-5</v>
+      </c>
+      <c r="J31" s="21">
+        <f>( 0.000001*14) / 0.151</f>
+        <v>9.2715231788079476E-5</v>
+      </c>
+      <c r="R31" s="98"/>
+      <c r="S31" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="T31" s="7">
+        <f>271*3600 * 24 /12</f>
+        <v>1951200</v>
+      </c>
+      <c r="W31" s="28" t="s">
+        <v>101</v>
+      </c>
+      <c r="X31" s="30">
+        <v>12</v>
+      </c>
+      <c r="AM31" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="AN31" s="10"/>
+      <c r="AO31" s="10"/>
+      <c r="AP31" s="10"/>
+      <c r="AQ31" s="10"/>
+      <c r="AR31" s="10"/>
+      <c r="AS31" s="10"/>
+      <c r="AT31" s="10"/>
+      <c r="AU31" s="10"/>
+      <c r="AV31" s="10"/>
+      <c r="AW31" s="10"/>
+      <c r="AX31" s="7"/>
+      <c r="AY31" s="7"/>
+      <c r="AZ31" s="7"/>
+      <c r="BA31" s="7"/>
+    </row>
+    <row r="32" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="D32" s="20" t="s">
+        <v>76</v>
+      </c>
+      <c r="E32" s="20">
+        <f>E26*E31</f>
+        <v>0</v>
+      </c>
+      <c r="F32" s="21">
+        <f>F26*F31</f>
+        <v>0</v>
+      </c>
+      <c r="G32" s="21"/>
+      <c r="O32" s="28" t="s">
+        <v>111</v>
+      </c>
+      <c r="P32" s="54">
+        <f>E26*E31+F26*F31</f>
+        <v>0</v>
+      </c>
+      <c r="R32" s="98"/>
+      <c r="S32" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="T32" s="7">
+        <v>1.557936E-2</v>
+      </c>
+      <c r="W32" s="28" t="s">
+        <v>102</v>
+      </c>
+      <c r="X32" s="30">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="33" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="O33" s="28" t="s">
+        <v>92</v>
+      </c>
+      <c r="P33" s="54">
+        <f t="array" ref="P33">SUM(K15:K20,AK5:AK12)+SUM(AF5:AF12*F31,M15:M20*F31)+SUM(AH5:AH12*J31,N15:N20*J31)+SUM(AE5:AE12*E31,P15:P20*E31)+SUM(O15:O20*E31,AG5:AG12*E31)</f>
+        <v>3.1685114136390059E-2</v>
+      </c>
+      <c r="W33" s="28" t="s">
+        <v>105</v>
+      </c>
+      <c r="X33" s="41">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="O34" s="28" t="s">
+        <v>93</v>
+      </c>
+      <c r="P34" s="29">
+        <f>K27+E27*E31+F27*F31+G27*G31</f>
+        <v>3.9606392670487579E-2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="99" t="s">
+        <v>132</v>
+      </c>
+      <c r="B35" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C35" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D35" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="E35" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="F35" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="G35" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="H35" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="I35" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="J35" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="K35" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="L35" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="M35" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="O35" s="28" t="s">
+        <v>108</v>
+      </c>
+      <c r="P35" s="29">
+        <f>P34+P33+P32</f>
+        <v>7.1291506806877639E-2</v>
+      </c>
+      <c r="Q35" s="25"/>
+    </row>
+    <row r="36" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A36" s="99"/>
+      <c r="B36">
+        <v>1</v>
+      </c>
+      <c r="C36" t="s">
+        <v>30</v>
+      </c>
+      <c r="D36" t="s">
+        <v>131</v>
+      </c>
+      <c r="E36">
+        <v>10</v>
+      </c>
+      <c r="F36" t="s">
+        <v>33</v>
+      </c>
+      <c r="G36">
+        <v>0</v>
+      </c>
+      <c r="H36">
+        <v>1</v>
+      </c>
+      <c r="I36">
+        <v>20</v>
+      </c>
+      <c r="J36">
+        <v>3600</v>
+      </c>
+      <c r="K36">
+        <v>3600</v>
+      </c>
+      <c r="L36">
+        <v>0</v>
+      </c>
+      <c r="M36">
+        <v>0</v>
+      </c>
+      <c r="O36" s="30"/>
+      <c r="P36" s="31"/>
+      <c r="Q36" s="1"/>
+    </row>
+    <row r="37" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="O37" s="28" t="s">
+        <v>114</v>
+      </c>
+      <c r="P37" s="32">
+        <f>1-SUM($AK$5:$AK$12,$K$15:$K$20)/$P$33</f>
+        <v>0.36558033065004591</v>
+      </c>
+    </row>
+    <row r="38" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="O38" s="28" t="s">
+        <v>115</v>
+      </c>
+      <c r="P38" s="32">
+        <f>1-$K$27/$P$34</f>
+        <v>0.14493952061648685</v>
+      </c>
+    </row>
+    <row r="39" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="O39" s="28" t="s">
+        <v>94</v>
+      </c>
+      <c r="P39" s="32">
+        <f>1-SUM($AK$5:$AK$12,$K$15:$K$20)/($P$33+N28/(1+N28)*P32)</f>
+        <v>0.36558033065004591</v>
+      </c>
+    </row>
+    <row r="40" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="O40" s="28" t="s">
+        <v>95</v>
+      </c>
+      <c r="P40" s="32">
+        <f>1-$K$27/($P$34+1/(1+N28)*P32)</f>
+        <v>0.14493952061648685</v>
+      </c>
+    </row>
+    <row r="42" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="O42" s="28" t="s">
+        <v>110</v>
+      </c>
+      <c r="P42" s="60" t="e">
+        <f>(F26*14*10^-6)/(E26*E31+F26*F31)*100</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="43" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="O43" s="28" t="s">
+        <v>109</v>
+      </c>
+      <c r="P43" s="60" t="e">
+        <f>($Y$23*$P$33+$Q$28*$P$34+$P$32*$P$42)/$P$35</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="44" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="O44" s="28" t="s">
+        <v>113</v>
+      </c>
+      <c r="P44" s="60">
+        <f>($Y$23*$P$33+$Q$28*$P$34)/($P$33+$P$34)</f>
+        <v>2.6249720838841291</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="A4:A12"/>
+    <mergeCell ref="A14:A20"/>
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="R27:R32"/>
+    <mergeCell ref="A35:A36"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D20"/>
   <sheetViews>
@@ -7978,11 +14856,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+    <sheetView topLeftCell="A8" workbookViewId="0">
       <selection activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
